--- a/conflit_faune.xlsx
+++ b/conflit_faune.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p25m1\Desktop\Excel_Webapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p25m1\Desktop\donnee_conflit_faune\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="93">
   <si>
     <t>Morts</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>Blesses</t>
+  </si>
+  <si>
+    <t>NDOUCI</t>
+  </si>
+  <si>
+    <t>Psychose de la population</t>
   </si>
 </sst>
 </file>
@@ -697,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,25 +782,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
@@ -818,13 +824,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -836,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>62</v>
@@ -860,16 +866,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -878,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>52</v>
@@ -902,19 +908,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -944,13 +950,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -962,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>3</v>
@@ -986,13 +992,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -1001,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -1028,13 +1034,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -1046,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>35</v>
@@ -1070,16 +1076,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1112,25 +1118,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>61</v>
@@ -1154,25 +1160,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>2012</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>51</v>
@@ -1196,22 +1202,22 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F13" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1219,16 +1225,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1242,16 +1248,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1260,18 +1266,18 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
@@ -1283,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1291,13 +1297,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
         <v>2016</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1306,21 +1312,21 @@
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1329,27 +1335,27 @@
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1357,39 +1363,39 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
         <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1403,19 +1409,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1426,19 +1432,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1449,13 +1455,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -1464,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1472,16 +1478,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -1495,22 +1501,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1518,16 +1524,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -1541,16 +1547,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C28" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -1559,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -1587,16 +1593,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -1610,39 +1616,39 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C31" s="1">
         <v>2017</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -1656,13 +1662,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>12</v>
@@ -1679,13 +1685,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>12</v>
@@ -1694,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1702,16 +1708,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -1720,21 +1726,21 @@
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -1748,39 +1754,39 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -1789,44 +1795,44 @@
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1">
         <v>2016</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
         <v>8</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -1840,16 +1846,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
         <v>2018</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -1858,73 +1864,73 @@
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -1932,13 +1938,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>4</v>
@@ -1955,56 +1961,56 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
         <v>11</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2012</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1">
         <v>2016</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1">
         <v>2016</v>
@@ -2019,21 +2025,21 @@
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1">
         <v>2016</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -2042,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1">
         <v>2016</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -2065,27 +2071,27 @@
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1">
         <v>2016</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2093,10 +2099,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C52" s="1">
         <v>2016</v>
@@ -2116,13 +2122,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C53" s="1">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
@@ -2139,19 +2145,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C54" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E54" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -2162,10 +2168,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C55" s="1">
         <v>2017</v>
@@ -2177,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2185,16 +2191,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -2208,22 +2214,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2231,13 +2237,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>12</v>
@@ -2254,39 +2260,39 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -2300,16 +2306,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -2323,39 +2329,39 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1">
         <v>2017</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E62" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C63" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
@@ -2369,10 +2375,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C64" s="1">
         <v>2018</v>
@@ -2381,10 +2387,10 @@
         <v>12</v>
       </c>
       <c r="E64" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -2392,10 +2398,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1">
         <v>2018</v>
@@ -2404,10 +2410,10 @@
         <v>12</v>
       </c>
       <c r="E65" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2418,13 +2424,13 @@
         <v>23</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
@@ -2433,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2461,13 +2467,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C68" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>12</v>
@@ -2476,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2484,16 +2490,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="1">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
@@ -2507,7 +2513,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>3</v>
@@ -2519,10 +2525,10 @@
         <v>4</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -2530,7 +2536,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>3</v>
@@ -2539,13 +2545,13 @@
         <v>2019</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E71" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F71" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -2553,7 +2559,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>3</v>
@@ -2562,10 +2568,10 @@
         <v>2019</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E72" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -2576,16 +2582,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C73" s="1">
         <v>2019</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -2599,22 +2605,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C74" s="1">
         <v>2019</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E74" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
@@ -2640,21 +2646,21 @@
         <v>0</v>
       </c>
       <c r="G75" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C76" s="1">
         <v>2019</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
@@ -2668,16 +2674,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1">
         <v>2019</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -2686,27 +2692,27 @@
         <v>0</v>
       </c>
       <c r="G77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C78" s="1">
         <v>2019</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E78" s="1">
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="1">
         <v>0</v>
@@ -2714,7 +2720,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>3</v>
@@ -2723,7 +2729,7 @@
         <v>2019</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
@@ -2737,16 +2743,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C80" s="1">
         <v>2019</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -2755,12 +2761,12 @@
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>3</v>
@@ -2775,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" s="1">
         <v>0</v>
@@ -2783,16 +2789,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C82" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -2806,16 +2812,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C83" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -2824,21 +2830,21 @@
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E84" s="1">
         <v>0</v>
@@ -2852,13 +2858,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C85" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>4</v>
@@ -2875,16 +2881,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C86" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -2898,22 +2904,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C87" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
       </c>
       <c r="F87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="1">
         <v>0</v>
@@ -2921,19 +2927,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C88" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -2944,13 +2950,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>12</v>
@@ -2962,21 +2968,21 @@
         <v>0</v>
       </c>
       <c r="G89" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C90" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -2990,16 +2996,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C91" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -3013,16 +3019,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C92" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -3036,22 +3042,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C93" s="1">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E93" s="1">
         <v>0</v>
       </c>
       <c r="F93" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G93" s="1">
         <v>0</v>
@@ -3059,16 +3065,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C94" s="1">
         <v>2020</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -3077,21 +3083,21 @@
         <v>0</v>
       </c>
       <c r="G94" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C95" s="1">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -3100,27 +3106,27 @@
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C96" s="1">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E96" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F96" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G96" s="1">
         <v>0</v>
@@ -3128,16 +3134,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C97" s="1">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -3151,16 +3157,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C98" s="1">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -3169,18 +3175,18 @@
         <v>0</v>
       </c>
       <c r="G98" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C99" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>12</v>
@@ -3197,16 +3203,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C100" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E100" s="1">
         <v>0</v>
@@ -3220,13 +3226,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C101" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>8</v>
@@ -3238,18 +3244,18 @@
         <v>0</v>
       </c>
       <c r="G101" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C102" s="1">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>12</v>
@@ -3266,19 +3272,19 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C103" s="1">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -3289,19 +3295,19 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C104" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="E104" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
@@ -3312,16 +3318,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C105" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -3335,7 +3341,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>35</v>
@@ -3344,21 +3350,21 @@
         <v>2020</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
       </c>
       <c r="G106" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>35</v>
@@ -3370,7 +3376,7 @@
         <v>12</v>
       </c>
       <c r="E107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -3381,7 +3387,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>35</v>
@@ -3399,15 +3405,15 @@
         <v>0</v>
       </c>
       <c r="G108" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C109" s="1">
         <v>2020</v>
@@ -3416,24 +3422,24 @@
         <v>12</v>
       </c>
       <c r="E109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
       </c>
       <c r="G109" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C110" s="1">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>12</v>
@@ -3442,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="F110" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G110" s="1">
         <v>0</v>
@@ -3450,19 +3456,19 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C111" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E111" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
@@ -3473,19 +3479,19 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C112" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="E112" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -3496,16 +3502,16 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C113" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -3519,36 +3525,36 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C114" s="1">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" s="1">
         <v>1</v>
       </c>
       <c r="G114" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C115" s="1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>12</v>
@@ -3557,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G115" s="1">
         <v>0</v>
@@ -3565,13 +3571,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C116" s="1">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>12</v>
@@ -3580,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F116" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G116" s="1">
         <v>0</v>
@@ -3588,28 +3594,54 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C117" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="1">
         <v>2020</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" s="1">
-        <v>0</v>
-      </c>
-      <c r="F117" s="1">
-        <v>0</v>
-      </c>
-      <c r="G117" s="1">
+      <c r="D118" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:G117">
+    <sortCondition ref="B97"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="A1:G1"/>

--- a/conflit_faune.xlsx
+++ b/conflit_faune.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="95">
   <si>
     <t>Morts</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>Psychose de la population</t>
+  </si>
+  <si>
+    <t>ANIASSUE</t>
+  </si>
+  <si>
+    <t>Champs d'igname, cacao, de manioc, de rizières</t>
   </si>
 </sst>
 </file>
@@ -407,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,6 +429,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+      <selection activeCell="A119" sqref="A119:G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1078,7 @@
       </c>
       <c r="M9" s="1">
         <f>SUMIF(B$3:B123,I9,G$3:G123)</f>
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3636,6 +3643,44 @@
       </c>
       <c r="G118" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="7">
+        <v>2021</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0</v>
+      </c>
+      <c r="G120" s="1">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/conflit_faune.xlsx
+++ b/conflit_faune.xlsx
@@ -713,7 +713,7 @@
   <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:G120"/>
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/conflit_faune.xlsx
+++ b/conflit_faune.xlsx
@@ -413,13 +413,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,7 +430,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,20 +734,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="I1" s="4" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -800,13 +801,13 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="8">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -842,13 +843,13 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -884,13 +885,13 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -926,13 +927,13 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -968,13 +969,13 @@
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1010,13 +1011,13 @@
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1052,13 +1053,13 @@
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
         <v>9</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1094,13 +1095,13 @@
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1136,13 +1137,13 @@
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1178,13 +1179,13 @@
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1220,13 +1221,13 @@
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="E13" s="8">
+        <v>3</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1243,13 +1244,13 @@
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1266,13 +1267,13 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1289,13 +1290,13 @@
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1312,13 +1313,13 @@
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1335,13 +1336,13 @@
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
         <v>9</v>
       </c>
     </row>
@@ -1358,13 +1359,13 @@
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
         <v>2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1381,13 +1382,13 @@
       <c r="D20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1404,13 +1405,13 @@
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1427,13 +1428,13 @@
       <c r="D22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="8">
         <v>1</v>
       </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1450,13 +1451,13 @@
       <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="8">
         <v>1</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1473,13 +1474,13 @@
       <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1496,13 +1497,13 @@
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1519,13 +1520,13 @@
       <c r="D26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="8">
         <v>2</v>
       </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1542,13 +1543,13 @@
       <c r="D27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1565,13 +1566,13 @@
       <c r="D28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1588,13 +1589,13 @@
       <c r="D29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1611,13 +1612,13 @@
       <c r="D30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1634,13 +1635,13 @@
       <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="1">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="E31" s="8">
+        <v>3</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1657,13 +1658,13 @@
       <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1680,13 +1681,13 @@
       <c r="D33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
         <v>1</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1703,13 +1704,13 @@
       <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1726,13 +1727,13 @@
       <c r="D35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1749,13 +1750,13 @@
       <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1772,13 +1773,13 @@
       <c r="D37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8">
         <v>115</v>
       </c>
     </row>
@@ -1795,13 +1796,13 @@
       <c r="D38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
         <v>417</v>
       </c>
     </row>
@@ -1818,13 +1819,13 @@
       <c r="D39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="E39" s="8">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
         <v>8</v>
       </c>
     </row>
@@ -1841,13 +1842,13 @@
       <c r="D40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1864,13 +1865,13 @@
       <c r="D41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
+      <c r="E41" s="8">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8">
         <v>9</v>
       </c>
     </row>
@@ -1887,13 +1888,13 @@
       <c r="D42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="8">
         <v>2</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="8">
         <v>1</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="8">
         <v>200</v>
       </c>
     </row>
@@ -1910,13 +1911,13 @@
       <c r="D43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="E43" s="8">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8">
         <v>1</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="8">
         <v>14</v>
       </c>
     </row>
@@ -1933,13 +1934,13 @@
       <c r="D44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="8">
         <v>9</v>
       </c>
-      <c r="F44" s="1">
-        <v>3</v>
-      </c>
-      <c r="G44" s="1">
+      <c r="F44" s="8">
+        <v>3</v>
+      </c>
+      <c r="G44" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1956,13 +1957,13 @@
       <c r="D45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
+      <c r="E45" s="8">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1979,13 +1980,13 @@
       <c r="D46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
+      <c r="E46" s="8">
+        <v>0</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0</v>
+      </c>
+      <c r="G46" s="8">
         <v>11</v>
       </c>
     </row>
@@ -2002,13 +2003,13 @@
       <c r="D47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
+      <c r="E47" s="8">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0</v>
+      </c>
+      <c r="G47" s="8">
         <v>29</v>
       </c>
     </row>
@@ -2025,13 +2026,13 @@
       <c r="D48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
+      <c r="E48" s="8">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0</v>
+      </c>
+      <c r="G48" s="8">
         <v>39</v>
       </c>
     </row>
@@ -2048,13 +2049,13 @@
       <c r="D49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
+      <c r="E49" s="8">
+        <v>0</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0</v>
+      </c>
+      <c r="G49" s="8">
         <v>2</v>
       </c>
     </row>
@@ -2071,13 +2072,13 @@
       <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1">
+      <c r="E50" s="8">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0</v>
+      </c>
+      <c r="G50" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2094,13 +2095,13 @@
       <c r="D51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="1">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="E51" s="8">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8">
         <v>1</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2117,13 +2118,13 @@
       <c r="D52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1">
+      <c r="E52" s="8">
+        <v>0</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0</v>
+      </c>
+      <c r="G52" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2140,13 +2141,13 @@
       <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1">
+      <c r="E53" s="8">
+        <v>0</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0</v>
+      </c>
+      <c r="G53" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2163,13 +2164,13 @@
       <c r="D54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1">
+      <c r="E54" s="8">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0</v>
+      </c>
+      <c r="G54" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2186,13 +2187,13 @@
       <c r="D55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="E55" s="8">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8">
         <v>1</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2209,13 +2210,13 @@
       <c r="D56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1">
+      <c r="E56" s="8">
+        <v>0</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0</v>
+      </c>
+      <c r="G56" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2232,13 +2233,13 @@
       <c r="D57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
+      <c r="E57" s="8">
+        <v>0</v>
+      </c>
+      <c r="F57" s="8">
         <v>2</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2255,13 +2256,13 @@
       <c r="D58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0</v>
-      </c>
-      <c r="G58" s="1">
+      <c r="E58" s="8">
+        <v>0</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0</v>
+      </c>
+      <c r="G58" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2278,13 +2279,13 @@
       <c r="D59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
-      </c>
-      <c r="G59" s="1">
+      <c r="E59" s="8">
+        <v>0</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0</v>
+      </c>
+      <c r="G59" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2301,13 +2302,13 @@
       <c r="D60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
-      </c>
-      <c r="G60" s="1">
+      <c r="E60" s="8">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0</v>
+      </c>
+      <c r="G60" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2324,13 +2325,13 @@
       <c r="D61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1">
+      <c r="E61" s="8">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0</v>
+      </c>
+      <c r="G61" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2347,13 +2348,13 @@
       <c r="D62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="1">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1">
+      <c r="E62" s="8">
+        <v>0</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0</v>
+      </c>
+      <c r="G62" s="8">
         <v>18</v>
       </c>
     </row>
@@ -2370,13 +2371,13 @@
       <c r="D63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1">
+      <c r="E63" s="8">
+        <v>0</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0</v>
+      </c>
+      <c r="G63" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2393,13 +2394,13 @@
       <c r="D64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1">
+      <c r="E64" s="8">
+        <v>0</v>
+      </c>
+      <c r="F64" s="8">
         <v>1</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2416,13 +2417,13 @@
       <c r="D65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="1">
-        <v>0</v>
-      </c>
-      <c r="F65" s="1">
+      <c r="E65" s="8">
+        <v>0</v>
+      </c>
+      <c r="F65" s="8">
         <v>1</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2439,13 +2440,13 @@
       <c r="D66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="1">
-        <v>0</v>
-      </c>
-      <c r="F66" s="1">
-        <v>0</v>
-      </c>
-      <c r="G66" s="1">
+      <c r="E66" s="8">
+        <v>0</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0</v>
+      </c>
+      <c r="G66" s="8">
         <v>7</v>
       </c>
     </row>
@@ -2462,13 +2463,13 @@
       <c r="D67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E67" s="1">
-        <v>0</v>
-      </c>
-      <c r="F67" s="1">
-        <v>0</v>
-      </c>
-      <c r="G67" s="1">
+      <c r="E67" s="8">
+        <v>0</v>
+      </c>
+      <c r="F67" s="8">
+        <v>0</v>
+      </c>
+      <c r="G67" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2485,13 +2486,13 @@
       <c r="D68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="1">
-        <v>0</v>
-      </c>
-      <c r="F68" s="1">
-        <v>0</v>
-      </c>
-      <c r="G68" s="1">
+      <c r="E68" s="8">
+        <v>0</v>
+      </c>
+      <c r="F68" s="8">
+        <v>0</v>
+      </c>
+      <c r="G68" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2508,13 +2509,13 @@
       <c r="D69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E69" s="1">
-        <v>0</v>
-      </c>
-      <c r="F69" s="1">
-        <v>0</v>
-      </c>
-      <c r="G69" s="1">
+      <c r="E69" s="8">
+        <v>0</v>
+      </c>
+      <c r="F69" s="8">
+        <v>0</v>
+      </c>
+      <c r="G69" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2531,13 +2532,13 @@
       <c r="D70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="8">
         <v>9</v>
       </c>
-      <c r="F70" s="1">
-        <v>3</v>
-      </c>
-      <c r="G70" s="1">
+      <c r="F70" s="8">
+        <v>3</v>
+      </c>
+      <c r="G70" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2554,13 +2555,13 @@
       <c r="D71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="1">
-        <v>3</v>
-      </c>
-      <c r="F71" s="1">
-        <v>0</v>
-      </c>
-      <c r="G71" s="1">
+      <c r="E71" s="8">
+        <v>3</v>
+      </c>
+      <c r="F71" s="8">
+        <v>0</v>
+      </c>
+      <c r="G71" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2577,13 +2578,13 @@
       <c r="D72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="1">
-        <v>0</v>
-      </c>
-      <c r="F72" s="1">
-        <v>0</v>
-      </c>
-      <c r="G72" s="1">
+      <c r="E72" s="8">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0</v>
+      </c>
+      <c r="G72" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2600,13 +2601,13 @@
       <c r="D73" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E73" s="1">
-        <v>0</v>
-      </c>
-      <c r="F73" s="1">
-        <v>0</v>
-      </c>
-      <c r="G73" s="1">
+      <c r="E73" s="8">
+        <v>0</v>
+      </c>
+      <c r="F73" s="8">
+        <v>0</v>
+      </c>
+      <c r="G73" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2623,13 +2624,13 @@
       <c r="D74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="1">
-        <v>0</v>
-      </c>
-      <c r="F74" s="1">
+      <c r="E74" s="8">
+        <v>0</v>
+      </c>
+      <c r="F74" s="8">
         <v>1</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2646,13 +2647,13 @@
       <c r="D75" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="1">
-        <v>0</v>
-      </c>
-      <c r="F75" s="1">
-        <v>0</v>
-      </c>
-      <c r="G75" s="1">
+      <c r="E75" s="8">
+        <v>0</v>
+      </c>
+      <c r="F75" s="8">
+        <v>0</v>
+      </c>
+      <c r="G75" s="8">
         <v>9</v>
       </c>
     </row>
@@ -2669,13 +2670,13 @@
       <c r="D76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="1">
-        <v>0</v>
-      </c>
-      <c r="F76" s="1">
-        <v>0</v>
-      </c>
-      <c r="G76" s="1">
+      <c r="E76" s="8">
+        <v>0</v>
+      </c>
+      <c r="F76" s="8">
+        <v>0</v>
+      </c>
+      <c r="G76" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2692,13 +2693,13 @@
       <c r="D77" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="1">
-        <v>0</v>
-      </c>
-      <c r="F77" s="1">
-        <v>0</v>
-      </c>
-      <c r="G77" s="1">
+      <c r="E77" s="8">
+        <v>0</v>
+      </c>
+      <c r="F77" s="8">
+        <v>0</v>
+      </c>
+      <c r="G77" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2715,13 +2716,13 @@
       <c r="D78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="1">
-        <v>0</v>
-      </c>
-      <c r="F78" s="1">
+      <c r="E78" s="8">
+        <v>0</v>
+      </c>
+      <c r="F78" s="8">
         <v>1</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2738,13 +2739,13 @@
       <c r="D79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="1">
-        <v>0</v>
-      </c>
-      <c r="F79" s="1">
-        <v>0</v>
-      </c>
-      <c r="G79" s="1">
+      <c r="E79" s="8">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8">
+        <v>0</v>
+      </c>
+      <c r="G79" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2761,13 +2762,13 @@
       <c r="D80" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E80" s="1">
-        <v>0</v>
-      </c>
-      <c r="F80" s="1">
-        <v>0</v>
-      </c>
-      <c r="G80" s="1">
+      <c r="E80" s="8">
+        <v>0</v>
+      </c>
+      <c r="F80" s="8">
+        <v>0</v>
+      </c>
+      <c r="G80" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2784,13 +2785,13 @@
       <c r="D81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="1">
-        <v>0</v>
-      </c>
-      <c r="F81" s="1">
-        <v>0</v>
-      </c>
-      <c r="G81" s="1">
+      <c r="E81" s="8">
+        <v>0</v>
+      </c>
+      <c r="F81" s="8">
+        <v>0</v>
+      </c>
+      <c r="G81" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2807,13 +2808,13 @@
       <c r="D82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E82" s="1">
-        <v>0</v>
-      </c>
-      <c r="F82" s="1">
-        <v>0</v>
-      </c>
-      <c r="G82" s="1">
+      <c r="E82" s="8">
+        <v>0</v>
+      </c>
+      <c r="F82" s="8">
+        <v>0</v>
+      </c>
+      <c r="G82" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2830,13 +2831,13 @@
       <c r="D83" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="1">
-        <v>0</v>
-      </c>
-      <c r="F83" s="1">
-        <v>0</v>
-      </c>
-      <c r="G83" s="1">
+      <c r="E83" s="8">
+        <v>0</v>
+      </c>
+      <c r="F83" s="8">
+        <v>0</v>
+      </c>
+      <c r="G83" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2853,13 +2854,13 @@
       <c r="D84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E84" s="1">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1">
-        <v>0</v>
-      </c>
-      <c r="G84" s="1">
+      <c r="E84" s="8">
+        <v>0</v>
+      </c>
+      <c r="F84" s="8">
+        <v>0</v>
+      </c>
+      <c r="G84" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2876,13 +2877,13 @@
       <c r="D85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="1">
-        <v>0</v>
-      </c>
-      <c r="F85" s="1">
-        <v>0</v>
-      </c>
-      <c r="G85" s="1">
+      <c r="E85" s="8">
+        <v>0</v>
+      </c>
+      <c r="F85" s="8">
+        <v>0</v>
+      </c>
+      <c r="G85" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2899,13 +2900,13 @@
       <c r="D86" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="1">
-        <v>0</v>
-      </c>
-      <c r="F86" s="1">
-        <v>0</v>
-      </c>
-      <c r="G86" s="1">
+      <c r="E86" s="8">
+        <v>0</v>
+      </c>
+      <c r="F86" s="8">
+        <v>0</v>
+      </c>
+      <c r="G86" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2922,13 +2923,13 @@
       <c r="D87" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="1">
-        <v>0</v>
-      </c>
-      <c r="F87" s="1">
-        <v>0</v>
-      </c>
-      <c r="G87" s="1">
+      <c r="E87" s="8">
+        <v>0</v>
+      </c>
+      <c r="F87" s="8">
+        <v>0</v>
+      </c>
+      <c r="G87" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2945,13 +2946,13 @@
       <c r="D88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="1">
-        <v>0</v>
-      </c>
-      <c r="F88" s="1">
-        <v>0</v>
-      </c>
-      <c r="G88" s="1">
+      <c r="E88" s="8">
+        <v>0</v>
+      </c>
+      <c r="F88" s="8">
+        <v>0</v>
+      </c>
+      <c r="G88" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2968,13 +2969,13 @@
       <c r="D89" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E89" s="1">
-        <v>0</v>
-      </c>
-      <c r="F89" s="1">
-        <v>0</v>
-      </c>
-      <c r="G89" s="1">
+      <c r="E89" s="8">
+        <v>0</v>
+      </c>
+      <c r="F89" s="8">
+        <v>0</v>
+      </c>
+      <c r="G89" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2991,13 +2992,13 @@
       <c r="D90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="1">
-        <v>0</v>
-      </c>
-      <c r="F90" s="1">
-        <v>0</v>
-      </c>
-      <c r="G90" s="1">
+      <c r="E90" s="8">
+        <v>0</v>
+      </c>
+      <c r="F90" s="8">
+        <v>0</v>
+      </c>
+      <c r="G90" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3014,13 +3015,13 @@
       <c r="D91" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E91" s="1">
-        <v>0</v>
-      </c>
-      <c r="F91" s="1">
-        <v>0</v>
-      </c>
-      <c r="G91" s="1">
+      <c r="E91" s="8">
+        <v>0</v>
+      </c>
+      <c r="F91" s="8">
+        <v>0</v>
+      </c>
+      <c r="G91" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3037,13 +3038,13 @@
       <c r="D92" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E92" s="1">
-        <v>0</v>
-      </c>
-      <c r="F92" s="1">
-        <v>0</v>
-      </c>
-      <c r="G92" s="1">
+      <c r="E92" s="8">
+        <v>0</v>
+      </c>
+      <c r="F92" s="8">
+        <v>0</v>
+      </c>
+      <c r="G92" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3060,13 +3061,13 @@
       <c r="D93" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="1">
-        <v>0</v>
-      </c>
-      <c r="F93" s="1">
+      <c r="E93" s="8">
+        <v>0</v>
+      </c>
+      <c r="F93" s="8">
         <v>2</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G93" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3083,13 +3084,13 @@
       <c r="D94" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="1">
-        <v>0</v>
-      </c>
-      <c r="F94" s="1">
-        <v>0</v>
-      </c>
-      <c r="G94" s="1">
+      <c r="E94" s="8">
+        <v>0</v>
+      </c>
+      <c r="F94" s="8">
+        <v>0</v>
+      </c>
+      <c r="G94" s="8">
         <v>2</v>
       </c>
     </row>
@@ -3106,13 +3107,13 @@
       <c r="D95" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E95" s="1">
-        <v>0</v>
-      </c>
-      <c r="F95" s="1">
-        <v>0</v>
-      </c>
-      <c r="G95" s="1">
+      <c r="E95" s="8">
+        <v>0</v>
+      </c>
+      <c r="F95" s="8">
+        <v>0</v>
+      </c>
+      <c r="G95" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3129,13 +3130,13 @@
       <c r="D96" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="8">
         <v>2</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96" s="8">
         <v>2</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G96" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3152,13 +3153,13 @@
       <c r="D97" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E97" s="1">
-        <v>0</v>
-      </c>
-      <c r="F97" s="1">
-        <v>0</v>
-      </c>
-      <c r="G97" s="1">
+      <c r="E97" s="8">
+        <v>0</v>
+      </c>
+      <c r="F97" s="8">
+        <v>0</v>
+      </c>
+      <c r="G97" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3175,13 +3176,13 @@
       <c r="D98" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="1">
-        <v>0</v>
-      </c>
-      <c r="F98" s="1">
-        <v>0</v>
-      </c>
-      <c r="G98" s="1">
+      <c r="E98" s="8">
+        <v>0</v>
+      </c>
+      <c r="F98" s="8">
+        <v>0</v>
+      </c>
+      <c r="G98" s="8">
         <v>7</v>
       </c>
     </row>
@@ -3198,13 +3199,13 @@
       <c r="D99" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E99" s="1">
-        <v>0</v>
-      </c>
-      <c r="F99" s="1">
-        <v>0</v>
-      </c>
-      <c r="G99" s="1">
+      <c r="E99" s="8">
+        <v>0</v>
+      </c>
+      <c r="F99" s="8">
+        <v>0</v>
+      </c>
+      <c r="G99" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3221,13 +3222,13 @@
       <c r="D100" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E100" s="1">
-        <v>0</v>
-      </c>
-      <c r="F100" s="1">
-        <v>0</v>
-      </c>
-      <c r="G100" s="1">
+      <c r="E100" s="8">
+        <v>0</v>
+      </c>
+      <c r="F100" s="8">
+        <v>0</v>
+      </c>
+      <c r="G100" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3244,13 +3245,13 @@
       <c r="D101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="1">
-        <v>0</v>
-      </c>
-      <c r="F101" s="1">
-        <v>0</v>
-      </c>
-      <c r="G101" s="1">
+      <c r="E101" s="8">
+        <v>0</v>
+      </c>
+      <c r="F101" s="8">
+        <v>0</v>
+      </c>
+      <c r="G101" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3267,13 +3268,13 @@
       <c r="D102" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="1">
-        <v>0</v>
-      </c>
-      <c r="F102" s="1">
-        <v>0</v>
-      </c>
-      <c r="G102" s="1">
+      <c r="E102" s="8">
+        <v>0</v>
+      </c>
+      <c r="F102" s="8">
+        <v>0</v>
+      </c>
+      <c r="G102" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3290,13 +3291,13 @@
       <c r="D103" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="8">
         <v>1</v>
       </c>
-      <c r="F103" s="1">
-        <v>0</v>
-      </c>
-      <c r="G103" s="1">
+      <c r="F103" s="8">
+        <v>0</v>
+      </c>
+      <c r="G103" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3313,13 +3314,13 @@
       <c r="D104" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="8">
         <v>2</v>
       </c>
-      <c r="F104" s="1">
-        <v>0</v>
-      </c>
-      <c r="G104" s="1">
+      <c r="F104" s="8">
+        <v>0</v>
+      </c>
+      <c r="G104" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3336,13 +3337,13 @@
       <c r="D105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="1">
-        <v>0</v>
-      </c>
-      <c r="F105" s="1">
-        <v>0</v>
-      </c>
-      <c r="G105" s="1">
+      <c r="E105" s="8">
+        <v>0</v>
+      </c>
+      <c r="F105" s="8">
+        <v>0</v>
+      </c>
+      <c r="G105" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3359,13 +3360,13 @@
       <c r="D106" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="1">
-        <v>0</v>
-      </c>
-      <c r="F106" s="1">
-        <v>0</v>
-      </c>
-      <c r="G106" s="1">
+      <c r="E106" s="8">
+        <v>0</v>
+      </c>
+      <c r="F106" s="8">
+        <v>0</v>
+      </c>
+      <c r="G106" s="8">
         <v>7</v>
       </c>
     </row>
@@ -3382,13 +3383,13 @@
       <c r="D107" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="8">
         <v>1</v>
       </c>
-      <c r="F107" s="1">
-        <v>0</v>
-      </c>
-      <c r="G107" s="1">
+      <c r="F107" s="8">
+        <v>0</v>
+      </c>
+      <c r="G107" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3405,13 +3406,13 @@
       <c r="D108" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="1">
-        <v>0</v>
-      </c>
-      <c r="F108" s="1">
-        <v>0</v>
-      </c>
-      <c r="G108" s="1">
+      <c r="E108" s="8">
+        <v>0</v>
+      </c>
+      <c r="F108" s="8">
+        <v>0</v>
+      </c>
+      <c r="G108" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3428,13 +3429,13 @@
       <c r="D109" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="1">
-        <v>0</v>
-      </c>
-      <c r="F109" s="1">
-        <v>0</v>
-      </c>
-      <c r="G109" s="1">
+      <c r="E109" s="8">
+        <v>0</v>
+      </c>
+      <c r="F109" s="8">
+        <v>0</v>
+      </c>
+      <c r="G109" s="8">
         <v>5</v>
       </c>
     </row>
@@ -3451,13 +3452,13 @@
       <c r="D110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="1">
-        <v>0</v>
-      </c>
-      <c r="F110" s="1">
+      <c r="E110" s="8">
+        <v>0</v>
+      </c>
+      <c r="F110" s="8">
         <v>2</v>
       </c>
-      <c r="G110" s="1">
+      <c r="G110" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3474,13 +3475,13 @@
       <c r="D111" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="8">
         <v>2</v>
       </c>
-      <c r="F111" s="1">
-        <v>0</v>
-      </c>
-      <c r="G111" s="1">
+      <c r="F111" s="8">
+        <v>0</v>
+      </c>
+      <c r="G111" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3497,13 +3498,13 @@
       <c r="D112" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="8">
         <v>4</v>
       </c>
-      <c r="F112" s="1">
-        <v>0</v>
-      </c>
-      <c r="G112" s="1">
+      <c r="F112" s="8">
+        <v>0</v>
+      </c>
+      <c r="G112" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3520,13 +3521,13 @@
       <c r="D113" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E113" s="1">
-        <v>0</v>
-      </c>
-      <c r="F113" s="1">
-        <v>0</v>
-      </c>
-      <c r="G113" s="1">
+      <c r="E113" s="8">
+        <v>0</v>
+      </c>
+      <c r="F113" s="8">
+        <v>0</v>
+      </c>
+      <c r="G113" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3543,13 +3544,13 @@
       <c r="D114" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="8">
         <v>1</v>
       </c>
-      <c r="F114" s="1">
+      <c r="F114" s="8">
         <v>1</v>
       </c>
-      <c r="G114" s="1">
+      <c r="G114" s="8">
         <v>17</v>
       </c>
     </row>
@@ -3566,13 +3567,13 @@
       <c r="D115" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E115" s="1">
-        <v>0</v>
-      </c>
-      <c r="F115" s="1">
-        <v>0</v>
-      </c>
-      <c r="G115" s="1">
+      <c r="E115" s="8">
+        <v>0</v>
+      </c>
+      <c r="F115" s="8">
+        <v>0</v>
+      </c>
+      <c r="G115" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3589,13 +3590,13 @@
       <c r="D116" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E116" s="1">
-        <v>0</v>
-      </c>
-      <c r="F116" s="1">
-        <v>0</v>
-      </c>
-      <c r="G116" s="1">
+      <c r="E116" s="8">
+        <v>0</v>
+      </c>
+      <c r="F116" s="8">
+        <v>0</v>
+      </c>
+      <c r="G116" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3612,13 +3613,13 @@
       <c r="D117" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E117" s="1">
-        <v>0</v>
-      </c>
-      <c r="F117" s="1">
-        <v>0</v>
-      </c>
-      <c r="G117" s="1">
+      <c r="E117" s="8">
+        <v>0</v>
+      </c>
+      <c r="F117" s="8">
+        <v>0</v>
+      </c>
+      <c r="G117" s="8">
         <v>5</v>
       </c>
     </row>
@@ -3635,13 +3636,13 @@
       <c r="D118" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E118" s="1">
-        <v>0</v>
-      </c>
-      <c r="F118" s="1">
-        <v>0</v>
-      </c>
-      <c r="G118" s="1">
+      <c r="E118" s="8">
+        <v>0</v>
+      </c>
+      <c r="F118" s="8">
+        <v>0</v>
+      </c>
+      <c r="G118" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3652,13 +3653,13 @@
       <c r="B119" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C119" s="4">
         <v>2021</v>
       </c>
       <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -3673,13 +3674,13 @@
       <c r="D120" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E120" s="1">
-        <v>0</v>
-      </c>
-      <c r="F120" s="1">
-        <v>0</v>
-      </c>
-      <c r="G120" s="1">
+      <c r="E120" s="8">
+        <v>0</v>
+      </c>
+      <c r="F120" s="8">
+        <v>0</v>
+      </c>
+      <c r="G120" s="8">
         <v>32</v>
       </c>
     </row>

--- a/conflit_faune.xlsx
+++ b/conflit_faune.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="91">
   <si>
     <t>Morts</t>
   </si>
@@ -297,18 +297,6 @@
   </si>
   <si>
     <t>Blesses</t>
-  </si>
-  <si>
-    <t>NDOUCI</t>
-  </si>
-  <si>
-    <t>Psychose de la population</t>
-  </si>
-  <si>
-    <t>ANIASSUE</t>
-  </si>
-  <si>
-    <t>Champs d'igname, cacao, de manioc, de rizières</t>
   </si>
 </sst>
 </file>
@@ -413,14 +401,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G120"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,20 +721,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="I1" s="5" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="I1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -801,13 +788,13 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -843,13 +830,13 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -864,11 +851,11 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <f>SUMIF(B$3:B118,I4,F$3:F118)</f>
+        <f>SUMIF(B$3:B117,I4,F$3:F117)</f>
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <f>SUMIF(B$3:B118,I4,G$3:G118)</f>
+        <f>SUMIF(B$3:B117,I4,G$3:G117)</f>
         <v>1</v>
       </c>
     </row>
@@ -885,13 +872,13 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -906,11 +893,11 @@
         <v>3</v>
       </c>
       <c r="L5" s="1">
-        <f>SUMIF(B$3:B119,I5,F$3:F119)</f>
+        <f>SUMIF(B$3:B117,I5,F$3:F117)</f>
         <v>1</v>
       </c>
       <c r="M5" s="1">
-        <f>SUMIF(B$3:B119,I5,G$3:G119)</f>
+        <f>SUMIF(B$3:B117,I5,G$3:G117)</f>
         <v>0</v>
       </c>
     </row>
@@ -927,13 +914,13 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -948,11 +935,11 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <f>SUMIF(B$3:B120,I6,F$3:F120)</f>
+        <f>SUMIF(B$3:B117,I6,F$3:F117)</f>
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <f>SUMIF(B$3:B120,I6,G$3:G120)</f>
+        <f>SUMIF(B$3:B117,I6,G$3:G117)</f>
         <v>0</v>
       </c>
     </row>
@@ -969,13 +956,13 @@
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -990,11 +977,11 @@
         <v>23</v>
       </c>
       <c r="L7" s="1">
-        <f>SUMIF(B$3:B121,I7,F$3:F121)</f>
+        <f>SUMIF(B$3:B118,I7,F$3:F118)</f>
         <v>18</v>
       </c>
       <c r="M7" s="1">
-        <f>SUMIF(B$3:B121,I7,G$3:G121)</f>
+        <f>SUMIF(B$3:B118,I7,G$3:G118)</f>
         <v>878</v>
       </c>
     </row>
@@ -1011,13 +998,13 @@
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1032,11 +1019,11 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <f>SUMIF(B$3:B122,I8,F$3:F122)</f>
+        <f>SUMIF(B$3:B119,I8,F$3:F119)</f>
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f>SUMIF(B$3:B122,I8,G$3:G122)</f>
+        <f>SUMIF(B$3:B119,I8,G$3:G119)</f>
         <v>2</v>
       </c>
     </row>
@@ -1053,13 +1040,13 @@
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <v>9</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1074,12 +1061,12 @@
         <v>6</v>
       </c>
       <c r="L9" s="1">
-        <f>SUMIF(B$3:B123,I9,F$3:F123)</f>
+        <f>SUMIF(B$3:B120,I9,F$3:F120)</f>
         <v>4</v>
       </c>
       <c r="M9" s="1">
-        <f>SUMIF(B$3:B123,I9,G$3:G123)</f>
-        <v>51</v>
+        <f>SUMIF(B$3:B120,I9,G$3:G120)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1095,13 +1082,13 @@
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1116,11 +1103,11 @@
         <v>6</v>
       </c>
       <c r="L10" s="1">
-        <f>SUMIF(B$3:B124,I10,F$3:F124)</f>
+        <f>SUMIF(B$3:B121,I10,F$3:F121)</f>
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <f>SUMIF(B$3:B124,I10,G$3:G124)</f>
+        <f>SUMIF(B$3:B121,I10,G$3:G121)</f>
         <v>0</v>
       </c>
     </row>
@@ -1137,13 +1124,13 @@
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1158,11 +1145,11 @@
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <f>SUMIF(B$3:B125,I11,F$3:F125)</f>
+        <f>SUMIF(B$3:B122,I11,F$3:F122)</f>
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <f>SUMIF(B$3:B125,I11,G$3:G125)</f>
+        <f>SUMIF(B$3:B122,I11,G$3:G122)</f>
         <v>5</v>
       </c>
     </row>
@@ -1179,13 +1166,13 @@
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1200,11 +1187,11 @@
         <v>1</v>
       </c>
       <c r="L12" s="1">
-        <f>SUMIF(B$3:B126,I12,F$3:F126)</f>
+        <f>SUMIF(B$3:B123,I12,F$3:F123)</f>
         <v>1</v>
       </c>
       <c r="M12" s="1">
-        <f>SUMIF(B$3:B126,I12,G$3:G126)</f>
+        <f>SUMIF(B$3:B123,I12,G$3:G123)</f>
         <v>17</v>
       </c>
     </row>
@@ -1221,13 +1208,13 @@
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="8">
-        <v>3</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1244,13 +1231,13 @@
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1267,13 +1254,13 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1290,13 +1277,13 @@
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1313,13 +1300,13 @@
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1336,13 +1323,13 @@
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1359,13 +1346,13 @@
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
         <v>2</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1382,13 +1369,13 @@
       <c r="D20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1405,13 +1392,13 @@
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1428,13 +1415,13 @@
       <c r="D22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>1</v>
       </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1451,13 +1438,13 @@
       <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>1</v>
       </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1474,13 +1461,13 @@
       <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1497,13 +1484,13 @@
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1520,13 +1507,13 @@
       <c r="D26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>2</v>
       </c>
-      <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1543,13 +1530,13 @@
       <c r="D27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1566,13 +1553,13 @@
       <c r="D28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="8">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1589,13 +1576,13 @@
       <c r="D29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1612,13 +1599,13 @@
       <c r="D30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1635,13 +1622,13 @@
       <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="8">
-        <v>3</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="E31" s="7">
+        <v>3</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1658,13 +1645,13 @@
       <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1681,13 +1668,13 @@
       <c r="D33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
         <v>1</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1704,13 +1691,13 @@
       <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="8">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
-      <c r="G34" s="8">
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1727,13 +1714,13 @@
       <c r="D35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="8">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8">
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1750,13 +1737,13 @@
       <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="8">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1773,13 +1760,13 @@
       <c r="D37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="8">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8">
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
         <v>115</v>
       </c>
     </row>
@@ -1796,13 +1783,13 @@
       <c r="D38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="8">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="8">
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
         <v>417</v>
       </c>
     </row>
@@ -1819,13 +1806,13 @@
       <c r="D39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="8">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="8">
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
         <v>8</v>
       </c>
     </row>
@@ -1842,13 +1829,13 @@
       <c r="D40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="8">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
-      <c r="G40" s="8">
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1865,13 +1852,13 @@
       <c r="D41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="8">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0</v>
-      </c>
-      <c r="G41" s="8">
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1888,13 +1875,13 @@
       <c r="D42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>2</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="7">
         <v>1</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <v>200</v>
       </c>
     </row>
@@ -1911,13 +1898,13 @@
       <c r="D43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="8">
-        <v>0</v>
-      </c>
-      <c r="F43" s="8">
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
         <v>1</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="7">
         <v>14</v>
       </c>
     </row>
@@ -1934,13 +1921,13 @@
       <c r="D44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <v>9</v>
       </c>
-      <c r="F44" s="8">
-        <v>3</v>
-      </c>
-      <c r="G44" s="8">
+      <c r="F44" s="7">
+        <v>3</v>
+      </c>
+      <c r="G44" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1957,13 +1944,13 @@
       <c r="D45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="8">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8">
-        <v>0</v>
-      </c>
-      <c r="G45" s="8">
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1980,13 +1967,13 @@
       <c r="D46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="8">
-        <v>0</v>
-      </c>
-      <c r="F46" s="8">
-        <v>0</v>
-      </c>
-      <c r="G46" s="8">
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2003,13 +1990,13 @@
       <c r="D47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="8">
-        <v>0</v>
-      </c>
-      <c r="F47" s="8">
-        <v>0</v>
-      </c>
-      <c r="G47" s="8">
+      <c r="E47" s="7">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7">
         <v>29</v>
       </c>
     </row>
@@ -2026,13 +2013,13 @@
       <c r="D48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="8">
-        <v>0</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0</v>
-      </c>
-      <c r="G48" s="8">
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
         <v>39</v>
       </c>
     </row>
@@ -2049,13 +2036,13 @@
       <c r="D49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="8">
-        <v>0</v>
-      </c>
-      <c r="F49" s="8">
-        <v>0</v>
-      </c>
-      <c r="G49" s="8">
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
         <v>2</v>
       </c>
     </row>
@@ -2072,13 +2059,13 @@
       <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="8">
-        <v>0</v>
-      </c>
-      <c r="F50" s="8">
-        <v>0</v>
-      </c>
-      <c r="G50" s="8">
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2095,13 +2082,13 @@
       <c r="D51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="8">
-        <v>0</v>
-      </c>
-      <c r="F51" s="8">
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
         <v>1</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2118,13 +2105,13 @@
       <c r="D52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="8">
-        <v>0</v>
-      </c>
-      <c r="F52" s="8">
-        <v>0</v>
-      </c>
-      <c r="G52" s="8">
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2141,13 +2128,13 @@
       <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="8">
-        <v>0</v>
-      </c>
-      <c r="F53" s="8">
-        <v>0</v>
-      </c>
-      <c r="G53" s="8">
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2164,13 +2151,13 @@
       <c r="D54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="8">
-        <v>0</v>
-      </c>
-      <c r="F54" s="8">
-        <v>0</v>
-      </c>
-      <c r="G54" s="8">
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2187,13 +2174,13 @@
       <c r="D55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="8">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8">
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
         <v>1</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2210,13 +2197,13 @@
       <c r="D56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="8">
-        <v>0</v>
-      </c>
-      <c r="F56" s="8">
-        <v>0</v>
-      </c>
-      <c r="G56" s="8">
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2233,13 +2220,13 @@
       <c r="D57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="8">
-        <v>0</v>
-      </c>
-      <c r="F57" s="8">
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
         <v>2</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2256,13 +2243,13 @@
       <c r="D58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="8">
-        <v>0</v>
-      </c>
-      <c r="F58" s="8">
-        <v>0</v>
-      </c>
-      <c r="G58" s="8">
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
+      <c r="G58" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2279,13 +2266,13 @@
       <c r="D59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="8">
-        <v>0</v>
-      </c>
-      <c r="F59" s="8">
-        <v>0</v>
-      </c>
-      <c r="G59" s="8">
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2302,13 +2289,13 @@
       <c r="D60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="8">
-        <v>0</v>
-      </c>
-      <c r="F60" s="8">
-        <v>0</v>
-      </c>
-      <c r="G60" s="8">
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2325,13 +2312,13 @@
       <c r="D61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="8">
-        <v>0</v>
-      </c>
-      <c r="F61" s="8">
-        <v>0</v>
-      </c>
-      <c r="G61" s="8">
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2348,13 +2335,13 @@
       <c r="D62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="8">
-        <v>0</v>
-      </c>
-      <c r="F62" s="8">
-        <v>0</v>
-      </c>
-      <c r="G62" s="8">
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
         <v>18</v>
       </c>
     </row>
@@ -2371,13 +2358,13 @@
       <c r="D63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="8">
-        <v>0</v>
-      </c>
-      <c r="F63" s="8">
-        <v>0</v>
-      </c>
-      <c r="G63" s="8">
+      <c r="E63" s="7">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2394,13 +2381,13 @@
       <c r="D64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="8">
-        <v>0</v>
-      </c>
-      <c r="F64" s="8">
+      <c r="E64" s="7">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
         <v>1</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2417,13 +2404,13 @@
       <c r="D65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="8">
-        <v>0</v>
-      </c>
-      <c r="F65" s="8">
+      <c r="E65" s="7">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
         <v>1</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2440,13 +2427,13 @@
       <c r="D66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="8">
-        <v>0</v>
-      </c>
-      <c r="F66" s="8">
-        <v>0</v>
-      </c>
-      <c r="G66" s="8">
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
         <v>7</v>
       </c>
     </row>
@@ -2463,13 +2450,13 @@
       <c r="D67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E67" s="8">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8">
-        <v>0</v>
-      </c>
-      <c r="G67" s="8">
+      <c r="E67" s="7">
+        <v>0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2486,13 +2473,13 @@
       <c r="D68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="8">
-        <v>0</v>
-      </c>
-      <c r="F68" s="8">
-        <v>0</v>
-      </c>
-      <c r="G68" s="8">
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2509,13 +2496,13 @@
       <c r="D69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E69" s="8">
-        <v>0</v>
-      </c>
-      <c r="F69" s="8">
-        <v>0</v>
-      </c>
-      <c r="G69" s="8">
+      <c r="E69" s="7">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2532,13 +2519,13 @@
       <c r="D70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="7">
         <v>9</v>
       </c>
-      <c r="F70" s="8">
-        <v>3</v>
-      </c>
-      <c r="G70" s="8">
+      <c r="F70" s="7">
+        <v>3</v>
+      </c>
+      <c r="G70" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2555,13 +2542,13 @@
       <c r="D71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="8">
-        <v>3</v>
-      </c>
-      <c r="F71" s="8">
-        <v>0</v>
-      </c>
-      <c r="G71" s="8">
+      <c r="E71" s="7">
+        <v>3</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2578,13 +2565,13 @@
       <c r="D72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="8">
-        <v>0</v>
-      </c>
-      <c r="F72" s="8">
-        <v>0</v>
-      </c>
-      <c r="G72" s="8">
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2601,13 +2588,13 @@
       <c r="D73" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E73" s="8">
-        <v>0</v>
-      </c>
-      <c r="F73" s="8">
-        <v>0</v>
-      </c>
-      <c r="G73" s="8">
+      <c r="E73" s="7">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2624,13 +2611,13 @@
       <c r="D74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="8">
-        <v>0</v>
-      </c>
-      <c r="F74" s="8">
+      <c r="E74" s="7">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
         <v>1</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2647,13 +2634,13 @@
       <c r="D75" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="8">
-        <v>0</v>
-      </c>
-      <c r="F75" s="8">
-        <v>0</v>
-      </c>
-      <c r="G75" s="8">
+      <c r="E75" s="7">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
         <v>9</v>
       </c>
     </row>
@@ -2670,13 +2657,13 @@
       <c r="D76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="8">
-        <v>0</v>
-      </c>
-      <c r="F76" s="8">
-        <v>0</v>
-      </c>
-      <c r="G76" s="8">
+      <c r="E76" s="7">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2693,13 +2680,13 @@
       <c r="D77" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="8">
-        <v>0</v>
-      </c>
-      <c r="F77" s="8">
-        <v>0</v>
-      </c>
-      <c r="G77" s="8">
+      <c r="E77" s="7">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2716,13 +2703,13 @@
       <c r="D78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="8">
-        <v>0</v>
-      </c>
-      <c r="F78" s="8">
+      <c r="E78" s="7">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7">
         <v>1</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2739,13 +2726,13 @@
       <c r="D79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="8">
-        <v>0</v>
-      </c>
-      <c r="F79" s="8">
-        <v>0</v>
-      </c>
-      <c r="G79" s="8">
+      <c r="E79" s="7">
+        <v>0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2762,13 +2749,13 @@
       <c r="D80" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E80" s="8">
-        <v>0</v>
-      </c>
-      <c r="F80" s="8">
-        <v>0</v>
-      </c>
-      <c r="G80" s="8">
+      <c r="E80" s="7">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2785,13 +2772,13 @@
       <c r="D81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="8">
-        <v>0</v>
-      </c>
-      <c r="F81" s="8">
-        <v>0</v>
-      </c>
-      <c r="G81" s="8">
+      <c r="E81" s="7">
+        <v>0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2808,13 +2795,13 @@
       <c r="D82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E82" s="8">
-        <v>0</v>
-      </c>
-      <c r="F82" s="8">
-        <v>0</v>
-      </c>
-      <c r="G82" s="8">
+      <c r="E82" s="7">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2831,13 +2818,13 @@
       <c r="D83" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="8">
-        <v>0</v>
-      </c>
-      <c r="F83" s="8">
-        <v>0</v>
-      </c>
-      <c r="G83" s="8">
+      <c r="E83" s="7">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0</v>
+      </c>
+      <c r="G83" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2854,13 +2841,13 @@
       <c r="D84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E84" s="8">
-        <v>0</v>
-      </c>
-      <c r="F84" s="8">
-        <v>0</v>
-      </c>
-      <c r="G84" s="8">
+      <c r="E84" s="7">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2877,13 +2864,13 @@
       <c r="D85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="8">
-        <v>0</v>
-      </c>
-      <c r="F85" s="8">
-        <v>0</v>
-      </c>
-      <c r="G85" s="8">
+      <c r="E85" s="7">
+        <v>0</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2900,13 +2887,13 @@
       <c r="D86" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="8">
-        <v>0</v>
-      </c>
-      <c r="F86" s="8">
-        <v>0</v>
-      </c>
-      <c r="G86" s="8">
+      <c r="E86" s="7">
+        <v>0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2923,13 +2910,13 @@
       <c r="D87" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="8">
-        <v>0</v>
-      </c>
-      <c r="F87" s="8">
-        <v>0</v>
-      </c>
-      <c r="G87" s="8">
+      <c r="E87" s="7">
+        <v>0</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2946,13 +2933,13 @@
       <c r="D88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="8">
-        <v>0</v>
-      </c>
-      <c r="F88" s="8">
-        <v>0</v>
-      </c>
-      <c r="G88" s="8">
+      <c r="E88" s="7">
+        <v>0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2969,13 +2956,13 @@
       <c r="D89" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E89" s="8">
-        <v>0</v>
-      </c>
-      <c r="F89" s="8">
-        <v>0</v>
-      </c>
-      <c r="G89" s="8">
+      <c r="E89" s="7">
+        <v>0</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0</v>
+      </c>
+      <c r="G89" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2992,13 +2979,13 @@
       <c r="D90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="8">
-        <v>0</v>
-      </c>
-      <c r="F90" s="8">
-        <v>0</v>
-      </c>
-      <c r="G90" s="8">
+      <c r="E90" s="7">
+        <v>0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3015,13 +3002,13 @@
       <c r="D91" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E91" s="8">
-        <v>0</v>
-      </c>
-      <c r="F91" s="8">
-        <v>0</v>
-      </c>
-      <c r="G91" s="8">
+      <c r="E91" s="7">
+        <v>0</v>
+      </c>
+      <c r="F91" s="7">
+        <v>0</v>
+      </c>
+      <c r="G91" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3038,13 +3025,13 @@
       <c r="D92" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E92" s="8">
-        <v>0</v>
-      </c>
-      <c r="F92" s="8">
-        <v>0</v>
-      </c>
-      <c r="G92" s="8">
+      <c r="E92" s="7">
+        <v>0</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0</v>
+      </c>
+      <c r="G92" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3061,13 +3048,13 @@
       <c r="D93" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="8">
-        <v>0</v>
-      </c>
-      <c r="F93" s="8">
+      <c r="E93" s="7">
+        <v>0</v>
+      </c>
+      <c r="F93" s="7">
         <v>2</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G93" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3084,13 +3071,13 @@
       <c r="D94" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="8">
-        <v>0</v>
-      </c>
-      <c r="F94" s="8">
-        <v>0</v>
-      </c>
-      <c r="G94" s="8">
+      <c r="E94" s="7">
+        <v>0</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0</v>
+      </c>
+      <c r="G94" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3107,13 +3094,13 @@
       <c r="D95" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E95" s="8">
-        <v>0</v>
-      </c>
-      <c r="F95" s="8">
-        <v>0</v>
-      </c>
-      <c r="G95" s="8">
+      <c r="E95" s="7">
+        <v>0</v>
+      </c>
+      <c r="F95" s="7">
+        <v>0</v>
+      </c>
+      <c r="G95" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3130,13 +3117,13 @@
       <c r="D96" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="7">
         <v>2</v>
       </c>
-      <c r="F96" s="8">
+      <c r="F96" s="7">
         <v>2</v>
       </c>
-      <c r="G96" s="8">
+      <c r="G96" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3153,13 +3140,13 @@
       <c r="D97" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E97" s="8">
-        <v>0</v>
-      </c>
-      <c r="F97" s="8">
-        <v>0</v>
-      </c>
-      <c r="G97" s="8">
+      <c r="E97" s="7">
+        <v>0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>0</v>
+      </c>
+      <c r="G97" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3176,13 +3163,13 @@
       <c r="D98" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="8">
-        <v>0</v>
-      </c>
-      <c r="F98" s="8">
-        <v>0</v>
-      </c>
-      <c r="G98" s="8">
+      <c r="E98" s="7">
+        <v>0</v>
+      </c>
+      <c r="F98" s="7">
+        <v>0</v>
+      </c>
+      <c r="G98" s="7">
         <v>7</v>
       </c>
     </row>
@@ -3199,13 +3186,13 @@
       <c r="D99" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E99" s="8">
-        <v>0</v>
-      </c>
-      <c r="F99" s="8">
-        <v>0</v>
-      </c>
-      <c r="G99" s="8">
+      <c r="E99" s="7">
+        <v>0</v>
+      </c>
+      <c r="F99" s="7">
+        <v>0</v>
+      </c>
+      <c r="G99" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3222,13 +3209,13 @@
       <c r="D100" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E100" s="8">
-        <v>0</v>
-      </c>
-      <c r="F100" s="8">
-        <v>0</v>
-      </c>
-      <c r="G100" s="8">
+      <c r="E100" s="7">
+        <v>0</v>
+      </c>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
+      <c r="G100" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3245,13 +3232,13 @@
       <c r="D101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="8">
-        <v>0</v>
-      </c>
-      <c r="F101" s="8">
-        <v>0</v>
-      </c>
-      <c r="G101" s="8">
+      <c r="E101" s="7">
+        <v>0</v>
+      </c>
+      <c r="F101" s="7">
+        <v>0</v>
+      </c>
+      <c r="G101" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3268,13 +3255,13 @@
       <c r="D102" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="8">
-        <v>0</v>
-      </c>
-      <c r="F102" s="8">
-        <v>0</v>
-      </c>
-      <c r="G102" s="8">
+      <c r="E102" s="7">
+        <v>0</v>
+      </c>
+      <c r="F102" s="7">
+        <v>0</v>
+      </c>
+      <c r="G102" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3291,13 +3278,13 @@
       <c r="D103" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E103" s="8">
+      <c r="E103" s="7">
         <v>1</v>
       </c>
-      <c r="F103" s="8">
-        <v>0</v>
-      </c>
-      <c r="G103" s="8">
+      <c r="F103" s="7">
+        <v>0</v>
+      </c>
+      <c r="G103" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3314,13 +3301,13 @@
       <c r="D104" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="8">
+      <c r="E104" s="7">
         <v>2</v>
       </c>
-      <c r="F104" s="8">
-        <v>0</v>
-      </c>
-      <c r="G104" s="8">
+      <c r="F104" s="7">
+        <v>0</v>
+      </c>
+      <c r="G104" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3337,13 +3324,13 @@
       <c r="D105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="8">
-        <v>0</v>
-      </c>
-      <c r="F105" s="8">
-        <v>0</v>
-      </c>
-      <c r="G105" s="8">
+      <c r="E105" s="7">
+        <v>0</v>
+      </c>
+      <c r="F105" s="7">
+        <v>0</v>
+      </c>
+      <c r="G105" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3360,13 +3347,13 @@
       <c r="D106" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="8">
-        <v>0</v>
-      </c>
-      <c r="F106" s="8">
-        <v>0</v>
-      </c>
-      <c r="G106" s="8">
+      <c r="E106" s="7">
+        <v>0</v>
+      </c>
+      <c r="F106" s="7">
+        <v>0</v>
+      </c>
+      <c r="G106" s="7">
         <v>7</v>
       </c>
     </row>
@@ -3383,13 +3370,13 @@
       <c r="D107" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E107" s="8">
+      <c r="E107" s="7">
         <v>1</v>
       </c>
-      <c r="F107" s="8">
-        <v>0</v>
-      </c>
-      <c r="G107" s="8">
+      <c r="F107" s="7">
+        <v>0</v>
+      </c>
+      <c r="G107" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3406,13 +3393,13 @@
       <c r="D108" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="8">
-        <v>0</v>
-      </c>
-      <c r="F108" s="8">
-        <v>0</v>
-      </c>
-      <c r="G108" s="8">
+      <c r="E108" s="7">
+        <v>0</v>
+      </c>
+      <c r="F108" s="7">
+        <v>0</v>
+      </c>
+      <c r="G108" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3429,13 +3416,13 @@
       <c r="D109" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="8">
-        <v>0</v>
-      </c>
-      <c r="F109" s="8">
-        <v>0</v>
-      </c>
-      <c r="G109" s="8">
+      <c r="E109" s="7">
+        <v>0</v>
+      </c>
+      <c r="F109" s="7">
+        <v>0</v>
+      </c>
+      <c r="G109" s="7">
         <v>5</v>
       </c>
     </row>
@@ -3452,13 +3439,13 @@
       <c r="D110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="8">
-        <v>0</v>
-      </c>
-      <c r="F110" s="8">
+      <c r="E110" s="7">
+        <v>0</v>
+      </c>
+      <c r="F110" s="7">
         <v>2</v>
       </c>
-      <c r="G110" s="8">
+      <c r="G110" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3475,13 +3462,13 @@
       <c r="D111" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E111" s="8">
+      <c r="E111" s="7">
         <v>2</v>
       </c>
-      <c r="F111" s="8">
-        <v>0</v>
-      </c>
-      <c r="G111" s="8">
+      <c r="F111" s="7">
+        <v>0</v>
+      </c>
+      <c r="G111" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3498,13 +3485,13 @@
       <c r="D112" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E112" s="8">
+      <c r="E112" s="7">
         <v>4</v>
       </c>
-      <c r="F112" s="8">
-        <v>0</v>
-      </c>
-      <c r="G112" s="8">
+      <c r="F112" s="7">
+        <v>0</v>
+      </c>
+      <c r="G112" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3521,13 +3508,13 @@
       <c r="D113" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E113" s="8">
-        <v>0</v>
-      </c>
-      <c r="F113" s="8">
-        <v>0</v>
-      </c>
-      <c r="G113" s="8">
+      <c r="E113" s="7">
+        <v>0</v>
+      </c>
+      <c r="F113" s="7">
+        <v>0</v>
+      </c>
+      <c r="G113" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3544,13 +3531,13 @@
       <c r="D114" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="8">
+      <c r="E114" s="7">
         <v>1</v>
       </c>
-      <c r="F114" s="8">
+      <c r="F114" s="7">
         <v>1</v>
       </c>
-      <c r="G114" s="8">
+      <c r="G114" s="7">
         <v>17</v>
       </c>
     </row>
@@ -3567,13 +3554,13 @@
       <c r="D115" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E115" s="8">
-        <v>0</v>
-      </c>
-      <c r="F115" s="8">
-        <v>0</v>
-      </c>
-      <c r="G115" s="8">
+      <c r="E115" s="7">
+        <v>0</v>
+      </c>
+      <c r="F115" s="7">
+        <v>0</v>
+      </c>
+      <c r="G115" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3590,13 +3577,13 @@
       <c r="D116" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E116" s="8">
-        <v>0</v>
-      </c>
-      <c r="F116" s="8">
-        <v>0</v>
-      </c>
-      <c r="G116" s="8">
+      <c r="E116" s="7">
+        <v>0</v>
+      </c>
+      <c r="F116" s="7">
+        <v>0</v>
+      </c>
+      <c r="G116" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3613,75 +3600,14 @@
       <c r="D117" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E117" s="8">
-        <v>0</v>
-      </c>
-      <c r="F117" s="8">
-        <v>0</v>
-      </c>
-      <c r="G117" s="8">
+      <c r="E117" s="7">
+        <v>0</v>
+      </c>
+      <c r="F117" s="7">
+        <v>0</v>
+      </c>
+      <c r="G117" s="7">
         <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C118" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E118" s="8">
-        <v>0</v>
-      </c>
-      <c r="F118" s="8">
-        <v>0</v>
-      </c>
-      <c r="G118" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C119" s="4">
-        <v>2021</v>
-      </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C120" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E120" s="8">
-        <v>0</v>
-      </c>
-      <c r="F120" s="8">
-        <v>0</v>
-      </c>
-      <c r="G120" s="8">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/conflit_faune.xlsx
+++ b/conflit_faune.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="95">
   <si>
     <t>Morts</t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>Blesses</t>
+  </si>
+  <si>
+    <t>NDOUCI</t>
+  </si>
+  <si>
+    <t>Psychose de la population</t>
+  </si>
+  <si>
+    <t>ANIASSUE</t>
+  </si>
+  <si>
+    <t>Champs d'igname, cacao, de manioc, de rizières</t>
   </si>
 </sst>
 </file>
@@ -698,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1078,7 @@
       </c>
       <c r="M9" s="1">
         <f>SUMIF(B$3:B120,I9,G$3:G120)</f>
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3608,6 +3620,75 @@
       </c>
       <c r="G117" s="7">
         <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0</v>
+      </c>
+      <c r="G120" s="1">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/conflit_faune.xlsx
+++ b/conflit_faune.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p25m1\Desktop\donnee_conflit_faune\"/>
@@ -14,6 +14,8 @@
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="227">
   <si>
     <t>Morts</t>
   </si>
@@ -685,6 +687,27 @@
   </si>
   <si>
     <t>6.764245</t>
+  </si>
+  <si>
+    <t>HOMME-ELEPHANT</t>
+  </si>
+  <si>
+    <t>HOMME-HIPPOPOTAME</t>
+  </si>
+  <si>
+    <t>HOMME-CHIMPANZE</t>
+  </si>
+  <si>
+    <t>-3.682701</t>
+  </si>
+  <si>
+    <t>6.653461</t>
+  </si>
+  <si>
+    <t>-4.761447</t>
+  </si>
+  <si>
+    <t>5.86601</t>
   </si>
 </sst>
 </file>
@@ -789,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,6 +832,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1091,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118:I120"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,7 +1204,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C3" s="1">
         <v>2016</v>
@@ -1228,7 +1252,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C4" s="1">
         <v>2019</v>
@@ -1300,7 +1324,7 @@
         <v>106</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="L5" s="1">
         <f>COUNTIF(B$3:B$117,K5)</f>
@@ -1324,7 +1348,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="C6" s="1">
         <v>2016</v>
@@ -1396,7 +1420,7 @@
         <v>108</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="L7" s="1">
         <f>COUNTIF(B$3:B$117,K7)</f>
@@ -1492,7 +1516,7 @@
         <v>108</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="L9" s="1">
         <f>COUNTIF(B$3:B$117,K9)</f>
@@ -1660,7 +1684,7 @@
         <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C13" s="1">
         <v>2021</v>
@@ -1678,10 +1702,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1689,7 +1713,7 @@
         <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C14" s="1">
         <v>2019</v>
@@ -1707,18 +1731,20 @@
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C15" s="1">
         <v>2015</v>
@@ -1736,18 +1762,20 @@
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C16" s="1">
         <v>2017</v>
@@ -1770,13 +1798,15 @@
       <c r="I16" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C17" s="1">
         <v>2017</v>
@@ -1799,13 +1829,15 @@
       <c r="I17" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C18" s="1">
         <v>2012</v>
@@ -1823,18 +1855,20 @@
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="C19" s="1">
         <v>2017</v>
@@ -1852,18 +1886,20 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="C20" s="1">
         <v>2020</v>
@@ -1886,13 +1922,15 @@
       <c r="I20" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C21" s="1">
         <v>2020</v>
@@ -1910,13 +1948,15 @@
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -1944,8 +1984,10 @@
       <c r="I22" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -1968,13 +2010,15 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -2002,8 +2046,10 @@
       <c r="I24" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -2026,13 +2072,15 @@
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -2060,13 +2108,15 @@
       <c r="I26" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="C27" s="1">
         <v>2015</v>
@@ -2084,18 +2134,20 @@
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C28" s="1">
         <v>2020</v>
@@ -2118,8 +2170,10 @@
       <c r="I28" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -2142,18 +2196,20 @@
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C30" s="1">
         <v>2019</v>
@@ -2171,18 +2227,20 @@
         <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C31" s="1">
         <v>2016</v>
@@ -2200,13 +2258,15 @@
         <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -2234,13 +2294,15 @@
       <c r="I32" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C33" s="1">
         <v>2016</v>
@@ -2258,13 +2320,15 @@
         <v>2</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2292,13 +2356,15 @@
       <c r="I34" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C35" s="1">
         <v>2011</v>
@@ -2321,13 +2387,15 @@
       <c r="I35" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C36" s="1">
         <v>2018</v>
@@ -2350,13 +2418,15 @@
       <c r="I36" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C37" s="1">
         <v>2017</v>
@@ -2374,13 +2444,15 @@
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -2403,13 +2475,15 @@
         <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -2432,13 +2506,15 @@
         <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -2466,13 +2542,15 @@
       <c r="I40" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C41" s="1">
         <v>2011</v>
@@ -2490,13 +2568,15 @@
         <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -2519,13 +2599,15 @@
         <v>17</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -2553,8 +2635,10 @@
       <c r="I43" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -2582,13 +2666,15 @@
       <c r="I44" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C45" s="1">
         <v>2015</v>
@@ -2606,13 +2692,15 @@
         <v>0</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -2640,13 +2728,15 @@
       <c r="I46" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C47" s="1">
         <v>2016</v>
@@ -2664,18 +2754,20 @@
         <v>0</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C48" s="1">
         <v>2017</v>
@@ -2698,13 +2790,15 @@
       <c r="I48" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C49" s="1">
         <v>2020</v>
@@ -2722,18 +2816,20 @@
         <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C50" s="1">
         <v>2017</v>
@@ -2756,13 +2852,15 @@
       <c r="I50" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C51" s="1">
         <v>2018</v>
@@ -2785,13 +2883,15 @@
       <c r="I51" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C52" s="1">
         <v>2019</v>
@@ -2814,13 +2914,15 @@
       <c r="I52" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C53" s="1">
         <v>2020</v>
@@ -2843,13 +2945,15 @@
       <c r="I53" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C54" s="1">
         <v>2020</v>
@@ -2867,18 +2971,20 @@
         <v>5</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C55" s="1">
         <v>2012</v>
@@ -2896,18 +3002,20 @@
         <v>14</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C56" s="1">
         <v>2017</v>
@@ -2925,18 +3033,20 @@
         <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C57" s="1">
         <v>2017</v>
@@ -2959,13 +3069,15 @@
       <c r="I57" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C58" s="1">
         <v>2018</v>
@@ -2983,18 +3095,20 @@
         <v>0</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C59" s="1">
         <v>2016</v>
@@ -3017,13 +3131,15 @@
       <c r="I59" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C60" s="1">
         <v>2018</v>
@@ -3046,13 +3162,15 @@
       <c r="I60" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C61" s="1">
         <v>2016</v>
@@ -3070,18 +3188,20 @@
         <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="C62" s="1">
         <v>2017</v>
@@ -3104,13 +3224,15 @@
       <c r="I62" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C63" s="1">
         <v>2019</v>
@@ -3128,13 +3250,15 @@
         <v>0</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
@@ -3162,13 +3286,15 @@
       <c r="I64" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C65" s="1">
         <v>2018</v>
@@ -3191,13 +3317,15 @@
       <c r="I65" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C66" s="1">
         <v>2019</v>
@@ -3220,13 +3348,15 @@
       <c r="I66" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C67" s="1">
         <v>2019</v>
@@ -3244,18 +3374,20 @@
         <v>9</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C68" s="1">
         <v>2019</v>
@@ -3278,13 +3410,15 @@
       <c r="I68" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C69" s="1">
         <v>2019</v>
@@ -3307,13 +3441,15 @@
       <c r="I69" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C70" s="1">
         <v>2020</v>
@@ -3331,18 +3467,20 @@
         <v>0</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C71" s="1">
         <v>2013</v>
@@ -3360,18 +3498,20 @@
         <v>0</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C72" s="1">
         <v>2020</v>
@@ -3394,13 +3534,15 @@
       <c r="I72" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C73" s="1">
         <v>2020</v>
@@ -3418,13 +3560,15 @@
         <v>0</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>27</v>
       </c>
@@ -3447,18 +3591,20 @@
         <v>0</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C75" s="1">
         <v>2017</v>
@@ -3476,18 +3622,20 @@
         <v>0</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C76" s="1">
         <v>2017</v>
@@ -3505,18 +3653,20 @@
         <v>0</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C77" s="1">
         <v>2016</v>
@@ -3539,13 +3689,15 @@
       <c r="I77" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C78" s="1">
         <v>2014</v>
@@ -3568,13 +3720,15 @@
       <c r="I78" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C79" s="1">
         <v>2019</v>
@@ -3597,8 +3751,10 @@
       <c r="I79" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -3621,18 +3777,20 @@
         <v>0</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C81" s="1">
         <v>2020</v>
@@ -3650,18 +3808,20 @@
         <v>0</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C82" s="1">
         <v>2020</v>
@@ -3679,18 +3839,20 @@
         <v>0</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C83" s="1">
         <v>2017</v>
@@ -3708,18 +3870,20 @@
         <v>0</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C84" s="1">
         <v>2015</v>
@@ -3737,18 +3901,20 @@
         <v>0</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C85" s="1">
         <v>2018</v>
@@ -3766,18 +3932,20 @@
         <v>0</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C86" s="1">
         <v>2019</v>
@@ -3795,13 +3963,15 @@
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>48</v>
       </c>
@@ -3824,18 +3994,20 @@
         <v>0</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C88" s="1">
         <v>2012</v>
@@ -3853,18 +4025,20 @@
         <v>0</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C89" s="1">
         <v>2019</v>
@@ -3882,18 +4056,20 @@
         <v>0</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C90" s="1">
         <v>2013</v>
@@ -3911,18 +4087,20 @@
         <v>115</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C91" s="1">
         <v>2014</v>
@@ -3940,18 +4118,20 @@
         <v>417</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C92" s="1">
         <v>2019</v>
@@ -3969,18 +4149,20 @@
         <v>0</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C93" s="1">
         <v>2018</v>
@@ -3998,18 +4180,20 @@
         <v>0</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C94" s="1">
         <v>2016</v>
@@ -4032,13 +4216,15 @@
       <c r="I94" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C95" s="1">
         <v>2019</v>
@@ -4056,18 +4242,20 @@
         <v>0</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C96" s="1">
         <v>2019</v>
@@ -4085,13 +4273,15 @@
         <v>0</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
@@ -4119,8 +4309,10 @@
       <c r="I97" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>23</v>
       </c>
@@ -4148,13 +4340,15 @@
       <c r="I98" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C99" s="1">
         <v>2016</v>
@@ -4172,18 +4366,20 @@
         <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C100" s="1">
         <v>2018</v>
@@ -4201,18 +4397,20 @@
         <v>7</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C101" s="1">
         <v>2021</v>
@@ -4230,13 +4428,15 @@
         <v>32</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>57</v>
       </c>
@@ -4259,13 +4459,15 @@
         <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>50</v>
       </c>
@@ -4288,18 +4490,20 @@
         <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C104" s="1">
         <v>2020</v>
@@ -4317,13 +4521,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>20</v>
       </c>
@@ -4351,8 +4557,10 @@
       <c r="I105" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -4380,8 +4588,10 @@
       <c r="I106" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>20</v>
       </c>
@@ -4409,13 +4619,15 @@
       <c r="I107" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C108" s="1">
         <v>2016</v>
@@ -4438,13 +4650,15 @@
       <c r="I108" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C109" s="1">
         <v>2017</v>
@@ -4467,13 +4681,15 @@
       <c r="I109" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C110" s="1">
         <v>2020</v>
@@ -4491,18 +4707,20 @@
         <v>0</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C111" s="1">
         <v>2016</v>
@@ -4520,18 +4738,20 @@
         <v>7</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C112" s="1">
         <v>2020</v>
@@ -4549,18 +4769,20 @@
         <v>7</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C113" s="1">
         <v>2020</v>
@@ -4578,18 +4800,20 @@
         <v>0</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C114" s="1">
         <v>2016</v>
@@ -4607,18 +4831,20 @@
         <v>0</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C115" s="1">
         <v>2020</v>
@@ -4636,13 +4862,15 @@
         <v>0</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>15</v>
       </c>
@@ -4670,8 +4898,10 @@
       <c r="I116" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>15</v>
       </c>
@@ -4694,13 +4924,15 @@
         <v>0</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>15</v>
       </c>
@@ -4728,8 +4960,10 @@
       <c r="I118" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>15</v>
       </c>
@@ -4757,13 +4991,15 @@
       <c r="I119" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="C120" s="1">
         <v>2020</v>
@@ -4786,9 +5022,11 @@
       <c r="I120" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:G120">
+  <sortState ref="A3:I120">
     <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="2">
@@ -4804,11 +5042,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K116"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101:J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8873,4 +9115,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/conflit_faune.xlsx
+++ b/conflit_faune.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="229">
   <si>
     <t>Morts</t>
   </si>
@@ -708,6 +708,12 @@
   </si>
   <si>
     <t>5.86601</t>
+  </si>
+  <si>
+    <t>HOMME-CROCODILE</t>
+  </si>
+  <si>
+    <t>HOMME-BUFFLE</t>
   </si>
 </sst>
 </file>
@@ -823,6 +829,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,7 +839,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1115,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,22 +1143,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1228,14 +1234,14 @@
         <v>106</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="L3" s="1">
-        <f>COUNTIF(B$3:B$117,K3)</f>
+        <f t="shared" ref="L3:L12" si="0">COUNTIF(B$3:B$117,K3)</f>
         <v>25</v>
       </c>
       <c r="M3" s="1">
-        <f>SUMIF(B$3:B$117,K3,E$3:E$117)</f>
+        <f t="shared" ref="M3:M12" si="1">SUMIF(B$3:B$117,K3,E$3:E$117)</f>
         <v>8</v>
       </c>
       <c r="N3" s="1">
@@ -1279,11 +1285,11 @@
         <v>62</v>
       </c>
       <c r="L4" s="1">
-        <f>COUNTIF(B$3:B$117,K4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M4" s="1">
-        <f>SUMIF(B$3:B$117,K4,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N4" s="1">
@@ -1327,11 +1333,11 @@
         <v>222</v>
       </c>
       <c r="L5" s="1">
-        <f>COUNTIF(B$3:B$117,K5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="M5" s="1">
-        <f>SUMIF(B$3:B$117,K5,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N5" s="1">
@@ -1375,11 +1381,11 @@
         <v>14</v>
       </c>
       <c r="L6" s="1">
-        <f>COUNTIF(B$3:B$117,K6)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
-        <f>SUMIF(B$3:B$117,K6,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N6" s="1">
@@ -1396,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="C7" s="1">
         <v>2011</v>
@@ -1423,11 +1429,11 @@
         <v>220</v>
       </c>
       <c r="L7" s="1">
-        <f>COUNTIF(B$3:B$117,K7)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="M7" s="1">
-        <f>SUMIF(B$3:B$117,K7,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="N7" s="1">
@@ -1471,11 +1477,11 @@
         <v>70</v>
       </c>
       <c r="L8" s="1">
-        <f>COUNTIF(B$3:B$117,K8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M8" s="1">
-        <f>SUMIF(B$3:B$117,K8,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="1">
@@ -1519,11 +1525,11 @@
         <v>221</v>
       </c>
       <c r="L9" s="1">
-        <f>COUNTIF(B$3:B$117,K9)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="M9" s="1">
-        <f>SUMIF(B$3:B$117,K9,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N9" s="1">
@@ -1540,7 +1546,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C10" s="1">
         <v>2012</v>
@@ -1567,11 +1573,11 @@
         <v>56</v>
       </c>
       <c r="L10" s="1">
-        <f>COUNTIF(B$3:B$117,K10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M10" s="1">
-        <f>SUMIF(B$3:B$117,K10,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N10" s="1">
@@ -1588,7 +1594,7 @@
         <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C11" s="1">
         <v>2016</v>
@@ -1615,11 +1621,11 @@
         <v>61</v>
       </c>
       <c r="L11" s="1">
-        <f>COUNTIF(B$3:B$117,K11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M11" s="1">
-        <f>SUMIF(B$3:B$117,K11,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="1">
@@ -1663,11 +1669,11 @@
         <v>51</v>
       </c>
       <c r="L12" s="1">
-        <f>COUNTIF(B$3:B$117,K12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M12" s="1">
-        <f>SUMIF(B$3:B$117,K12,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N12" s="1">
@@ -1736,8 +1742,8 @@
       <c r="I14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1767,8 +1773,8 @@
       <c r="I15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1798,8 +1804,8 @@
       <c r="I16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1829,8 +1835,8 @@
       <c r="I17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1860,8 +1866,8 @@
       <c r="I18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1891,8 +1897,8 @@
       <c r="I19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1922,8 +1928,8 @@
       <c r="I20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1953,15 +1959,15 @@
       <c r="I21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C22" s="1">
         <v>2019</v>
@@ -1984,8 +1990,8 @@
       <c r="I22" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2015,15 +2021,15 @@
       <c r="I23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C24" s="1">
         <v>2020</v>
@@ -2046,8 +2052,8 @@
       <c r="I24" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2077,15 +2083,15 @@
       <c r="I25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C26" s="1">
         <v>2016</v>
@@ -2108,8 +2114,8 @@
       <c r="I26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2139,8 +2145,8 @@
       <c r="I27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -2170,8 +2176,8 @@
       <c r="I28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2201,8 +2207,8 @@
       <c r="I29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2232,8 +2238,8 @@
       <c r="I30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -2263,15 +2269,15 @@
       <c r="I31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C32" s="1">
         <v>2016</v>
@@ -2294,8 +2300,8 @@
       <c r="I32" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -2325,15 +2331,15 @@
       <c r="I33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C34" s="1">
         <v>2011</v>
@@ -2356,8 +2362,8 @@
       <c r="I34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -2387,8 +2393,8 @@
       <c r="I35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2418,8 +2424,8 @@
       <c r="I36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -2449,15 +2455,15 @@
       <c r="I37" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C38" s="1">
         <v>2016</v>
@@ -2480,15 +2486,15 @@
       <c r="I38" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C39" s="1">
         <v>2020</v>
@@ -2511,15 +2517,15 @@
       <c r="I39" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C40" s="1">
         <v>2018</v>
@@ -2542,8 +2548,8 @@
       <c r="I40" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -2573,8 +2579,8 @@
       <c r="I41" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -2604,15 +2610,15 @@
       <c r="I42" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C43" s="1">
         <v>2016</v>
@@ -2635,15 +2641,15 @@
       <c r="I43" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C44" s="1">
         <v>2019</v>
@@ -2666,8 +2672,8 @@
       <c r="I44" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -2697,15 +2703,15 @@
       <c r="I45" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C46" s="1">
         <v>2020</v>
@@ -2728,8 +2734,8 @@
       <c r="I46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -2759,8 +2765,8 @@
       <c r="I47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -2790,8 +2796,8 @@
       <c r="I48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -2821,8 +2827,8 @@
       <c r="I49" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -2852,8 +2858,8 @@
       <c r="I50" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -2883,8 +2889,8 @@
       <c r="I51" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2914,8 +2920,8 @@
       <c r="I52" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -2945,8 +2951,8 @@
       <c r="I53" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -2976,8 +2982,8 @@
       <c r="I54" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -3007,8 +3013,8 @@
       <c r="I55" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -3038,8 +3044,8 @@
       <c r="I56" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -3069,8 +3075,8 @@
       <c r="I57" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -3100,8 +3106,8 @@
       <c r="I58" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -3131,8 +3137,8 @@
       <c r="I59" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -3162,8 +3168,8 @@
       <c r="I60" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -3193,8 +3199,8 @@
       <c r="I61" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -3224,8 +3230,8 @@
       <c r="I62" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -3255,15 +3261,15 @@
       <c r="I63" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C64" s="1">
         <v>2019</v>
@@ -3286,8 +3292,8 @@
       <c r="I64" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -3317,8 +3323,8 @@
       <c r="I65" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -3348,8 +3354,8 @@
       <c r="I66" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -3379,8 +3385,8 @@
       <c r="I67" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -3410,8 +3416,8 @@
       <c r="I68" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -3441,8 +3447,8 @@
       <c r="I69" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -3472,8 +3478,8 @@
       <c r="I70" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -3503,8 +3509,8 @@
       <c r="I71" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -3534,8 +3540,8 @@
       <c r="I72" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -3565,15 +3571,15 @@
       <c r="I73" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C74" s="1">
         <v>2020</v>
@@ -3596,8 +3602,8 @@
       <c r="I74" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -3627,8 +3633,8 @@
       <c r="I75" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -3658,8 +3664,8 @@
       <c r="I76" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -3689,8 +3695,8 @@
       <c r="I77" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -3720,8 +3726,8 @@
       <c r="I78" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -3751,8 +3757,8 @@
       <c r="I79" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -3782,8 +3788,8 @@
       <c r="I80" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -3813,8 +3819,8 @@
       <c r="I81" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -3844,8 +3850,8 @@
       <c r="I82" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -3875,8 +3881,8 @@
       <c r="I83" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -3906,8 +3912,8 @@
       <c r="I84" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -3937,8 +3943,8 @@
       <c r="I85" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -3968,15 +3974,15 @@
       <c r="I86" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C87" s="1">
         <v>2017</v>
@@ -3999,8 +4005,8 @@
       <c r="I87" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -4030,8 +4036,8 @@
       <c r="I88" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -4061,8 +4067,8 @@
       <c r="I89" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -4092,8 +4098,8 @@
       <c r="I90" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
@@ -4123,8 +4129,8 @@
       <c r="I91" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -4154,8 +4160,8 @@
       <c r="I92" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -4185,8 +4191,8 @@
       <c r="I93" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -4216,8 +4222,8 @@
       <c r="I94" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -4247,8 +4253,8 @@
       <c r="I95" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -4278,15 +4284,15 @@
       <c r="I96" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C97" s="1">
         <v>2016</v>
@@ -4309,15 +4315,15 @@
       <c r="I97" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C98" s="1">
         <v>2014</v>
@@ -4340,8 +4346,8 @@
       <c r="I98" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -4371,8 +4377,8 @@
       <c r="I99" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -4402,8 +4408,8 @@
       <c r="I100" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -4433,15 +4439,15 @@
       <c r="I101" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C102" s="1">
         <v>2012</v>
@@ -4464,15 +4470,15 @@
       <c r="I102" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C103" s="1">
         <v>2018</v>
@@ -4495,8 +4501,8 @@
       <c r="I103" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -4526,15 +4532,15 @@
       <c r="I104" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C105" s="1">
         <v>2012</v>
@@ -4557,15 +4563,15 @@
       <c r="I105" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C106" s="1">
         <v>2016</v>
@@ -4588,15 +4594,15 @@
       <c r="I106" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C107" s="1">
         <v>2016</v>
@@ -4619,8 +4625,8 @@
       <c r="I107" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -4650,8 +4656,8 @@
       <c r="I108" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -4681,8 +4687,8 @@
       <c r="I109" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -4712,8 +4718,8 @@
       <c r="I110" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -4743,8 +4749,8 @@
       <c r="I111" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -4774,8 +4780,8 @@
       <c r="I112" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -4805,8 +4811,8 @@
       <c r="I113" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -4836,8 +4842,8 @@
       <c r="I114" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -4867,15 +4873,15 @@
       <c r="I115" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C116" s="1">
         <v>2012</v>
@@ -4898,15 +4904,15 @@
       <c r="I116" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J116" s="9"/>
-      <c r="K116" s="9"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C117" s="1">
         <v>2020</v>
@@ -4929,15 +4935,15 @@
       <c r="I117" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="C118" s="1">
         <v>2012</v>
@@ -4960,15 +4966,15 @@
       <c r="I118" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="C119" s="1">
         <v>2019</v>
@@ -4991,8 +4997,8 @@
       <c r="I119" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J119" s="9"/>
-      <c r="K119" s="9"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -5022,8 +5028,8 @@
       <c r="I120" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A3:I120">

--- a/conflit_faune.xlsx
+++ b/conflit_faune.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="260">
   <si>
     <t>Morts</t>
   </si>
@@ -714,6 +714,99 @@
   </si>
   <si>
     <t>HOMME-BUFFLE</t>
+  </si>
+  <si>
+    <t>OKROUYO</t>
+  </si>
+  <si>
+    <t>OURAGAHIO</t>
+  </si>
+  <si>
+    <t>DIOULATIEDOUGOU</t>
+  </si>
+  <si>
+    <t>Maisons, moto, ustensiles de cuisine</t>
+  </si>
+  <si>
+    <t>Sac de maïs consommé</t>
+  </si>
+  <si>
+    <t>Cultures vivrières et pérennes, Habitats, Engins</t>
+  </si>
+  <si>
+    <t>Psychose de la population et cultures vivrières</t>
+  </si>
+  <si>
+    <t>SAMATIGUILA</t>
+  </si>
+  <si>
+    <t>Cultures vivrières et pérennes, Psychose de la population</t>
+  </si>
+  <si>
+    <t>BLOLEQUIN</t>
+  </si>
+  <si>
+    <t>Psychose au sein de la population, destruction de matériels de pêche</t>
+  </si>
+  <si>
+    <t>ANANDA</t>
+  </si>
+  <si>
+    <t>7.406015</t>
+  </si>
+  <si>
+    <t>5.764988</t>
+  </si>
+  <si>
+    <t>6.309993</t>
+  </si>
+  <si>
+    <t>8.976927</t>
+  </si>
+  <si>
+    <t>6.569519</t>
+  </si>
+  <si>
+    <t>9.822455</t>
+  </si>
+  <si>
+    <t>-6.405576</t>
+  </si>
+  <si>
+    <t>-5.933025</t>
+  </si>
+  <si>
+    <t>-7.237347</t>
+  </si>
+  <si>
+    <t>-4.186625</t>
+  </si>
+  <si>
+    <t>-8.00395</t>
+  </si>
+  <si>
+    <t>-7.56356</t>
+  </si>
+  <si>
+    <t>KOUIBLY</t>
+  </si>
+  <si>
+    <t>Psychose des travailleurs, menace des activités</t>
+  </si>
+  <si>
+    <t>Envahissement d'un lac artificiel</t>
+  </si>
+  <si>
+    <t>7.256397</t>
+  </si>
+  <si>
+    <t>9.271432</t>
+  </si>
+  <si>
+    <t>-7.236009</t>
+  </si>
+  <si>
+    <t>-2.996257</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,67 +1300,67 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>228</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L12" si="0">COUNTIF(B$3:B$117,K3)</f>
-        <v>25</v>
+        <f>COUNTIF(B$3:B$139,K3)</f>
+        <v>30</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M12" si="1">SUMIF(B$3:B$117,K3,E$3:E$117)</f>
-        <v>8</v>
+        <f>SUMIF(B$3:B$139,K3,E$3:E$139)</f>
+        <v>15</v>
       </c>
       <c r="N3" s="1">
-        <f>SUMIF(B$3:B117,K3,F$3:F117)</f>
-        <v>3</v>
+        <f>SUMIF(B$3:B139,K3,F$3:F139)</f>
+        <v>4</v>
       </c>
       <c r="O3" s="1">
-        <f>SUMIF(B$3:B117,K3,G$3:G117)</f>
-        <v>19</v>
+        <f>SUMIF(B$3:B139,K3,G$3:G139)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C4" s="1">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -1276,91 +1369,91 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B$3:B$139,K4)</f>
         <v>1</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="1"/>
+        <f>SUMIF(B$3:B$139,K4,E$3:E$139)</f>
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <f>SUMIF(B$3:B117,K4,F$3:F117)</f>
+        <f>SUMIF(B$3:B139,K4,F$3:F139)</f>
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <f>SUMIF(B$3:B117,K4,G$3:G117)</f>
+        <f>SUMIF(B$3:B139,K4,G$3:G139)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="C5" s="1">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
       <c r="G5" s="4">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>222</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>COUNTIF(B$3:B$139,K5)</f>
+        <v>6</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="1"/>
+        <f>SUMIF(B$3:B$139,K5,E$3:E$139)</f>
         <v>3</v>
       </c>
       <c r="N5" s="1">
-        <f>SUMIF(B$3:B117,K5,F$3:F117)</f>
+        <f>SUMIF(B$3:B139,K5,F$3:F139)</f>
         <v>1</v>
       </c>
       <c r="O5" s="1">
-        <f>SUMIF(B$3:B117,K5,G$3:G117)</f>
+        <f>SUMIF(B$3:B139,K5,G$3:G139)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C6" s="1">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -1372,43 +1465,43 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B$3:B$139,K6)</f>
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="1"/>
+        <f>SUMIF(B$3:B$139,K6,E$3:E$139)</f>
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <f>SUMIF(B$3:B117,K6,F$3:F117)</f>
+        <f>SUMIF(B$3:B139,K6,F$3:F139)</f>
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <f>SUMIF(B$3:B117,K6,G$3:G117)</f>
+        <f>SUMIF(B$3:B139,K6,G$3:G139)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C7" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -1420,40 +1513,40 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>220</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f>COUNTIF(B$3:B$139,K7)</f>
+        <v>68</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f>SUMIF(B$3:B$139,K7,E$3:E$139)</f>
+        <v>35</v>
       </c>
       <c r="N7" s="1">
-        <f>SUMIF(B$3:B118,K7,F$3:F118)</f>
-        <v>18</v>
+        <f>SUMIF(B$3:B140,K7,F$3:F140)</f>
+        <v>16</v>
       </c>
       <c r="O7" s="1">
-        <f>SUMIF(B$3:B118,K7,G$3:G118)</f>
-        <v>878</v>
+        <f>SUMIF(B$3:B140,K7,G$3:G140)</f>
+        <v>902</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c r="C8" s="1">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -1465,43 +1558,43 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B$3:B$139,K8)</f>
         <v>1</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="1"/>
+        <f>SUMIF(B$3:B$139,K8,E$3:E$139)</f>
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <f>SUMIF(B$3:B119,K8,F$3:F119)</f>
+        <f>SUMIF(B$3:B141,K8,F$3:F141)</f>
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <f>SUMIF(B$3:B119,K8,G$3:G119)</f>
+        <f>SUMIF(B$3:B141,K8,G$3:G141)</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="C9" s="1">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -1513,46 +1606,46 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>221</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>COUNTIF(B$3:B$139,K9)</f>
+        <v>22</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="1"/>
+        <f>SUMIF(B$3:B$139,K9,E$3:E$139)</f>
         <v>6</v>
       </c>
       <c r="N9" s="1">
-        <f>SUMIF(B$3:B120,K9,F$3:F120)</f>
+        <f>SUMIF(B$3:B142,K9,F$3:F142)</f>
         <v>4</v>
       </c>
       <c r="O9" s="1">
-        <f>SUMIF(B$3:B120,K9,G$3:G120)</f>
+        <f>SUMIF(B$3:B142,K9,G$3:G142)</f>
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C10" s="1">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1564,34 +1657,34 @@
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(B$3:B$139,K10)</f>
         <v>3</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="1"/>
+        <f>SUMIF(B$3:B$139,K10,E$3:E$139)</f>
         <v>6</v>
       </c>
       <c r="N10" s="1">
-        <f>SUMIF(B$3:B121,K10,F$3:F121)</f>
+        <f>SUMIF(B$3:B143,K10,F$3:F143)</f>
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <f>SUMIF(B$3:B121,K10,G$3:G121)</f>
+        <f>SUMIF(B$3:B143,K10,G$3:G143)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>228</v>
@@ -1603,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -1612,43 +1705,43 @@
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>COUNTIF(B$3:B$139,K11)</f>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="1"/>
+        <f>SUMIF(B$3:B$139,K11,E$3:E$139)</f>
         <v>0</v>
       </c>
       <c r="N11" s="1">
-        <f>SUMIF(B$3:B122,K11,F$3:F122)</f>
+        <f>SUMIF(B$3:B144,K11,F$3:F144)</f>
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <f>SUMIF(B$3:B122,K11,G$3:G122)</f>
+        <f>SUMIF(B$3:B144,K11,G$3:G144)</f>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="C12" s="1">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1657,75 +1750,75 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>COUNTIF(B$3:B$139,K12)</f>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="1"/>
+        <f>SUMIF(B$3:B$139,K12,E$3:E$139)</f>
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <f>SUMIF(B$3:B123,K12,F$3:F123)</f>
+        <f>SUMIF(B$3:B145,K12,F$3:F145)</f>
         <v>1</v>
       </c>
       <c r="O12" s="1">
-        <f>SUMIF(B$3:B123,K12,G$3:G123)</f>
+        <f>SUMIF(B$3:B145,K12,G$3:G145)</f>
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C13" s="1">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C14" s="1">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -1734,57 +1827,57 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C15" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C16" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -1793,26 +1886,26 @@
         <v>0</v>
       </c>
       <c r="F16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C17" s="1">
         <v>2017</v>
@@ -1824,29 +1917,29 @@
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C18" s="1">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -1855,32 +1948,32 @@
         <v>0</v>
       </c>
       <c r="F18" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C19" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -1892,57 +1985,57 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C20" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
       </c>
       <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
         <v>1</v>
       </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C21" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -1954,17 +2047,17 @@
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>228</v>
@@ -1973,41 +2066,41 @@
         <v>2019</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="C23" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -2016,26 +2109,26 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C24" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -2047,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -2060,10 +2153,10 @@
         <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="C25" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
@@ -2088,50 +2181,50 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C26" s="1">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
         <v>4</v>
       </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C27" s="1">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -2140,20 +2233,20 @@
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C28" s="1">
         <v>2020</v>
@@ -2171,29 +2264,29 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c r="C29" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E29" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -2202,26 +2295,26 @@
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C30" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -2233,26 +2326,26 @@
         <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C31" s="1">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -2264,23 +2357,23 @@
         <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C32" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>12</v>
@@ -2295,26 +2388,26 @@
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -2323,88 +2416,88 @@
         <v>0</v>
       </c>
       <c r="G33" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C34" s="1">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C35" s="1">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E35" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C36" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>12</v>
@@ -2413,35 +2506,35 @@
         <v>0</v>
       </c>
       <c r="F36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C37" s="1">
         <v>2017</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E37" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
@@ -2450,60 +2543,58 @@
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C38" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
       </c>
       <c r="F38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4">
         <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C39" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -2512,23 +2603,23 @@
         <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C40" s="1">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>12</v>
@@ -2543,26 +2634,26 @@
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C41" s="1">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -2574,54 +2665,54 @@
         <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>142</v>
+        <v>259</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="C42" s="1">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="E42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C43" s="1">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>12</v>
@@ -2636,26 +2727,26 @@
         <v>0</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>146</v>
+        <v>216</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C44" s="1">
         <v>2019</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E44" s="4">
         <v>0</v>
@@ -2667,54 +2758,54 @@
         <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>146</v>
+        <v>216</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C45" s="1">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C46" s="1">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>12</v>
@@ -2729,91 +2820,91 @@
         <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C47" s="1">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
       </c>
       <c r="F47" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C48" s="1">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E48" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F48" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C49" s="1">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E49" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -2822,26 +2913,26 @@
         <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C50" s="1">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
@@ -2850,60 +2941,60 @@
         <v>0</v>
       </c>
       <c r="G50" s="4">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C51" s="1">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E51" s="4">
         <v>0</v>
       </c>
       <c r="F51" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C52" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E52" s="4">
         <v>0</v>
@@ -2912,29 +3003,29 @@
         <v>0</v>
       </c>
       <c r="G52" s="4">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C53" s="1">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
@@ -2946,26 +3037,26 @@
         <v>0</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C54" s="1">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E54" s="4">
         <v>0</v>
@@ -2974,60 +3065,60 @@
         <v>0</v>
       </c>
       <c r="G54" s="4">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C55" s="1">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E55" s="4">
         <v>0</v>
       </c>
       <c r="F55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="4">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C56" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E56" s="4">
         <v>0</v>
@@ -3039,23 +3130,23 @@
         <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C57" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>4</v>
@@ -3070,26 +3161,26 @@
         <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C58" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E58" s="4">
         <v>0</v>
@@ -3101,17 +3192,17 @@
         <v>0</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>220</v>
@@ -3129,51 +3220,49 @@
         <v>0</v>
       </c>
       <c r="G59" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C60" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>2016</v>
+      </c>
+      <c r="D60" s="1"/>
       <c r="E60" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F60" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>160</v>
+        <v>247</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>220</v>
@@ -3182,7 +3271,7 @@
         <v>2016</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E61" s="4">
         <v>0</v>
@@ -3194,119 +3283,119 @@
         <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C62" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F62" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="4">
         <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C63" s="1">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E63" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F63" s="4">
         <v>0</v>
       </c>
       <c r="G63" s="4">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C64" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G64" s="4">
         <v>0</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C65" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E65" s="4">
         <v>0</v>
@@ -3315,29 +3404,29 @@
         <v>0</v>
       </c>
       <c r="G65" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C66" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
@@ -3349,23 +3438,23 @@
         <v>0</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C67" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>4</v>
@@ -3377,26 +3466,26 @@
         <v>0</v>
       </c>
       <c r="G67" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C68" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>4</v>
@@ -3405,29 +3494,29 @@
         <v>0</v>
       </c>
       <c r="F68" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="4">
         <v>0</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C69" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>12</v>
@@ -3436,32 +3525,32 @@
         <v>0</v>
       </c>
       <c r="F69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="4">
         <v>0</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C70" s="1">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="E70" s="4">
         <v>0</v>
@@ -3473,23 +3562,23 @@
         <v>0</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C71" s="1">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>4</v>
@@ -3501,26 +3590,26 @@
         <v>0</v>
       </c>
       <c r="G71" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C72" s="1">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>4</v>
@@ -3535,26 +3624,26 @@
         <v>0</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C73" s="1">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E73" s="4">
         <v>0</v>
@@ -3566,26 +3655,26 @@
         <v>0</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C74" s="1">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E74" s="4">
         <v>0</v>
@@ -3594,26 +3683,26 @@
         <v>0</v>
       </c>
       <c r="G74" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C75" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>12</v>
@@ -3622,33 +3711,31 @@
         <v>0</v>
       </c>
       <c r="F75" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" s="4">
         <v>0</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C76" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="D76" s="1"/>
       <c r="E76" s="4">
         <v>0</v>
       </c>
@@ -3659,54 +3746,54 @@
         <v>0</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C77" s="1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E77" s="4">
         <v>0</v>
       </c>
       <c r="F77" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C78" s="1">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>4</v>
@@ -3718,26 +3805,26 @@
         <v>0</v>
       </c>
       <c r="G78" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C79" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>4</v>
@@ -3749,32 +3836,32 @@
         <v>0</v>
       </c>
       <c r="G79" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="C80" s="1">
         <v>2018</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E80" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F80" s="4">
         <v>0</v>
@@ -3783,26 +3870,26 @@
         <v>0</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C81" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E81" s="4">
         <v>0</v>
@@ -3811,60 +3898,60 @@
         <v>0</v>
       </c>
       <c r="G81" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C82" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E82" s="1">
-        <v>0</v>
-      </c>
-      <c r="F82" s="1">
-        <v>0</v>
-      </c>
-      <c r="G82" s="1">
+        <v>4</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0</v>
+      </c>
+      <c r="G82" s="4">
         <v>0</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C83" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E83" s="4">
         <v>0</v>
@@ -3876,26 +3963,26 @@
         <v>0</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C84" s="1">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E84" s="4">
         <v>0</v>
@@ -3907,29 +3994,29 @@
         <v>0</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C85" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E85" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F85" s="4">
         <v>0</v>
@@ -3938,26 +4025,26 @@
         <v>0</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C86" s="1">
         <v>2019</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
       <c r="E86" s="4">
         <v>0</v>
@@ -3969,26 +4056,26 @@
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C87" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E87" s="4">
         <v>0</v>
@@ -3997,51 +4084,51 @@
         <v>0</v>
       </c>
       <c r="G87" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C88" s="1">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E88" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F88" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G88" s="4">
         <v>0</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>220</v>
@@ -4053,32 +4140,32 @@
         <v>4</v>
       </c>
       <c r="E89" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F89" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G89" s="4">
         <v>0</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C90" s="1">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>4</v>
@@ -4090,44 +4177,44 @@
         <v>0</v>
       </c>
       <c r="G90" s="4">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C91" s="1">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E91" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F91" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G91" s="4">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
@@ -4165,16 +4252,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C93" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E93" s="4">
         <v>0</v>
@@ -4186,10 +4273,10 @@
         <v>0</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
@@ -4202,10 +4289,10 @@
         <v>220</v>
       </c>
       <c r="C94" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="E94" s="4">
         <v>0</v>
@@ -4227,16 +4314,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C95" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="E95" s="4">
         <v>0</v>
@@ -4248,26 +4335,26 @@
         <v>0</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C96" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="E96" s="4">
         <v>0</v>
@@ -4279,23 +4366,23 @@
         <v>0</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C97" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>12</v>
@@ -4307,29 +4394,29 @@
         <v>0</v>
       </c>
       <c r="G97" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C98" s="1">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="E98" s="4">
         <v>0</v>
@@ -4338,57 +4425,57 @@
         <v>0</v>
       </c>
       <c r="G98" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C99" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E99" s="4">
         <v>0</v>
       </c>
       <c r="F99" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" s="4">
         <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C100" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>4</v>
@@ -4400,88 +4487,88 @@
         <v>0</v>
       </c>
       <c r="G100" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C101" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E101" s="1">
-        <v>0</v>
-      </c>
-      <c r="F101" s="1">
-        <v>0</v>
-      </c>
-      <c r="G101" s="1">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0</v>
+      </c>
+      <c r="F101" s="4">
+        <v>0</v>
+      </c>
+      <c r="G101" s="4">
+        <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C102" s="1">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E102" s="4">
         <v>0</v>
       </c>
       <c r="F102" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G102" s="4">
         <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C103" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>4</v>
@@ -4496,17 +4583,17 @@
         <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>220</v>
@@ -4515,7 +4602,7 @@
         <v>2020</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E104" s="4">
         <v>0</v>
@@ -4527,26 +4614,26 @@
         <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C105" s="1">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E105" s="4">
         <v>0</v>
@@ -4558,29 +4645,29 @@
         <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C106" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E106" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F106" s="4">
         <v>0</v>
@@ -4589,26 +4676,26 @@
         <v>0</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C107" s="1">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="E107" s="4">
         <v>0</v>
@@ -4617,26 +4704,26 @@
         <v>0</v>
       </c>
       <c r="G107" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>209</v>
+        <v>107</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>20</v>
+        <v>238</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C108" s="1">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>4</v>
@@ -4648,29 +4735,29 @@
         <v>0</v>
       </c>
       <c r="G108" s="4">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C109" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>4</v>
+        <v>237</v>
       </c>
       <c r="E109" s="4">
         <v>0</v>
@@ -4679,29 +4766,29 @@
         <v>0</v>
       </c>
       <c r="G109" s="4">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C110" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="E110" s="4">
         <v>0</v>
@@ -4713,26 +4800,26 @@
         <v>0</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C111" s="1">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E111" s="4">
         <v>0</v>
@@ -4741,29 +4828,29 @@
         <v>0</v>
       </c>
       <c r="G111" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C112" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="E112" s="4">
         <v>0</v>
@@ -4772,29 +4859,29 @@
         <v>0</v>
       </c>
       <c r="G112" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="C113" s="1">
         <v>2020</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E113" s="4">
         <v>0</v>
@@ -4803,91 +4890,91 @@
         <v>0</v>
       </c>
       <c r="G113" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C114" s="1">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E114" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G114" s="4">
         <v>0</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C115" s="1">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="E115" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F115" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G115" s="4">
         <v>0</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C116" s="1">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E116" s="4">
         <v>0</v>
@@ -4899,29 +4986,29 @@
         <v>0</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C117" s="1">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E117" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" s="4">
         <v>0</v>
@@ -4930,26 +5017,26 @@
         <v>0</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C118" s="1">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E118" s="4">
         <v>0</v>
@@ -4958,32 +5045,32 @@
         <v>0</v>
       </c>
       <c r="G118" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C119" s="1">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E119" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" s="4">
         <v>0</v>
@@ -4992,26 +5079,26 @@
         <v>0</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C120" s="1">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E120" s="4">
         <v>0</v>
@@ -5023,17 +5110,687 @@
         <v>0</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
     </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="4">
+        <v>0</v>
+      </c>
+      <c r="F121" s="4">
+        <v>0</v>
+      </c>
+      <c r="G121" s="4">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122" s="4">
+        <v>0</v>
+      </c>
+      <c r="F122" s="4">
+        <v>0</v>
+      </c>
+      <c r="G122" s="4">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0</v>
+      </c>
+      <c r="F123" s="4">
+        <v>0</v>
+      </c>
+      <c r="G123" s="4">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0</v>
+      </c>
+      <c r="F124" s="4">
+        <v>0</v>
+      </c>
+      <c r="G124" s="4">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="4">
+        <v>2</v>
+      </c>
+      <c r="F125" s="4">
+        <v>0</v>
+      </c>
+      <c r="G125" s="4">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0</v>
+      </c>
+      <c r="F126" s="4">
+        <v>0</v>
+      </c>
+      <c r="G126" s="4">
+        <v>0</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E127" s="4">
+        <v>1</v>
+      </c>
+      <c r="F127" s="4">
+        <v>0</v>
+      </c>
+      <c r="G127" s="4">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0</v>
+      </c>
+      <c r="F128" s="4">
+        <v>0</v>
+      </c>
+      <c r="G128" s="4">
+        <v>5</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0</v>
+      </c>
+      <c r="F130" s="4">
+        <v>0</v>
+      </c>
+      <c r="G130" s="4">
+        <v>7</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="4">
+        <v>0</v>
+      </c>
+      <c r="F131" s="4">
+        <v>0</v>
+      </c>
+      <c r="G131" s="4">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" s="4">
+        <v>0</v>
+      </c>
+      <c r="F132" s="4">
+        <v>0</v>
+      </c>
+      <c r="G132" s="4">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D133" s="1"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0</v>
+      </c>
+      <c r="G135" s="1">
+        <v>32</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="4">
+        <v>2</v>
+      </c>
+      <c r="F136" s="4">
+        <v>0</v>
+      </c>
+      <c r="G136" s="4">
+        <v>0</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" s="4">
+        <v>4</v>
+      </c>
+      <c r="F137" s="4">
+        <v>0</v>
+      </c>
+      <c r="G137" s="4">
+        <v>0</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0</v>
+      </c>
+      <c r="F138" s="4">
+        <v>0</v>
+      </c>
+      <c r="G138" s="4">
+        <v>0</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" s="4">
+        <v>1</v>
+      </c>
+      <c r="F139" s="4">
+        <v>1</v>
+      </c>
+      <c r="G139" s="4">
+        <v>17</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="4">
+        <v>0</v>
+      </c>
+      <c r="F140" s="4">
+        <v>0</v>
+      </c>
+      <c r="G140" s="4">
+        <v>0</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C141" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="4">
+        <v>0</v>
+      </c>
+      <c r="F141" s="4">
+        <v>0</v>
+      </c>
+      <c r="G141" s="4">
+        <v>5</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C142" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="4">
+        <v>0</v>
+      </c>
+      <c r="F142" s="4">
+        <v>0</v>
+      </c>
+      <c r="G142" s="4">
+        <v>0</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+    </row>
   </sheetData>
-  <sortState ref="A3:I120">
-    <sortCondition ref="A3"/>
+  <sortState ref="A3:I139">
+    <sortCondition ref="B91"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="K1:O1"/>

--- a/conflit_faune.xlsx
+++ b/conflit_faune.xlsx
@@ -911,14 +911,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,22 +1235,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="7" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1311,13 +1310,13 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1359,13 +1358,13 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1407,13 +1406,13 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1455,13 +1454,13 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1503,13 +1502,13 @@
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1551,13 +1550,13 @@
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1599,13 +1598,13 @@
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -1647,13 +1646,13 @@
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1695,13 +1694,13 @@
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1743,13 +1742,13 @@
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1791,13 +1790,13 @@
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1820,13 +1819,13 @@
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
         <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1835,8 +1834,8 @@
       <c r="I14" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1851,13 +1850,13 @@
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -1866,8 +1865,8 @@
       <c r="I15" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1882,13 +1881,13 @@
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1897,8 +1896,8 @@
       <c r="I16" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1913,13 +1912,13 @@
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1928,8 +1927,8 @@
       <c r="I17" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1944,13 +1943,13 @@
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1959,8 +1958,8 @@
       <c r="I18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1975,13 +1974,13 @@
       <c r="D19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1990,8 +1989,8 @@
       <c r="I19" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2006,13 +2005,13 @@
       <c r="D20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -2021,8 +2020,8 @@
       <c r="I20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2037,13 +2036,13 @@
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -2052,8 +2051,8 @@
       <c r="I21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2068,13 +2067,13 @@
       <c r="D22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -2083,8 +2082,8 @@
       <c r="I22" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2099,13 +2098,13 @@
       <c r="D23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="1">
         <v>2</v>
       </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -2114,8 +2113,8 @@
       <c r="I23" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -2130,13 +2129,13 @@
       <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -2145,8 +2144,8 @@
       <c r="I24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2161,13 +2160,13 @@
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -2176,8 +2175,8 @@
       <c r="I25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -2192,13 +2191,13 @@
       <c r="D26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="1">
         <v>3</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <v>4</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -2207,8 +2206,8 @@
       <c r="I26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2223,13 +2222,13 @@
       <c r="D27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -2238,8 +2237,8 @@
       <c r="I27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -2254,13 +2253,13 @@
       <c r="D28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -2269,8 +2268,8 @@
       <c r="I28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2285,13 +2284,13 @@
       <c r="D29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="1">
         <v>2</v>
       </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -2300,8 +2299,8 @@
       <c r="I29" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2316,13 +2315,13 @@
       <c r="D30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
         <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -2331,8 +2330,8 @@
       <c r="I30" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -2347,13 +2346,13 @@
       <c r="D31" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
         <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -2362,8 +2361,8 @@
       <c r="I31" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -2378,13 +2377,13 @@
       <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -2393,8 +2392,8 @@
       <c r="I32" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -2409,13 +2408,13 @@
       <c r="D33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -2424,8 +2423,8 @@
       <c r="I33" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2440,13 +2439,13 @@
       <c r="D34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -2455,8 +2454,8 @@
       <c r="I34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -2471,13 +2470,13 @@
       <c r="D35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -2486,8 +2485,8 @@
       <c r="I35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2502,13 +2501,13 @@
       <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -2517,8 +2516,8 @@
       <c r="I36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -2533,13 +2532,13 @@
       <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="1">
         <v>3</v>
       </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -2548,8 +2547,8 @@
       <c r="I37" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -2564,13 +2563,13 @@
       <c r="D38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
         <v>1</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="1">
         <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -2579,8 +2578,8 @@
       <c r="I38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -2593,13 +2592,13 @@
         <v>2021</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4">
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -2608,8 +2607,8 @@
       <c r="I39" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -2624,13 +2623,13 @@
       <c r="D40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -2639,8 +2638,8 @@
       <c r="I40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -2655,13 +2654,13 @@
       <c r="D41" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4">
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -2670,8 +2669,8 @@
       <c r="I41" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -2686,13 +2685,13 @@
       <c r="D42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
         <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -2701,8 +2700,8 @@
       <c r="I42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -2717,13 +2716,13 @@
       <c r="D43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4">
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
         <v>0</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -2732,8 +2731,8 @@
       <c r="I43" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -2748,13 +2747,13 @@
       <c r="D44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4">
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
         <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -2763,8 +2762,8 @@
       <c r="I44" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -2779,13 +2778,13 @@
       <c r="D45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="1">
         <v>2</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="1">
         <v>1</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="1">
         <v>200</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -2794,8 +2793,8 @@
       <c r="I45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -2810,13 +2809,13 @@
       <c r="D46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="4">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4">
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
         <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -2825,8 +2824,8 @@
       <c r="I46" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -2841,13 +2840,13 @@
       <c r="D47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
         <v>1</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="1">
         <v>14</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -2856,8 +2855,8 @@
       <c r="I47" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -2872,13 +2871,13 @@
       <c r="D48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="1">
         <v>9</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="1">
         <v>3</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="1">
         <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -2887,8 +2886,8 @@
       <c r="I48" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -2903,13 +2902,13 @@
       <c r="D49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4">
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
         <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -2918,8 +2917,8 @@
       <c r="I49" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -2934,13 +2933,13 @@
       <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4">
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
         <v>115</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -2949,8 +2948,8 @@
       <c r="I50" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -2965,13 +2964,13 @@
       <c r="D51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4">
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
         <v>11</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -2980,8 +2979,8 @@
       <c r="I51" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2996,13 +2995,13 @@
       <c r="D52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="4">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4">
-        <v>0</v>
-      </c>
-      <c r="G52" s="4">
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
         <v>417</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -3011,8 +3010,8 @@
       <c r="I52" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -3027,13 +3026,13 @@
       <c r="D53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0</v>
-      </c>
-      <c r="G53" s="4">
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
         <v>0</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -3042,8 +3041,8 @@
       <c r="I53" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -3058,13 +3057,13 @@
       <c r="D54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0</v>
-      </c>
-      <c r="G54" s="4">
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
         <v>29</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -3073,8 +3072,8 @@
       <c r="I54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -3089,13 +3088,13 @@
       <c r="D55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4">
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
         <v>2</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -3104,8 +3103,8 @@
       <c r="I55" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -3120,13 +3119,13 @@
       <c r="D56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0</v>
-      </c>
-      <c r="G56" s="4">
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
         <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -3135,8 +3134,8 @@
       <c r="I56" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -3151,13 +3150,13 @@
       <c r="D57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="4">
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
         <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -3166,8 +3165,8 @@
       <c r="I57" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -3182,13 +3181,13 @@
       <c r="D58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-      <c r="G58" s="4">
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
         <v>0</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -3197,8 +3196,8 @@
       <c r="I58" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -3213,13 +3212,13 @@
       <c r="D59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="4">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
-        <v>0</v>
-      </c>
-      <c r="G59" s="4">
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
         <v>8</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -3228,8 +3227,8 @@
       <c r="I59" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -3242,13 +3241,13 @@
         <v>2016</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="E60" s="4">
+      <c r="E60" s="1">
         <v>5</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="1">
         <v>1</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="1">
         <v>0</v>
       </c>
       <c r="H60" s="1" t="s">
@@ -3257,8 +3256,8 @@
       <c r="I60" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -3273,13 +3272,13 @@
       <c r="D61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4">
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
         <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -3288,8 +3287,8 @@
       <c r="I61" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -3304,13 +3303,13 @@
       <c r="D62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="4">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4">
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
         <v>1</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="1">
         <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
@@ -3319,8 +3318,8 @@
       <c r="I62" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -3335,13 +3334,13 @@
       <c r="D63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="4">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="4">
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
         <v>39</v>
       </c>
       <c r="H63" s="1" t="s">
@@ -3350,8 +3349,8 @@
       <c r="I63" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -3366,13 +3365,13 @@
       <c r="D64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="4">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4">
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
         <v>2</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="1">
         <v>0</v>
       </c>
       <c r="H64" s="1" t="s">
@@ -3381,8 +3380,8 @@
       <c r="I64" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -3397,13 +3396,13 @@
       <c r="D65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="4">
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
         <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -3412,8 +3411,8 @@
       <c r="I65" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -3428,13 +3427,13 @@
       <c r="D66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="4">
-        <v>0</v>
-      </c>
-      <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="4">
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
         <v>0</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -3443,8 +3442,8 @@
       <c r="I66" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -3459,13 +3458,13 @@
       <c r="D67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E67" s="4">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4">
-        <v>0</v>
-      </c>
-      <c r="G67" s="4">
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
         <v>0</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -3474,8 +3473,8 @@
       <c r="I67" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -3490,13 +3489,13 @@
       <c r="D68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="4">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="4">
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
         <v>0</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -3505,8 +3504,8 @@
       <c r="I68" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -3521,13 +3520,13 @@
       <c r="D69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="4">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4">
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
         <v>1</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="1">
         <v>0</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -3536,8 +3535,8 @@
       <c r="I69" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -3552,13 +3551,13 @@
       <c r="D70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E70" s="4">
-        <v>0</v>
-      </c>
-      <c r="F70" s="4">
-        <v>0</v>
-      </c>
-      <c r="G70" s="4">
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
         <v>0</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -3567,8 +3566,8 @@
       <c r="I70" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -3583,13 +3582,13 @@
       <c r="D71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="4">
-        <v>0</v>
-      </c>
-      <c r="F71" s="4">
-        <v>0</v>
-      </c>
-      <c r="G71" s="4">
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
         <v>18</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -3598,8 +3597,8 @@
       <c r="I71" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -3614,13 +3613,13 @@
       <c r="D72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="4">
-        <v>0</v>
-      </c>
-      <c r="F72" s="4">
-        <v>0</v>
-      </c>
-      <c r="G72" s="4">
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
         <v>0</v>
       </c>
       <c r="H72" s="1" t="s">
@@ -3629,8 +3628,8 @@
       <c r="I72" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -3645,13 +3644,13 @@
       <c r="D73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="4">
-        <v>0</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0</v>
-      </c>
-      <c r="G73" s="4">
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
         <v>0</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -3660,8 +3659,8 @@
       <c r="I73" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -3676,13 +3675,13 @@
       <c r="D74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="4">
-        <v>0</v>
-      </c>
-      <c r="F74" s="4">
-        <v>0</v>
-      </c>
-      <c r="G74" s="4">
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
         <v>18</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -3691,8 +3690,8 @@
       <c r="I74" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -3707,13 +3706,13 @@
       <c r="D75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E75" s="4">
-        <v>0</v>
-      </c>
-      <c r="F75" s="4">
-        <v>0</v>
-      </c>
-      <c r="G75" s="4">
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
         <v>0</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -3722,8 +3721,8 @@
       <c r="I75" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -3736,13 +3735,13 @@
         <v>2018</v>
       </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="4">
-        <v>0</v>
-      </c>
-      <c r="F76" s="4">
-        <v>0</v>
-      </c>
-      <c r="G76" s="4">
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
         <v>0</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -3751,8 +3750,8 @@
       <c r="I76" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -3767,13 +3766,13 @@
       <c r="D77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E77" s="4">
-        <v>0</v>
-      </c>
-      <c r="F77" s="4">
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
         <v>1</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="1">
         <v>0</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -3782,8 +3781,8 @@
       <c r="I77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -3798,13 +3797,13 @@
       <c r="D78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="4">
-        <v>0</v>
-      </c>
-      <c r="F78" s="4">
-        <v>0</v>
-      </c>
-      <c r="G78" s="4">
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
         <v>0</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -3813,8 +3812,8 @@
       <c r="I78" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -3829,13 +3828,13 @@
       <c r="D79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E79" s="4">
-        <v>0</v>
-      </c>
-      <c r="F79" s="4">
-        <v>0</v>
-      </c>
-      <c r="G79" s="4">
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
         <v>9</v>
       </c>
       <c r="H79" s="1" t="s">
@@ -3844,8 +3843,8 @@
       <c r="I79" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -3860,13 +3859,13 @@
       <c r="D80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="1">
         <v>7</v>
       </c>
-      <c r="F80" s="4">
-        <v>0</v>
-      </c>
-      <c r="G80" s="4">
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
         <v>0</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -3875,8 +3874,8 @@
       <c r="I80" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -3891,13 +3890,13 @@
       <c r="D81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="4">
-        <v>0</v>
-      </c>
-      <c r="F81" s="4">
-        <v>0</v>
-      </c>
-      <c r="G81" s="4">
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
         <v>7</v>
       </c>
       <c r="H81" s="1" t="s">
@@ -3906,8 +3905,8 @@
       <c r="I81" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -3922,13 +3921,13 @@
       <c r="D82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E82" s="4">
-        <v>0</v>
-      </c>
-      <c r="F82" s="4">
-        <v>0</v>
-      </c>
-      <c r="G82" s="4">
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
         <v>0</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -3937,8 +3936,8 @@
       <c r="I82" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -3953,13 +3952,13 @@
       <c r="D83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="4">
-        <v>0</v>
-      </c>
-      <c r="F83" s="4">
-        <v>0</v>
-      </c>
-      <c r="G83" s="4">
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
         <v>0</v>
       </c>
       <c r="H83" s="1" t="s">
@@ -3968,8 +3967,8 @@
       <c r="I83" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -3984,13 +3983,13 @@
       <c r="D84" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E84" s="4">
-        <v>0</v>
-      </c>
-      <c r="F84" s="4">
-        <v>0</v>
-      </c>
-      <c r="G84" s="4">
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
         <v>0</v>
       </c>
       <c r="H84" s="1" t="s">
@@ -3999,8 +3998,8 @@
       <c r="I84" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -4015,13 +4014,13 @@
       <c r="D85" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="1">
         <v>3</v>
       </c>
-      <c r="F85" s="4">
-        <v>0</v>
-      </c>
-      <c r="G85" s="4">
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
         <v>0</v>
       </c>
       <c r="H85" s="1" t="s">
@@ -4030,8 +4029,8 @@
       <c r="I85" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -4046,13 +4045,13 @@
       <c r="D86" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E86" s="4">
-        <v>0</v>
-      </c>
-      <c r="F86" s="4">
-        <v>0</v>
-      </c>
-      <c r="G86" s="4">
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
@@ -4061,8 +4060,8 @@
       <c r="I86" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -4077,13 +4076,13 @@
       <c r="D87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E87" s="4">
-        <v>0</v>
-      </c>
-      <c r="F87" s="4">
-        <v>0</v>
-      </c>
-      <c r="G87" s="4">
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
         <v>9</v>
       </c>
       <c r="H87" s="1" t="s">
@@ -4092,8 +4091,8 @@
       <c r="I87" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -4108,13 +4107,13 @@
       <c r="D88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="4">
-        <v>0</v>
-      </c>
-      <c r="F88" s="4">
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
         <v>1</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="1">
         <v>0</v>
       </c>
       <c r="H88" s="1" t="s">
@@ -4123,8 +4122,8 @@
       <c r="I88" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -4139,13 +4138,13 @@
       <c r="D89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="4">
-        <v>0</v>
-      </c>
-      <c r="F89" s="4">
-        <v>0</v>
-      </c>
-      <c r="G89" s="4">
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
         <v>0</v>
       </c>
       <c r="H89" s="1" t="s">
@@ -4154,8 +4153,8 @@
       <c r="I89" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -4170,13 +4169,13 @@
       <c r="D90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E90" s="4">
-        <v>0</v>
-      </c>
-      <c r="F90" s="4">
-        <v>0</v>
-      </c>
-      <c r="G90" s="4">
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
         <v>0</v>
       </c>
       <c r="H90" s="1" t="s">
@@ -4185,8 +4184,8 @@
       <c r="I90" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
@@ -4201,13 +4200,13 @@
       <c r="D91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="1">
         <v>9</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="1">
         <v>3</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="1">
         <v>0</v>
       </c>
       <c r="H91" s="1" t="s">
@@ -4216,8 +4215,8 @@
       <c r="I91" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -4232,13 +4231,13 @@
       <c r="D92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="4">
-        <v>0</v>
-      </c>
-      <c r="F92" s="4">
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
         <v>1</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="1">
         <v>0</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -4247,8 +4246,8 @@
       <c r="I92" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -4263,13 +4262,13 @@
       <c r="D93" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E93" s="4">
-        <v>0</v>
-      </c>
-      <c r="F93" s="4">
-        <v>0</v>
-      </c>
-      <c r="G93" s="4">
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
         <v>0</v>
       </c>
       <c r="H93" s="1" t="s">
@@ -4278,8 +4277,8 @@
       <c r="I93" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -4294,13 +4293,13 @@
       <c r="D94" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E94" s="4">
-        <v>0</v>
-      </c>
-      <c r="F94" s="4">
-        <v>0</v>
-      </c>
-      <c r="G94" s="4">
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
         <v>0</v>
       </c>
       <c r="H94" s="1" t="s">
@@ -4309,8 +4308,8 @@
       <c r="I94" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -4325,13 +4324,13 @@
       <c r="D95" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E95" s="4">
-        <v>0</v>
-      </c>
-      <c r="F95" s="4">
-        <v>0</v>
-      </c>
-      <c r="G95" s="4">
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
         <v>0</v>
       </c>
       <c r="H95" s="1" t="s">
@@ -4340,8 +4339,8 @@
       <c r="I95" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -4356,13 +4355,13 @@
       <c r="D96" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="4">
-        <v>0</v>
-      </c>
-      <c r="F96" s="4">
-        <v>0</v>
-      </c>
-      <c r="G96" s="4">
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
         <v>0</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -4371,8 +4370,8 @@
       <c r="I96" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -4387,13 +4386,13 @@
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="4">
-        <v>0</v>
-      </c>
-      <c r="F97" s="4">
-        <v>0</v>
-      </c>
-      <c r="G97" s="4">
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
         <v>0</v>
       </c>
       <c r="H97" s="1" t="s">
@@ -4402,8 +4401,8 @@
       <c r="I97" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -4418,13 +4417,13 @@
       <c r="D98" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E98" s="4">
-        <v>0</v>
-      </c>
-      <c r="F98" s="4">
-        <v>0</v>
-      </c>
-      <c r="G98" s="4">
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
         <v>0</v>
       </c>
       <c r="H98" s="1" t="s">
@@ -4433,8 +4432,8 @@
       <c r="I98" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -4449,13 +4448,13 @@
       <c r="D99" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E99" s="4">
-        <v>0</v>
-      </c>
-      <c r="F99" s="4">
-        <v>0</v>
-      </c>
-      <c r="G99" s="4">
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
         <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
@@ -4464,8 +4463,8 @@
       <c r="I99" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -4480,13 +4479,13 @@
       <c r="D100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="4">
-        <v>0</v>
-      </c>
-      <c r="F100" s="4">
-        <v>0</v>
-      </c>
-      <c r="G100" s="4">
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
         <v>0</v>
       </c>
       <c r="H100" s="1" t="s">
@@ -4495,8 +4494,8 @@
       <c r="I100" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -4511,13 +4510,13 @@
       <c r="D101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="4">
-        <v>0</v>
-      </c>
-      <c r="F101" s="4">
-        <v>0</v>
-      </c>
-      <c r="G101" s="4">
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
         <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
@@ -4526,8 +4525,8 @@
       <c r="I101" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -4542,13 +4541,13 @@
       <c r="D102" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="4">
-        <v>0</v>
-      </c>
-      <c r="F102" s="4">
-        <v>0</v>
-      </c>
-      <c r="G102" s="4">
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
         <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
@@ -4557,8 +4556,8 @@
       <c r="I102" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
@@ -4573,13 +4572,13 @@
       <c r="D103" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E103" s="4">
-        <v>0</v>
-      </c>
-      <c r="F103" s="4">
-        <v>0</v>
-      </c>
-      <c r="G103" s="4">
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
         <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
@@ -4588,8 +4587,8 @@
       <c r="I103" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -4604,13 +4603,13 @@
       <c r="D104" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E104" s="4">
-        <v>0</v>
-      </c>
-      <c r="F104" s="4">
-        <v>0</v>
-      </c>
-      <c r="G104" s="4">
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
         <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
@@ -4619,8 +4618,8 @@
       <c r="I104" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -4635,13 +4634,13 @@
       <c r="D105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="4">
-        <v>0</v>
-      </c>
-      <c r="F105" s="4">
-        <v>0</v>
-      </c>
-      <c r="G105" s="4">
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
         <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
@@ -4650,8 +4649,8 @@
       <c r="I105" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -4666,13 +4665,13 @@
       <c r="D106" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E106" s="4">
-        <v>0</v>
-      </c>
-      <c r="F106" s="4">
-        <v>0</v>
-      </c>
-      <c r="G106" s="4">
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
         <v>0</v>
       </c>
       <c r="H106" s="1" t="s">
@@ -4681,8 +4680,8 @@
       <c r="I106" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
@@ -4697,13 +4696,13 @@
       <c r="D107" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E107" s="4">
-        <v>0</v>
-      </c>
-      <c r="F107" s="4">
-        <v>0</v>
-      </c>
-      <c r="G107" s="4">
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
         <v>1</v>
       </c>
       <c r="H107" s="1" t="s">
@@ -4712,8 +4711,8 @@
       <c r="I107" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -4728,13 +4727,13 @@
       <c r="D108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E108" s="4">
-        <v>0</v>
-      </c>
-      <c r="F108" s="4">
-        <v>0</v>
-      </c>
-      <c r="G108" s="4">
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
         <v>0</v>
       </c>
       <c r="H108" s="1" t="s">
@@ -4743,8 +4742,8 @@
       <c r="I108" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -4759,13 +4758,13 @@
       <c r="D109" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E109" s="4">
-        <v>0</v>
-      </c>
-      <c r="F109" s="4">
-        <v>0</v>
-      </c>
-      <c r="G109" s="4">
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
         <v>5</v>
       </c>
       <c r="H109" s="1" t="s">
@@ -4774,8 +4773,8 @@
       <c r="I109" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -4790,13 +4789,13 @@
       <c r="D110" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E110" s="4">
-        <v>0</v>
-      </c>
-      <c r="F110" s="4">
-        <v>0</v>
-      </c>
-      <c r="G110" s="4">
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
         <v>0</v>
       </c>
       <c r="H110" s="1" t="s">
@@ -4805,8 +4804,8 @@
       <c r="I110" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -4821,13 +4820,13 @@
       <c r="D111" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E111" s="4">
-        <v>0</v>
-      </c>
-      <c r="F111" s="4">
-        <v>0</v>
-      </c>
-      <c r="G111" s="4">
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
         <v>0</v>
       </c>
       <c r="H111" s="1" t="s">
@@ -4836,8 +4835,8 @@
       <c r="I111" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -4852,13 +4851,13 @@
       <c r="D112" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E112" s="4">
-        <v>0</v>
-      </c>
-      <c r="F112" s="4">
-        <v>0</v>
-      </c>
-      <c r="G112" s="4">
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
         <v>0</v>
       </c>
       <c r="H112" s="1" t="s">
@@ -4867,8 +4866,8 @@
       <c r="I112" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -4883,13 +4882,13 @@
       <c r="D113" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E113" s="4">
-        <v>0</v>
-      </c>
-      <c r="F113" s="4">
-        <v>0</v>
-      </c>
-      <c r="G113" s="4">
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
         <v>2</v>
       </c>
       <c r="H113" s="1" t="s">
@@ -4898,8 +4897,8 @@
       <c r="I113" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -4914,13 +4913,13 @@
       <c r="D114" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E114" s="4">
-        <v>0</v>
-      </c>
-      <c r="F114" s="4">
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
         <v>2</v>
       </c>
-      <c r="G114" s="4">
+      <c r="G114" s="1">
         <v>0</v>
       </c>
       <c r="H114" s="1" t="s">
@@ -4929,8 +4928,8 @@
       <c r="I114" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -4945,13 +4944,13 @@
       <c r="D115" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="1">
         <v>2</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F115" s="1">
         <v>2</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G115" s="1">
         <v>0</v>
       </c>
       <c r="H115" s="1" t="s">
@@ -4960,8 +4959,8 @@
       <c r="I115" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -4976,13 +4975,13 @@
       <c r="D116" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E116" s="4">
-        <v>0</v>
-      </c>
-      <c r="F116" s="4">
-        <v>0</v>
-      </c>
-      <c r="G116" s="4">
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1">
         <v>0</v>
       </c>
       <c r="H116" s="1" t="s">
@@ -4991,8 +4990,8 @@
       <c r="I116" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J116" s="6"/>
-      <c r="K116" s="6"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
@@ -5007,13 +5006,13 @@
       <c r="D117" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E117" s="4">
-        <v>0</v>
-      </c>
-      <c r="F117" s="4">
-        <v>0</v>
-      </c>
-      <c r="G117" s="4">
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
         <v>0</v>
       </c>
       <c r="H117" s="1" t="s">
@@ -5022,8 +5021,8 @@
       <c r="I117" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J117" s="6"/>
-      <c r="K117" s="6"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
@@ -5038,13 +5037,13 @@
       <c r="D118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="4">
-        <v>0</v>
-      </c>
-      <c r="F118" s="4">
-        <v>0</v>
-      </c>
-      <c r="G118" s="4">
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
         <v>7</v>
       </c>
       <c r="H118" s="1" t="s">
@@ -5053,8 +5052,8 @@
       <c r="I118" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J118" s="6"/>
-      <c r="K118" s="6"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -5069,13 +5068,13 @@
       <c r="D119" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="1">
         <v>1</v>
       </c>
-      <c r="F119" s="4">
-        <v>0</v>
-      </c>
-      <c r="G119" s="4">
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1">
         <v>0</v>
       </c>
       <c r="H119" s="1" t="s">
@@ -5084,8 +5083,8 @@
       <c r="I119" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -5100,13 +5099,13 @@
       <c r="D120" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E120" s="4">
-        <v>0</v>
-      </c>
-      <c r="F120" s="4">
-        <v>0</v>
-      </c>
-      <c r="G120" s="4">
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0</v>
+      </c>
+      <c r="G120" s="1">
         <v>0</v>
       </c>
       <c r="H120" s="1" t="s">
@@ -5115,8 +5114,8 @@
       <c r="I120" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -5129,13 +5128,13 @@
         <v>2017</v>
       </c>
       <c r="D121" s="1"/>
-      <c r="E121" s="4">
-        <v>0</v>
-      </c>
-      <c r="F121" s="4">
-        <v>0</v>
-      </c>
-      <c r="G121" s="4">
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0</v>
+      </c>
+      <c r="G121" s="1">
         <v>0</v>
       </c>
       <c r="H121" s="1" t="s">
@@ -5144,8 +5143,8 @@
       <c r="I121" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="J121" s="6"/>
-      <c r="K121" s="6"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -5160,13 +5159,13 @@
       <c r="D122" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E122" s="4">
-        <v>0</v>
-      </c>
-      <c r="F122" s="4">
-        <v>0</v>
-      </c>
-      <c r="G122" s="4">
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="1">
         <v>0</v>
       </c>
       <c r="H122" s="1" t="s">
@@ -5175,8 +5174,8 @@
       <c r="I122" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -5191,13 +5190,13 @@
       <c r="D123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E123" s="4">
-        <v>0</v>
-      </c>
-      <c r="F123" s="4">
-        <v>0</v>
-      </c>
-      <c r="G123" s="4">
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1">
         <v>0</v>
       </c>
       <c r="H123" s="1" t="s">
@@ -5206,8 +5205,8 @@
       <c r="I123" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -5222,13 +5221,13 @@
       <c r="D124" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E124" s="4">
-        <v>0</v>
-      </c>
-      <c r="F124" s="4">
-        <v>0</v>
-      </c>
-      <c r="G124" s="4">
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1">
         <v>0</v>
       </c>
       <c r="H124" s="1" t="s">
@@ -5237,8 +5236,8 @@
       <c r="I124" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
@@ -5253,13 +5252,13 @@
       <c r="D125" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="1">
         <v>2</v>
       </c>
-      <c r="F125" s="4">
-        <v>0</v>
-      </c>
-      <c r="G125" s="4">
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+      <c r="G125" s="1">
         <v>0</v>
       </c>
       <c r="H125" s="1" t="s">
@@ -5268,8 +5267,8 @@
       <c r="I125" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -5284,13 +5283,13 @@
       <c r="D126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E126" s="4">
-        <v>0</v>
-      </c>
-      <c r="F126" s="4">
-        <v>0</v>
-      </c>
-      <c r="G126" s="4">
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1">
         <v>0</v>
       </c>
       <c r="H126" s="1" t="s">
@@ -5299,8 +5298,8 @@
       <c r="I126" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
@@ -5315,13 +5314,13 @@
       <c r="D127" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127" s="1">
         <v>1</v>
       </c>
-      <c r="F127" s="4">
-        <v>0</v>
-      </c>
-      <c r="G127" s="4">
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1">
         <v>0</v>
       </c>
       <c r="H127" s="1" t="s">
@@ -5330,8 +5329,8 @@
       <c r="I127" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
@@ -5346,13 +5345,13 @@
       <c r="D128" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E128" s="4">
-        <v>0</v>
-      </c>
-      <c r="F128" s="4">
-        <v>0</v>
-      </c>
-      <c r="G128" s="4">
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0</v>
+      </c>
+      <c r="G128" s="1">
         <v>5</v>
       </c>
       <c r="H128" s="1" t="s">
@@ -5361,8 +5360,8 @@
       <c r="I128" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J128" s="6"/>
-      <c r="K128" s="6"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
@@ -5392,8 +5391,8 @@
       <c r="I129" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
@@ -5408,13 +5407,13 @@
       <c r="D130" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E130" s="4">
-        <v>0</v>
-      </c>
-      <c r="F130" s="4">
-        <v>0</v>
-      </c>
-      <c r="G130" s="4">
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
         <v>7</v>
       </c>
       <c r="H130" s="1" t="s">
@@ -5423,8 +5422,8 @@
       <c r="I130" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J130" s="6"/>
-      <c r="K130" s="6"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -5437,13 +5436,13 @@
         <v>2020</v>
       </c>
       <c r="D131" s="1"/>
-      <c r="E131" s="4">
-        <v>0</v>
-      </c>
-      <c r="F131" s="4">
-        <v>0</v>
-      </c>
-      <c r="G131" s="4">
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1">
         <v>0</v>
       </c>
       <c r="H131" s="1" t="s">
@@ -5452,8 +5451,8 @@
       <c r="I131" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -5468,13 +5467,13 @@
       <c r="D132" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E132" s="4">
-        <v>0</v>
-      </c>
-      <c r="F132" s="4">
-        <v>0</v>
-      </c>
-      <c r="G132" s="4">
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+      <c r="G132" s="1">
         <v>0</v>
       </c>
       <c r="H132" s="1" t="s">
@@ -5483,8 +5482,8 @@
       <c r="I132" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -5497,17 +5496,23 @@
         <v>2021</v>
       </c>
       <c r="D133" s="1"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
       <c r="H133" s="1" t="s">
         <v>107</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -5537,8 +5542,8 @@
       <c r="I134" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -5568,8 +5573,8 @@
       <c r="I135" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -5584,13 +5589,13 @@
       <c r="D136" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136" s="1">
         <v>2</v>
       </c>
-      <c r="F136" s="4">
-        <v>0</v>
-      </c>
-      <c r="G136" s="4">
+      <c r="F136" s="1">
+        <v>0</v>
+      </c>
+      <c r="G136" s="1">
         <v>0</v>
       </c>
       <c r="H136" s="1" t="s">
@@ -5599,8 +5604,8 @@
       <c r="I136" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -5615,13 +5620,13 @@
       <c r="D137" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137" s="1">
         <v>4</v>
       </c>
-      <c r="F137" s="4">
-        <v>0</v>
-      </c>
-      <c r="G137" s="4">
+      <c r="F137" s="1">
+        <v>0</v>
+      </c>
+      <c r="G137" s="1">
         <v>0</v>
       </c>
       <c r="H137" s="1" t="s">
@@ -5630,8 +5635,8 @@
       <c r="I137" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -5646,13 +5651,13 @@
       <c r="D138" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E138" s="4">
-        <v>0</v>
-      </c>
-      <c r="F138" s="4">
-        <v>0</v>
-      </c>
-      <c r="G138" s="4">
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0</v>
+      </c>
+      <c r="G138" s="1">
         <v>0</v>
       </c>
       <c r="H138" s="1" t="s">
@@ -5661,8 +5666,8 @@
       <c r="I138" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J138" s="6"/>
-      <c r="K138" s="6"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -5677,13 +5682,13 @@
       <c r="D139" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="1">
         <v>1</v>
       </c>
-      <c r="F139" s="4">
+      <c r="F139" s="1">
         <v>1</v>
       </c>
-      <c r="G139" s="4">
+      <c r="G139" s="1">
         <v>17</v>
       </c>
       <c r="H139" s="1" t="s">
@@ -5692,8 +5697,8 @@
       <c r="I139" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J139" s="6"/>
-      <c r="K139" s="6"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -5708,13 +5713,13 @@
       <c r="D140" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E140" s="4">
-        <v>0</v>
-      </c>
-      <c r="F140" s="4">
-        <v>0</v>
-      </c>
-      <c r="G140" s="4">
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+      <c r="F140" s="1">
+        <v>0</v>
+      </c>
+      <c r="G140" s="1">
         <v>0</v>
       </c>
       <c r="H140" s="1" t="s">
@@ -5723,8 +5728,8 @@
       <c r="I140" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
@@ -5739,13 +5744,13 @@
       <c r="D141" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E141" s="4">
-        <v>0</v>
-      </c>
-      <c r="F141" s="4">
-        <v>0</v>
-      </c>
-      <c r="G141" s="4">
+      <c r="E141" s="1">
+        <v>0</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0</v>
+      </c>
+      <c r="G141" s="1">
         <v>5</v>
       </c>
       <c r="H141" s="1" t="s">
@@ -5754,8 +5759,8 @@
       <c r="I141" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -5770,13 +5775,13 @@
       <c r="D142" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E142" s="4">
-        <v>0</v>
-      </c>
-      <c r="F142" s="4">
-        <v>0</v>
-      </c>
-      <c r="G142" s="4">
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0</v>
+      </c>
+      <c r="G142" s="1">
         <v>0</v>
       </c>
       <c r="H142" s="1" t="s">
@@ -5785,8 +5790,8 @@
       <c r="I142" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J142" s="6"/>
-      <c r="K142" s="6"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A3:I139">
@@ -9896,12 +9901,1544 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection sqref="A1:C140"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>4</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/conflit_faune.xlsx
+++ b/conflit_faune.xlsx
@@ -17,6 +17,9 @@
     <sheet name="Feuil3" sheetId="4" r:id="rId3"/>
     <sheet name="Feuil2" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$2:$I$136</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="258">
   <si>
     <t>Morts</t>
   </si>
@@ -447,12 +450,6 @@
   </si>
   <si>
     <t>7.058045</t>
-  </si>
-  <si>
-    <t>-3.962343</t>
-  </si>
-  <si>
-    <t>7.054822</t>
   </si>
   <si>
     <t>-4.715958</t>
@@ -1211,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O142"/>
+  <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1231,7 @@
     <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1302,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C3" s="1">
         <v>2011</v>
@@ -1326,23 +1323,23 @@
         <v>136</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L3" s="1">
-        <f>COUNTIF(B$3:B$139,K3)</f>
-        <v>30</v>
+        <f>COUNTIF(B$3:B$136,K3)</f>
+        <v>27</v>
       </c>
       <c r="M3" s="1">
-        <f>SUMIF(B$3:B$139,K3,E$3:E$139)</f>
-        <v>15</v>
+        <f>SUMIF(B$3:B$136,K3,E$3:E$136)</f>
+        <v>13</v>
       </c>
       <c r="N3" s="1">
-        <f>SUMIF(B$3:B139,K3,F$3:F139)</f>
+        <f>SUMIF(B$3:B136,K3,F$3:F136)</f>
         <v>4</v>
       </c>
       <c r="O3" s="1">
-        <f>SUMIF(B$3:B139,K3,G$3:G139)</f>
-        <v>23</v>
+        <f>SUMIF(B$3:B136,K3,G$3:G136)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1350,7 +1347,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C4" s="1">
         <v>2012</v>
@@ -1377,19 +1374,19 @@
         <v>62</v>
       </c>
       <c r="L4" s="1">
-        <f>COUNTIF(B$3:B$139,K4)</f>
+        <f>COUNTIF(B$3:B$136,K4)</f>
         <v>1</v>
       </c>
       <c r="M4" s="1">
-        <f>SUMIF(B$3:B$139,K4,E$3:E$139)</f>
+        <f>SUMIF(B$3:B$136,K4,E$3:E$136)</f>
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <f>SUMIF(B$3:B139,K4,F$3:F139)</f>
+        <f>SUMIF(B$3:B137,K4,F$3:F137)</f>
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <f>SUMIF(B$3:B139,K4,G$3:G139)</f>
+        <f>SUMIF(B$3:B137,K4,G$3:G137)</f>
         <v>1</v>
       </c>
     </row>
@@ -1398,7 +1395,7 @@
         <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C5" s="1">
         <v>2012</v>
@@ -1416,28 +1413,28 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L5" s="1">
-        <f>COUNTIF(B$3:B$139,K5)</f>
+        <f>COUNTIF(B$3:B$136,K5)</f>
         <v>6</v>
       </c>
       <c r="M5" s="1">
-        <f>SUMIF(B$3:B$139,K5,E$3:E$139)</f>
+        <f>SUMIF(B$3:B$136,K5,E$3:E$136)</f>
         <v>3</v>
       </c>
       <c r="N5" s="1">
-        <f>SUMIF(B$3:B139,K5,F$3:F139)</f>
+        <f>SUMIF(B$3:B138,K5,F$3:F138)</f>
         <v>1</v>
       </c>
       <c r="O5" s="1">
-        <f>SUMIF(B$3:B139,K5,G$3:G139)</f>
+        <f>SUMIF(B$3:B138,K5,G$3:G138)</f>
         <v>0</v>
       </c>
     </row>
@@ -1446,7 +1443,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1">
         <v>2012</v>
@@ -1464,20 +1461,20 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="1">
-        <f>COUNTIF(B$3:B$139,K6)</f>
+        <f>COUNTIF(B$3:B$136,K6)</f>
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <f>SUMIF(B$3:B$139,K6,E$3:E$139)</f>
+        <f>SUMIF(B$3:B$136,K6,E$3:E$136)</f>
         <v>0</v>
       </c>
       <c r="N6" s="1">
@@ -1494,7 +1491,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C7" s="1">
         <v>2012</v>
@@ -1512,29 +1509,29 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L7" s="1">
-        <f>COUNTIF(B$3:B$139,K7)</f>
-        <v>68</v>
+        <f>COUNTIF(B$3:B$136,K7)</f>
+        <v>65</v>
       </c>
       <c r="M7" s="1">
-        <f>SUMIF(B$3:B$139,K7,E$3:E$139)</f>
-        <v>35</v>
+        <f>SUMIF(B$3:B$136,K7,E$3:E$136)</f>
+        <v>7</v>
       </c>
       <c r="N7" s="1">
         <f>SUMIF(B$3:B140,K7,F$3:F140)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O7" s="1">
         <f>SUMIF(B$3:B140,K7,G$3:G140)</f>
-        <v>902</v>
+        <v>876</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1542,7 +1539,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C8" s="1">
         <v>2014</v>
@@ -1560,20 +1557,20 @@
         <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L8" s="1">
-        <f>COUNTIF(B$3:B$139,K8)</f>
+        <f>COUNTIF(B$3:B$136,K8)</f>
         <v>1</v>
       </c>
       <c r="M8" s="1">
-        <f>SUMIF(B$3:B$139,K8,E$3:E$139)</f>
+        <f>SUMIF(B$3:B$136,K8,E$3:E$136)</f>
         <v>0</v>
       </c>
       <c r="N8" s="1">
@@ -1590,7 +1587,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C9" s="1">
         <v>2016</v>
@@ -1614,23 +1611,23 @@
         <v>110</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L9" s="1">
-        <f>COUNTIF(B$3:B$139,K9)</f>
+        <f>COUNTIF(B$3:B$136,K9)</f>
         <v>22</v>
       </c>
       <c r="M9" s="1">
-        <f>SUMIF(B$3:B$139,K9,E$3:E$139)</f>
+        <f>SUMIF(B$3:B$136,K9,E$3:E$136)</f>
         <v>6</v>
       </c>
       <c r="N9" s="1">
         <f>SUMIF(B$3:B142,K9,F$3:F142)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O9" s="1">
         <f>SUMIF(B$3:B142,K9,G$3:G142)</f>
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1638,7 +1635,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C10" s="1">
         <v>2016</v>
@@ -1665,11 +1662,11 @@
         <v>56</v>
       </c>
       <c r="L10" s="1">
-        <f>COUNTIF(B$3:B$139,K10)</f>
+        <f>COUNTIF(B$3:B$136,K10)</f>
         <v>3</v>
       </c>
       <c r="M10" s="1">
-        <f>SUMIF(B$3:B$139,K10,E$3:E$139)</f>
+        <f>SUMIF(B$3:B$136,K10,E$3:E$136)</f>
         <v>6</v>
       </c>
       <c r="N10" s="1">
@@ -1686,7 +1683,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C11" s="1">
         <v>2016</v>
@@ -1713,11 +1710,11 @@
         <v>61</v>
       </c>
       <c r="L11" s="1">
-        <f>COUNTIF(B$3:B$139,K11)</f>
-        <v>0</v>
+        <f>COUNTIF(B$3:B$136,K11)</f>
+        <v>2</v>
       </c>
       <c r="M11" s="1">
-        <f>SUMIF(B$3:B$139,K11,E$3:E$139)</f>
+        <f>SUMIF(B$3:B$136,K11,E$3:E$136)</f>
         <v>0</v>
       </c>
       <c r="N11" s="1">
@@ -1734,7 +1731,7 @@
         <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C12" s="1">
         <v>2016</v>
@@ -1761,11 +1758,11 @@
         <v>51</v>
       </c>
       <c r="L12" s="1">
-        <f>COUNTIF(B$3:B$139,K12)</f>
-        <v>1</v>
+        <f>COUNTIF(B$3:B$136,K12)</f>
+        <v>2</v>
       </c>
       <c r="M12" s="1">
-        <f>SUMIF(B$3:B$139,K12,E$3:E$139)</f>
+        <f>SUMIF(B$3:B$136,K12,E$3:E$136)</f>
         <v>1</v>
       </c>
       <c r="N12" s="1">
@@ -1774,7 +1771,7 @@
       </c>
       <c r="O12" s="1">
         <f>SUMIF(B$3:B145,K12,G$3:G145)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1782,7 +1779,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C13" s="1">
         <v>2016</v>
@@ -1800,18 +1797,18 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C14" s="1">
         <v>2016</v>
@@ -1820,19 +1817,19 @@
         <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1842,7 +1839,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C15" s="1">
         <v>2016</v>
@@ -1851,7 +1848,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1860,23 +1857,23 @@
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C16" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -1891,23 +1888,23 @@
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C17" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -1922,26 +1919,26 @@
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C18" s="1">
         <v>2018</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1953,26 +1950,26 @@
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C19" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -1980,30 +1977,28 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C20" s="1">
         <v>2019</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -2012,32 +2007,32 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C21" s="1">
         <v>2019</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2046,29 +2041,29 @@
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C22" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2077,29 +2072,29 @@
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C23" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2108,26 +2103,26 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C24" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -2139,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -2152,22 +2147,22 @@
         <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C25" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>125</v>
@@ -2180,10 +2175,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>251</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C26" s="1">
         <v>2021</v>
@@ -2192,38 +2187,38 @@
         <v>63</v>
       </c>
       <c r="E26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>125</v>
+        <v>254</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C27" s="1">
         <v>2020</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2232,26 +2227,26 @@
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C28" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -2263,29 +2258,29 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C29" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2294,26 +2289,26 @@
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="C30" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -2322,29 +2317,29 @@
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C31" s="1">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>254</v>
+        <v>53</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -2356,29 +2351,29 @@
         <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C32" s="1">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2387,26 +2382,26 @@
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="C33" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2415,32 +2410,32 @@
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C34" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2449,58 +2444,56 @@
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C35" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C36" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1">
         <v>0</v>
       </c>
@@ -2511,29 +2504,29 @@
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C37" s="1">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2542,41 +2535,41 @@
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C38" s="1">
         <v>2020</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>121</v>
+        <v>255</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>120</v>
+        <v>257</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -2586,12 +2579,14 @@
         <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C39" s="1">
         <v>2021</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E39" s="1">
         <v>0</v>
       </c>
@@ -2612,13 +2607,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C40" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>12</v>
@@ -2633,26 +2628,26 @@
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C41" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -2664,54 +2659,54 @@
         <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C42" s="1">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C43" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>12</v>
@@ -2726,88 +2721,88 @@
         <v>0</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C44" s="1">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C45" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E45" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C46" s="1">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -2819,23 +2814,23 @@
         <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C47" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>4</v>
@@ -2844,60 +2839,60 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C48" s="1">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E48" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C49" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>4</v>
@@ -2909,29 +2904,29 @@
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C50" s="1">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -2940,26 +2935,26 @@
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C51" s="1">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>4</v>
@@ -2971,29 +2966,29 @@
         <v>0</v>
       </c>
       <c r="G51" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C52" s="1">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -3002,29 +2997,29 @@
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>417</v>
+        <v>2</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C53" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -3046,10 +3041,10 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C54" s="1">
         <v>2016</v>
@@ -3064,29 +3059,29 @@
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C55" s="1">
         <v>2016</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -3095,29 +3090,29 @@
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C56" s="1">
         <v>2016</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -3126,60 +3121,58 @@
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C57" s="1">
         <v>2016</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C58" s="1">
         <v>2016</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -3191,20 +3184,20 @@
         <v>0</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C59" s="1">
         <v>2016</v>
@@ -3219,55 +3212,57 @@
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C60" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>2017</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E60" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C61" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>12</v>
@@ -3282,23 +3277,23 @@
         <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C62" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>12</v>
@@ -3307,29 +3302,29 @@
         <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C63" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>4</v>
@@ -3341,54 +3336,54 @@
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C64" s="1">
         <v>2017</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C65" s="1">
         <v>2017</v>
@@ -3400,32 +3395,32 @@
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C66" s="1">
         <v>2017</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
@@ -3437,20 +3432,20 @@
         <v>0</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C67" s="1">
         <v>2017</v>
@@ -3465,23 +3460,23 @@
         <v>0</v>
       </c>
       <c r="G67" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C68" s="1">
         <v>2017</v>
@@ -3499,20 +3494,20 @@
         <v>0</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C69" s="1">
         <v>2017</v>
@@ -3524,32 +3519,32 @@
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C70" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -3561,27 +3556,25 @@
         <v>0</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C71" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="D71" s="1"/>
       <c r="E71" s="1">
         <v>0</v>
       </c>
@@ -3589,60 +3582,60 @@
         <v>0</v>
       </c>
       <c r="G71" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C72" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C73" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -3654,23 +3647,23 @@
         <v>0</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C74" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>4</v>
@@ -3682,29 +3675,29 @@
         <v>0</v>
       </c>
       <c r="G74" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C75" s="1">
         <v>2018</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -3713,28 +3706,30 @@
         <v>0</v>
       </c>
       <c r="G75" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>231</v>
+        <v>58</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C76" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D76" s="1"/>
+        <v>2019</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E76" s="1">
         <v>0</v>
       </c>
@@ -3745,57 +3740,57 @@
         <v>0</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>249</v>
+        <v>112</v>
       </c>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C77" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" s="1">
         <v>0</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C78" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E78" s="1">
         <v>0</v>
@@ -3807,60 +3802,58 @@
         <v>0</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C79" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="1">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E79" s="1"/>
       <c r="F79" s="1">
         <v>0</v>
       </c>
       <c r="G79" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>229</v>
+        <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C80" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="E80" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -3869,23 +3862,23 @@
         <v>0</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C81" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>4</v>
@@ -3897,23 +3890,23 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C82" s="1">
         <v>2019</v>
@@ -3925,26 +3918,26 @@
         <v>0</v>
       </c>
       <c r="F82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="1">
         <v>0</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C83" s="1">
         <v>2019</v>
@@ -3962,26 +3955,26 @@
         <v>0</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C84" s="1">
         <v>2019</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E84" s="1">
         <v>0</v>
@@ -3993,57 +3986,57 @@
         <v>0</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C85" s="1">
         <v>2019</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E85" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="1">
         <v>0</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C86" s="1">
         <v>2019</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>232</v>
+        <v>4</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -4055,26 +4048,26 @@
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C87" s="1">
         <v>2019</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
@@ -4083,60 +4076,60 @@
         <v>0</v>
       </c>
       <c r="G87" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C88" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>4</v>
+        <v>231</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
       </c>
       <c r="F88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="1">
         <v>0</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C89" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -4148,26 +4141,26 @@
         <v>0</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C90" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -4179,85 +4172,85 @@
         <v>0</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C91" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="E91" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F91" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G91" s="1">
         <v>0</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C92" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
       </c>
       <c r="F92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" s="1">
         <v>0</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C93" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>4</v>
@@ -4272,26 +4265,26 @@
         <v>0</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C94" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -4303,26 +4296,26 @@
         <v>0</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C95" s="1">
         <v>2020</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -4334,26 +4327,26 @@
         <v>0</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C96" s="1">
         <v>2020</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -4365,26 +4358,26 @@
         <v>0</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C97" s="1">
         <v>2020</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -4396,26 +4389,26 @@
         <v>0</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C98" s="1">
         <v>2020</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -4427,26 +4420,26 @@
         <v>0</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C99" s="1">
         <v>2020</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
@@ -4458,26 +4451,26 @@
         <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C100" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="E100" s="1">
         <v>0</v>
@@ -4486,26 +4479,26 @@
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C101" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>4</v>
@@ -4520,26 +4513,26 @@
         <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C102" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -4548,29 +4541,29 @@
         <v>0</v>
       </c>
       <c r="G102" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C103" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -4582,26 +4575,26 @@
         <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C104" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E104" s="1">
         <v>0</v>
@@ -4613,26 +4606,26 @@
         <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C105" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -4644,26 +4637,26 @@
         <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="C106" s="1">
         <v>2020</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="E106" s="1">
         <v>0</v>
@@ -4672,91 +4665,91 @@
         <v>0</v>
       </c>
       <c r="G106" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C107" s="1">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="E107" s="1">
         <v>0</v>
       </c>
       <c r="F107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C108" s="1">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E108" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F108" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G108" s="1">
         <v>0</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>251</v>
+        <v>114</v>
       </c>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C109" s="1">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -4765,29 +4758,29 @@
         <v>0</v>
       </c>
       <c r="G109" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C110" s="1">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -4799,26 +4792,26 @@
         <v>0</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C111" s="1">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4827,32 +4820,32 @@
         <v>0</v>
       </c>
       <c r="G111" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C112" s="1">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c r="E112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -4861,26 +4854,26 @@
         <v>0</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="C113" s="1">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -4889,91 +4882,89 @@
         <v>0</v>
       </c>
       <c r="G113" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C114" s="1">
-        <v>2012</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>2017</v>
+      </c>
+      <c r="D114" s="1"/>
       <c r="E114" s="1">
         <v>0</v>
       </c>
       <c r="F114" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G114" s="1">
         <v>0</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C115" s="1">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E115" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F115" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G115" s="1">
         <v>0</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C116" s="1">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E116" s="1">
         <v>0</v>
@@ -4995,13 +4986,13 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C117" s="1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>12</v>
@@ -5016,60 +5007,60 @@
         <v>0</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C118" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E118" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F118" s="1">
         <v>0</v>
       </c>
       <c r="G118" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>209</v>
+        <v>107</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C119" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
@@ -5078,29 +5069,29 @@
         <v>0</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C120" s="1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="E120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" s="1">
         <v>0</v>
@@ -5109,25 +5100,27 @@
         <v>0</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C121" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D121" s="1"/>
+        <v>2020</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="E121" s="1">
         <v>0</v>
       </c>
@@ -5135,29 +5128,29 @@
         <v>0</v>
       </c>
       <c r="G121" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C122" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
@@ -5169,23 +5162,23 @@
         <v>0</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C123" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>8</v>
@@ -5200,60 +5193,58 @@
         <v>0</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C124" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="D124" s="1"/>
       <c r="E124" s="1">
         <v>0</v>
       </c>
       <c r="F124" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G124" s="1">
         <v>0</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C125" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E125" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -5262,27 +5253,25 @@
         <v>0</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C126" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="D126" s="1"/>
       <c r="E126" s="1">
         <v>0</v>
       </c>
@@ -5293,57 +5282,57 @@
         <v>0</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C127" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E127" s="1">
-        <v>1</v>
-      </c>
-      <c r="F127" s="1">
-        <v>0</v>
-      </c>
-      <c r="G127" s="1">
-        <v>0</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C128" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>239</v>
+        <v>94</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -5352,32 +5341,32 @@
         <v>0</v>
       </c>
       <c r="G128" s="1">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="C129" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="E129" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F129" s="1">
         <v>0</v>
@@ -5386,56 +5375,58 @@
         <v>0</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="C130" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E130" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F130" s="1">
         <v>0</v>
       </c>
       <c r="G130" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="C131" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D131" s="1"/>
+        <v>2019</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E131" s="1">
         <v>0</v>
       </c>
@@ -5446,56 +5437,58 @@
         <v>0</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="C132" s="1">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="C133" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D133" s="1"/>
+        <v>2020</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E133" s="1">
         <v>0</v>
       </c>
@@ -5506,23 +5499,23 @@
         <v>0</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="C134" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>12</v>
@@ -5534,29 +5527,29 @@
         <v>0</v>
       </c>
       <c r="G134" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="C135" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E135" s="1">
         <v>0</v>
@@ -5565,235 +5558,48 @@
         <v>0</v>
       </c>
       <c r="G135" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="C136" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E136" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" s="1">
         <v>0</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C137" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" s="1">
-        <v>4</v>
-      </c>
-      <c r="F137" s="1">
-        <v>0</v>
-      </c>
-      <c r="G137" s="1">
-        <v>0</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C138" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" s="1">
-        <v>0</v>
-      </c>
-      <c r="F138" s="1">
-        <v>0</v>
-      </c>
-      <c r="G138" s="1">
-        <v>0</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C139" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E139" s="1">
-        <v>1</v>
-      </c>
-      <c r="F139" s="1">
-        <v>1</v>
-      </c>
-      <c r="G139" s="1">
-        <v>17</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C140" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" s="1">
-        <v>0</v>
-      </c>
-      <c r="F140" s="1">
-        <v>0</v>
-      </c>
-      <c r="G140" s="1">
-        <v>0</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I140" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C141" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" s="1">
-        <v>0</v>
-      </c>
-      <c r="F141" s="1">
-        <v>0</v>
-      </c>
-      <c r="G141" s="1">
-        <v>5</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C142" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E142" s="1">
-        <v>0</v>
-      </c>
-      <c r="F142" s="1">
-        <v>0</v>
-      </c>
-      <c r="G142" s="1">
-        <v>0</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:I136"/>
   <sortState ref="A3:I139">
     <sortCondition ref="B91"/>
   </sortState>

--- a/conflit_faune.xlsx
+++ b/conflit_faune.xlsx
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+      <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5599,7 +5599,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I136"/>
   <sortState ref="A3:I139">
     <sortCondition ref="B91"/>
   </sortState>

--- a/conflit_faune.xlsx
+++ b/conflit_faune.xlsx
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G3"/>
+      <selection activeCell="E3" sqref="E3:G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9692,14 +9692,1483 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I119"/>
+      <selection sqref="A1:C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/conflit_faune.xlsx
+++ b/conflit_faune.xlsx
@@ -1171,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>

--- a/conflit_faune.xlsx
+++ b/conflit_faune.xlsx
@@ -877,6 +877,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,9 +887,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,22 +1193,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1268,13 +1268,13 @@
       <c r="D3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1287,11 +1287,11 @@
         <v>212</v>
       </c>
       <c r="L3" s="1">
-        <f>COUNTIF(B$3:B$136,K3)</f>
+        <f t="shared" ref="L3:L12" si="0">COUNTIF(B$3:B$136,K3)</f>
         <v>27</v>
       </c>
       <c r="M3" s="1">
-        <f>SUMIF(B$3:B$136,K3,E$3:E$136)</f>
+        <f t="shared" ref="M3:M12" si="1">SUMIF(B$3:B$136,K3,E$3:E$136)</f>
         <v>13</v>
       </c>
       <c r="N3" s="1">
@@ -1316,13 +1316,13 @@
       <c r="D4" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1335,11 +1335,11 @@
         <v>57</v>
       </c>
       <c r="L4" s="1">
-        <f>COUNTIF(B$3:B$136,K4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M4" s="1">
-        <f>SUMIF(B$3:B$136,K4,E$3:E$136)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N4" s="1">
@@ -1364,13 +1364,13 @@
       <c r="D5" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
         <v>2</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1383,11 +1383,11 @@
         <v>206</v>
       </c>
       <c r="L5" s="1">
-        <f>COUNTIF(B$3:B$136,K5)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M5" s="1">
-        <f>SUMIF(B$3:B$136,K5,E$3:E$136)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N5" s="1">
@@ -1412,13 +1412,13 @@
       <c r="D6" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1431,11 +1431,11 @@
         <v>11</v>
       </c>
       <c r="L6" s="1">
-        <f>COUNTIF(B$3:B$136,K6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <f>SUMIF(B$3:B$136,K6,E$3:E$136)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N6" s="1">
@@ -1460,13 +1460,13 @@
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1479,11 +1479,11 @@
         <v>204</v>
       </c>
       <c r="L7" s="1">
-        <f>COUNTIF(B$3:B$136,K7)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="M7" s="1">
-        <f>SUMIF(B$3:B$136,K7,E$3:E$136)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="N7" s="1">
@@ -1508,13 +1508,13 @@
       <c r="D8" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
         <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1527,11 +1527,11 @@
         <v>65</v>
       </c>
       <c r="L8" s="1">
-        <f>COUNTIF(B$3:B$136,K8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M8" s="1">
-        <f>SUMIF(B$3:B$136,K8,E$3:E$136)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="1">
@@ -1556,13 +1556,13 @@
       <c r="D9" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -1575,11 +1575,11 @@
         <v>205</v>
       </c>
       <c r="L9" s="1">
-        <f>COUNTIF(B$3:B$136,K9)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="M9" s="1">
-        <f>SUMIF(B$3:B$136,K9,E$3:E$136)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N9" s="1">
@@ -1604,13 +1604,13 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1623,11 +1623,11 @@
         <v>51</v>
       </c>
       <c r="L10" s="1">
-        <f>COUNTIF(B$3:B$136,K10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M10" s="1">
-        <f>SUMIF(B$3:B$136,K10,E$3:E$136)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N10" s="1">
@@ -1652,13 +1652,13 @@
       <c r="D11" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1671,11 +1671,11 @@
         <v>56</v>
       </c>
       <c r="L11" s="1">
-        <f>COUNTIF(B$3:B$136,K11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M11" s="1">
-        <f>SUMIF(B$3:B$136,K11,E$3:E$136)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="1">
@@ -1700,13 +1700,13 @@
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1719,11 +1719,11 @@
         <v>47</v>
       </c>
       <c r="L12" s="1">
-        <f>COUNTIF(B$3:B$136,K12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M12" s="1">
-        <f>SUMIF(B$3:B$136,K12,E$3:E$136)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N12" s="1">
@@ -1748,13 +1748,13 @@
       <c r="D13" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1777,13 +1777,13 @@
       <c r="D14" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>3</v>
       </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1808,13 +1808,13 @@
       <c r="D15" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -1839,13 +1839,13 @@
       <c r="D16" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1870,13 +1870,13 @@
       <c r="D17" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1901,13 +1901,13 @@
       <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1932,13 +1932,13 @@
       <c r="D19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1963,13 +1963,13 @@
       <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1994,13 +1994,13 @@
       <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -2025,13 +2025,13 @@
       <c r="D22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="6">
         <v>2</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -2056,13 +2056,13 @@
       <c r="D23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -2087,13 +2087,13 @@
       <c r="D24" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -2118,13 +2118,13 @@
       <c r="D25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="6">
         <v>3</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="6">
         <v>1</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <v>3</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -2149,13 +2149,13 @@
       <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="6">
         <v>2</v>
       </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -2180,13 +2180,13 @@
       <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -2211,13 +2211,13 @@
       <c r="D28" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E28" s="9">
-        <v>0</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -2242,13 +2242,13 @@
       <c r="D29" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <v>1</v>
       </c>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -2273,13 +2273,13 @@
       <c r="D30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="9">
-        <v>0</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -2304,13 +2304,13 @@
       <c r="D31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
         <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -2335,13 +2335,13 @@
       <c r="D32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="9">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9">
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -2366,13 +2366,13 @@
       <c r="D33" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -2397,13 +2397,13 @@
       <c r="D34" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="6">
         <v>3</v>
       </c>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -2428,13 +2428,13 @@
       <c r="D35" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-      <c r="F35" s="9">
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
         <v>1</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="6">
         <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -2459,13 +2459,13 @@
       <c r="D36" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-      <c r="F36" s="9">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9">
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -2490,13 +2490,13 @@
       <c r="D37" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E37" s="9">
-        <v>0</v>
-      </c>
-      <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9">
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -2521,13 +2521,13 @@
       <c r="D38" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E38" s="9">
-        <v>0</v>
-      </c>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
         <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -2552,13 +2552,13 @@
       <c r="D39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
         <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -2583,13 +2583,13 @@
       <c r="D40" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E40" s="9">
-        <v>0</v>
-      </c>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9">
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -2614,13 +2614,13 @@
       <c r="D41" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E41" s="9">
-        <v>0</v>
-      </c>
-      <c r="F41" s="9">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9">
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
         <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -2645,13 +2645,13 @@
       <c r="D42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="6">
         <v>2</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="6">
         <v>1</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="6">
         <v>200</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -2676,13 +2676,13 @@
       <c r="D43" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E43" s="9">
-        <v>0</v>
-      </c>
-      <c r="F43" s="9">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
         <v>0</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -2707,13 +2707,13 @@
       <c r="D44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="9">
-        <v>0</v>
-      </c>
-      <c r="F44" s="9">
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
         <v>1</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="6">
         <v>14</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -2738,13 +2738,13 @@
       <c r="D45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="9">
-        <v>0</v>
-      </c>
-      <c r="F45" s="9">
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6">
         <v>3</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -2769,13 +2769,13 @@
       <c r="D46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="9">
-        <v>0</v>
-      </c>
-      <c r="F46" s="9">
-        <v>0</v>
-      </c>
-      <c r="G46" s="9">
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
         <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -2800,13 +2800,13 @@
       <c r="D47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="9">
-        <v>0</v>
-      </c>
-      <c r="F47" s="9">
-        <v>0</v>
-      </c>
-      <c r="G47" s="9">
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
         <v>115</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -2831,13 +2831,13 @@
       <c r="D48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="9">
-        <v>0</v>
-      </c>
-      <c r="F48" s="9">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9">
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
         <v>11</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -2862,13 +2862,13 @@
       <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="9">
-        <v>0</v>
-      </c>
-      <c r="F49" s="9">
-        <v>0</v>
-      </c>
-      <c r="G49" s="9">
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
         <v>417</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -2893,13 +2893,13 @@
       <c r="D50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="9">
-        <v>0</v>
-      </c>
-      <c r="F50" s="9">
-        <v>0</v>
-      </c>
-      <c r="G50" s="9">
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6">
         <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -2924,13 +2924,13 @@
       <c r="D51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="9">
-        <v>0</v>
-      </c>
-      <c r="F51" s="9">
-        <v>0</v>
-      </c>
-      <c r="G51" s="9">
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
         <v>24</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -2955,13 +2955,13 @@
       <c r="D52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="9">
-        <v>0</v>
-      </c>
-      <c r="F52" s="9">
-        <v>0</v>
-      </c>
-      <c r="G52" s="9">
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
         <v>2</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -2986,13 +2986,13 @@
       <c r="D53" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E53" s="9">
-        <v>0</v>
-      </c>
-      <c r="F53" s="9">
-        <v>0</v>
-      </c>
-      <c r="G53" s="9">
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
         <v>0</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -3017,13 +3017,13 @@
       <c r="D54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="9">
-        <v>0</v>
-      </c>
-      <c r="F54" s="9">
-        <v>0</v>
-      </c>
-      <c r="G54" s="9">
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6">
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -3048,13 +3048,13 @@
       <c r="D55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="9">
-        <v>0</v>
-      </c>
-      <c r="F55" s="9">
-        <v>0</v>
-      </c>
-      <c r="G55" s="9">
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6">
         <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -3079,13 +3079,13 @@
       <c r="D56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="9">
-        <v>0</v>
-      </c>
-      <c r="F56" s="9">
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
         <v>8</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -3110,13 +3110,13 @@
       <c r="D57" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="6">
         <v>5</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="6">
         <v>1</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="6">
         <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -3141,13 +3141,13 @@
       <c r="D58" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E58" s="9">
-        <v>0</v>
-      </c>
-      <c r="F58" s="9">
-        <v>0</v>
-      </c>
-      <c r="G58" s="9">
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6">
         <v>0</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -3172,13 +3172,13 @@
       <c r="D59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="9">
-        <v>0</v>
-      </c>
-      <c r="F59" s="9">
-        <v>0</v>
-      </c>
-      <c r="G59" s="9">
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
         <v>39</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -3203,13 +3203,13 @@
       <c r="D60" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E60" s="9">
-        <v>0</v>
-      </c>
-      <c r="F60" s="9">
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6">
         <v>2</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="6">
         <v>0</v>
       </c>
       <c r="H60" s="1" t="s">
@@ -3234,13 +3234,13 @@
       <c r="D61" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E61" s="9">
-        <v>0</v>
-      </c>
-      <c r="F61" s="9">
-        <v>0</v>
-      </c>
-      <c r="G61" s="9">
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
         <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -3265,13 +3265,13 @@
       <c r="D62" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E62" s="9">
-        <v>0</v>
-      </c>
-      <c r="F62" s="9">
-        <v>0</v>
-      </c>
-      <c r="G62" s="9">
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6">
         <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
@@ -3296,13 +3296,13 @@
       <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="9">
-        <v>0</v>
-      </c>
-      <c r="F63" s="9">
-        <v>0</v>
-      </c>
-      <c r="G63" s="9">
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
         <v>0</v>
       </c>
       <c r="H63" s="1" t="s">
@@ -3327,13 +3327,13 @@
       <c r="D64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="9">
-        <v>0</v>
-      </c>
-      <c r="G64" s="9">
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6">
         <v>0</v>
       </c>
       <c r="H64" s="1" t="s">
@@ -3358,13 +3358,13 @@
       <c r="D65" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6">
         <v>1</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="6">
         <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -3389,13 +3389,13 @@
       <c r="D66" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="9">
-        <v>0</v>
-      </c>
-      <c r="F66" s="9">
-        <v>0</v>
-      </c>
-      <c r="G66" s="9">
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6">
         <v>0</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -3420,13 +3420,13 @@
       <c r="D67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="9">
-        <v>0</v>
-      </c>
-      <c r="F67" s="9">
-        <v>0</v>
-      </c>
-      <c r="G67" s="9">
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0</v>
+      </c>
+      <c r="G67" s="6">
         <v>18</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -3451,13 +3451,13 @@
       <c r="D68" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="9">
-        <v>0</v>
-      </c>
-      <c r="F68" s="9">
-        <v>0</v>
-      </c>
-      <c r="G68" s="9">
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+      <c r="G68" s="6">
         <v>0</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -3482,13 +3482,13 @@
       <c r="D69" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E69" s="9">
-        <v>0</v>
-      </c>
-      <c r="F69" s="9">
-        <v>0</v>
-      </c>
-      <c r="G69" s="9">
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0</v>
+      </c>
+      <c r="G69" s="6">
         <v>0</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -3513,13 +3513,13 @@
       <c r="D70" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E70" s="9">
-        <v>0</v>
-      </c>
-      <c r="F70" s="9">
-        <v>0</v>
-      </c>
-      <c r="G70" s="9">
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0</v>
+      </c>
+      <c r="G70" s="6">
         <v>0</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -3544,13 +3544,13 @@
       <c r="D71" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E71" s="9">
-        <v>0</v>
-      </c>
-      <c r="F71" s="9">
-        <v>0</v>
-      </c>
-      <c r="G71" s="9">
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0</v>
+      </c>
+      <c r="G71" s="6">
         <v>0</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -3575,13 +3575,13 @@
       <c r="D72" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E72" s="9">
-        <v>0</v>
-      </c>
-      <c r="F72" s="9">
+      <c r="E72" s="6">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6">
         <v>1</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="6">
         <v>0</v>
       </c>
       <c r="H72" s="1" t="s">
@@ -3606,13 +3606,13 @@
       <c r="D73" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="9">
-        <v>0</v>
-      </c>
-      <c r="F73" s="9">
-        <v>0</v>
-      </c>
-      <c r="G73" s="9">
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="6">
+        <v>0</v>
+      </c>
+      <c r="G73" s="6">
         <v>0</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -3637,13 +3637,13 @@
       <c r="D74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="9">
-        <v>0</v>
-      </c>
-      <c r="F74" s="9">
-        <v>0</v>
-      </c>
-      <c r="G74" s="9">
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0</v>
+      </c>
+      <c r="G74" s="6">
         <v>9</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -3668,13 +3668,13 @@
       <c r="D75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="9">
-        <v>0</v>
-      </c>
-      <c r="F75" s="9">
-        <v>0</v>
-      </c>
-      <c r="G75" s="9">
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0</v>
+      </c>
+      <c r="G75" s="6">
         <v>7</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -3699,13 +3699,13 @@
       <c r="D76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="9">
-        <v>0</v>
-      </c>
-      <c r="F76" s="9">
-        <v>0</v>
-      </c>
-      <c r="G76" s="9">
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6">
         <v>0</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -3730,13 +3730,13 @@
       <c r="D77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="9">
-        <v>0</v>
-      </c>
-      <c r="F77" s="9">
-        <v>0</v>
-      </c>
-      <c r="G77" s="9">
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="6">
+        <v>0</v>
+      </c>
+      <c r="G77" s="6">
         <v>0</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -3761,13 +3761,13 @@
       <c r="D78" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E78" s="9">
-        <v>0</v>
-      </c>
-      <c r="F78" s="9">
-        <v>0</v>
-      </c>
-      <c r="G78" s="9">
+      <c r="E78" s="6">
+        <v>0</v>
+      </c>
+      <c r="F78" s="6">
+        <v>0</v>
+      </c>
+      <c r="G78" s="6">
         <v>0</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -3792,13 +3792,13 @@
       <c r="D79" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E79" s="9">
-        <v>0</v>
-      </c>
-      <c r="F79" s="9">
-        <v>0</v>
-      </c>
-      <c r="G79" s="9">
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0</v>
+      </c>
+      <c r="G79" s="6">
         <v>0</v>
       </c>
       <c r="H79" s="1" t="s">
@@ -3823,13 +3823,13 @@
       <c r="D80" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E80" s="9">
-        <v>0</v>
-      </c>
-      <c r="F80" s="9">
-        <v>0</v>
-      </c>
-      <c r="G80" s="9">
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="6">
+        <v>0</v>
+      </c>
+      <c r="G80" s="6">
         <v>0</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -3854,13 +3854,13 @@
       <c r="D81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="9">
-        <v>0</v>
-      </c>
-      <c r="F81" s="9">
-        <v>0</v>
-      </c>
-      <c r="G81" s="9">
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="6">
+        <v>0</v>
+      </c>
+      <c r="G81" s="6">
         <v>0</v>
       </c>
       <c r="H81" s="1" t="s">
@@ -3885,13 +3885,13 @@
       <c r="D82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="9">
-        <v>0</v>
-      </c>
-      <c r="F82" s="9">
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="6">
         <v>1</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="6">
         <v>0</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -3916,13 +3916,13 @@
       <c r="D83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="9">
-        <v>0</v>
-      </c>
-      <c r="F83" s="9">
-        <v>0</v>
-      </c>
-      <c r="G83" s="9">
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="6">
+        <v>0</v>
+      </c>
+      <c r="G83" s="6">
         <v>0</v>
       </c>
       <c r="H83" s="1" t="s">
@@ -3947,13 +3947,13 @@
       <c r="D84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="9">
-        <v>0</v>
-      </c>
-      <c r="F84" s="9">
-        <v>0</v>
-      </c>
-      <c r="G84" s="9">
+      <c r="E84" s="6">
+        <v>0</v>
+      </c>
+      <c r="F84" s="6">
+        <v>0</v>
+      </c>
+      <c r="G84" s="6">
         <v>0</v>
       </c>
       <c r="H84" s="1" t="s">
@@ -3978,13 +3978,13 @@
       <c r="D85" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="9">
-        <v>0</v>
-      </c>
-      <c r="F85" s="9">
+      <c r="E85" s="6">
+        <v>0</v>
+      </c>
+      <c r="F85" s="6">
         <v>1</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="6">
         <v>0</v>
       </c>
       <c r="H85" s="1" t="s">
@@ -4009,13 +4009,13 @@
       <c r="D86" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E86" s="9">
-        <v>0</v>
-      </c>
-      <c r="F86" s="9">
-        <v>0</v>
-      </c>
-      <c r="G86" s="9">
+      <c r="E86" s="6">
+        <v>0</v>
+      </c>
+      <c r="F86" s="6">
+        <v>0</v>
+      </c>
+      <c r="G86" s="6">
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
@@ -4040,13 +4040,13 @@
       <c r="D87" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E87" s="9">
-        <v>0</v>
-      </c>
-      <c r="F87" s="9">
-        <v>0</v>
-      </c>
-      <c r="G87" s="9">
+      <c r="E87" s="6">
+        <v>0</v>
+      </c>
+      <c r="F87" s="6">
+        <v>0</v>
+      </c>
+      <c r="G87" s="6">
         <v>0</v>
       </c>
       <c r="H87" s="1" t="s">
@@ -4071,13 +4071,13 @@
       <c r="D88" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E88" s="9">
-        <v>0</v>
-      </c>
-      <c r="F88" s="9">
-        <v>0</v>
-      </c>
-      <c r="G88" s="9">
+      <c r="E88" s="6">
+        <v>0</v>
+      </c>
+      <c r="F88" s="6">
+        <v>0</v>
+      </c>
+      <c r="G88" s="6">
         <v>0</v>
       </c>
       <c r="H88" s="1" t="s">
@@ -4102,13 +4102,13 @@
       <c r="D89" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E89" s="9">
-        <v>0</v>
-      </c>
-      <c r="F89" s="9">
-        <v>0</v>
-      </c>
-      <c r="G89" s="9">
+      <c r="E89" s="6">
+        <v>0</v>
+      </c>
+      <c r="F89" s="6">
+        <v>0</v>
+      </c>
+      <c r="G89" s="6">
         <v>0</v>
       </c>
       <c r="H89" s="1" t="s">
@@ -4133,13 +4133,13 @@
       <c r="D90" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E90" s="9">
-        <v>0</v>
-      </c>
-      <c r="F90" s="9">
-        <v>0</v>
-      </c>
-      <c r="G90" s="9">
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
+      <c r="F90" s="6">
+        <v>0</v>
+      </c>
+      <c r="G90" s="6">
         <v>0</v>
       </c>
       <c r="H90" s="1" t="s">
@@ -4164,13 +4164,13 @@
       <c r="D91" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E91" s="9">
-        <v>0</v>
-      </c>
-      <c r="F91" s="9">
-        <v>0</v>
-      </c>
-      <c r="G91" s="9">
+      <c r="E91" s="6">
+        <v>0</v>
+      </c>
+      <c r="F91" s="6">
+        <v>0</v>
+      </c>
+      <c r="G91" s="6">
         <v>0</v>
       </c>
       <c r="H91" s="1" t="s">
@@ -4195,13 +4195,13 @@
       <c r="D92" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E92" s="9">
-        <v>0</v>
-      </c>
-      <c r="F92" s="9">
-        <v>0</v>
-      </c>
-      <c r="G92" s="9">
+      <c r="E92" s="6">
+        <v>0</v>
+      </c>
+      <c r="F92" s="6">
+        <v>0</v>
+      </c>
+      <c r="G92" s="6">
         <v>0</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -4226,13 +4226,13 @@
       <c r="D93" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="9">
-        <v>0</v>
-      </c>
-      <c r="F93" s="9">
-        <v>0</v>
-      </c>
-      <c r="G93" s="9">
+      <c r="E93" s="6">
+        <v>0</v>
+      </c>
+      <c r="F93" s="6">
+        <v>0</v>
+      </c>
+      <c r="G93" s="6">
         <v>0</v>
       </c>
       <c r="H93" s="1" t="s">
@@ -4257,13 +4257,13 @@
       <c r="D94" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="9">
-        <v>0</v>
-      </c>
-      <c r="F94" s="9">
-        <v>0</v>
-      </c>
-      <c r="G94" s="9">
+      <c r="E94" s="6">
+        <v>0</v>
+      </c>
+      <c r="F94" s="6">
+        <v>0</v>
+      </c>
+      <c r="G94" s="6">
         <v>0</v>
       </c>
       <c r="H94" s="1" t="s">
@@ -4288,13 +4288,13 @@
       <c r="D95" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="9">
-        <v>0</v>
-      </c>
-      <c r="F95" s="9">
-        <v>0</v>
-      </c>
-      <c r="G95" s="9">
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="6">
+        <v>0</v>
+      </c>
+      <c r="G95" s="6">
         <v>0</v>
       </c>
       <c r="H95" s="1" t="s">
@@ -4319,13 +4319,13 @@
       <c r="D96" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="9">
-        <v>0</v>
-      </c>
-      <c r="F96" s="9">
-        <v>0</v>
-      </c>
-      <c r="G96" s="9">
+      <c r="E96" s="6">
+        <v>0</v>
+      </c>
+      <c r="F96" s="6">
+        <v>0</v>
+      </c>
+      <c r="G96" s="6">
         <v>0</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -4350,13 +4350,13 @@
       <c r="D97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="9">
-        <v>0</v>
-      </c>
-      <c r="F97" s="9">
-        <v>0</v>
-      </c>
-      <c r="G97" s="9">
+      <c r="E97" s="6">
+        <v>0</v>
+      </c>
+      <c r="F97" s="6">
+        <v>0</v>
+      </c>
+      <c r="G97" s="6">
         <v>0</v>
       </c>
       <c r="H97" s="1" t="s">
@@ -4381,13 +4381,13 @@
       <c r="D98" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="9">
-        <v>0</v>
-      </c>
-      <c r="F98" s="9">
-        <v>0</v>
-      </c>
-      <c r="G98" s="9">
+      <c r="E98" s="6">
+        <v>0</v>
+      </c>
+      <c r="F98" s="6">
+        <v>0</v>
+      </c>
+      <c r="G98" s="6">
         <v>0</v>
       </c>
       <c r="H98" s="1" t="s">
@@ -4412,13 +4412,13 @@
       <c r="D99" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E99" s="9">
-        <v>0</v>
-      </c>
-      <c r="F99" s="9">
-        <v>0</v>
-      </c>
-      <c r="G99" s="9">
+      <c r="E99" s="6">
+        <v>0</v>
+      </c>
+      <c r="F99" s="6">
+        <v>0</v>
+      </c>
+      <c r="G99" s="6">
         <v>0</v>
       </c>
       <c r="H99" s="1" t="s">
@@ -4443,13 +4443,13 @@
       <c r="D100" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E100" s="9">
-        <v>0</v>
-      </c>
-      <c r="F100" s="9">
-        <v>0</v>
-      </c>
-      <c r="G100" s="9">
+      <c r="E100" s="6">
+        <v>0</v>
+      </c>
+      <c r="F100" s="6">
+        <v>0</v>
+      </c>
+      <c r="G100" s="6">
         <v>1</v>
       </c>
       <c r="H100" s="1" t="s">
@@ -4474,13 +4474,13 @@
       <c r="D101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="9">
-        <v>0</v>
-      </c>
-      <c r="F101" s="9">
-        <v>0</v>
-      </c>
-      <c r="G101" s="9">
+      <c r="E101" s="6">
+        <v>0</v>
+      </c>
+      <c r="F101" s="6">
+        <v>0</v>
+      </c>
+      <c r="G101" s="6">
         <v>0</v>
       </c>
       <c r="H101" s="1" t="s">
@@ -4505,13 +4505,13 @@
       <c r="D102" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E102" s="9">
-        <v>0</v>
-      </c>
-      <c r="F102" s="9">
-        <v>0</v>
-      </c>
-      <c r="G102" s="9">
+      <c r="E102" s="6">
+        <v>0</v>
+      </c>
+      <c r="F102" s="6">
+        <v>0</v>
+      </c>
+      <c r="G102" s="6">
         <v>11</v>
       </c>
       <c r="H102" s="1" t="s">
@@ -4536,13 +4536,13 @@
       <c r="D103" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E103" s="9">
-        <v>0</v>
-      </c>
-      <c r="F103" s="9">
-        <v>0</v>
-      </c>
-      <c r="G103" s="9">
+      <c r="E103" s="6">
+        <v>0</v>
+      </c>
+      <c r="F103" s="6">
+        <v>0</v>
+      </c>
+      <c r="G103" s="6">
         <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
@@ -4567,13 +4567,13 @@
       <c r="D104" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E104" s="9">
-        <v>0</v>
-      </c>
-      <c r="F104" s="9">
-        <v>0</v>
-      </c>
-      <c r="G104" s="9">
+      <c r="E104" s="6">
+        <v>0</v>
+      </c>
+      <c r="F104" s="6">
+        <v>0</v>
+      </c>
+      <c r="G104" s="6">
         <v>0</v>
       </c>
       <c r="H104" s="1" t="s">
@@ -4598,13 +4598,13 @@
       <c r="D105" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E105" s="9">
-        <v>0</v>
-      </c>
-      <c r="F105" s="9">
-        <v>0</v>
-      </c>
-      <c r="G105" s="9">
+      <c r="E105" s="6">
+        <v>0</v>
+      </c>
+      <c r="F105" s="6">
+        <v>0</v>
+      </c>
+      <c r="G105" s="6">
         <v>0</v>
       </c>
       <c r="H105" s="1" t="s">
@@ -4629,13 +4629,13 @@
       <c r="D106" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E106" s="9">
-        <v>0</v>
-      </c>
-      <c r="F106" s="9">
-        <v>0</v>
-      </c>
-      <c r="G106" s="9">
+      <c r="E106" s="6">
+        <v>0</v>
+      </c>
+      <c r="F106" s="6">
+        <v>0</v>
+      </c>
+      <c r="G106" s="6">
         <v>2</v>
       </c>
       <c r="H106" s="1" t="s">
@@ -4660,13 +4660,13 @@
       <c r="D107" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E107" s="9">
-        <v>0</v>
-      </c>
-      <c r="F107" s="9">
+      <c r="E107" s="6">
+        <v>0</v>
+      </c>
+      <c r="F107" s="6">
         <v>1</v>
       </c>
-      <c r="G107" s="9">
+      <c r="G107" s="6">
         <v>0</v>
       </c>
       <c r="H107" s="1" t="s">
@@ -4691,13 +4691,13 @@
       <c r="D108" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E108" s="6">
         <v>2</v>
       </c>
-      <c r="F108" s="9">
+      <c r="F108" s="6">
         <v>2</v>
       </c>
-      <c r="G108" s="9">
+      <c r="G108" s="6">
         <v>0</v>
       </c>
       <c r="H108" s="1" t="s">
@@ -4722,13 +4722,13 @@
       <c r="D109" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E109" s="9">
-        <v>0</v>
-      </c>
-      <c r="F109" s="9">
-        <v>0</v>
-      </c>
-      <c r="G109" s="9">
+      <c r="E109" s="6">
+        <v>0</v>
+      </c>
+      <c r="F109" s="6">
+        <v>0</v>
+      </c>
+      <c r="G109" s="6">
         <v>0</v>
       </c>
       <c r="H109" s="1" t="s">
@@ -4753,13 +4753,13 @@
       <c r="D110" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E110" s="9">
-        <v>0</v>
-      </c>
-      <c r="F110" s="9">
-        <v>0</v>
-      </c>
-      <c r="G110" s="9">
+      <c r="E110" s="6">
+        <v>0</v>
+      </c>
+      <c r="F110" s="6">
+        <v>0</v>
+      </c>
+      <c r="G110" s="6">
         <v>0</v>
       </c>
       <c r="H110" s="1" t="s">
@@ -4784,13 +4784,13 @@
       <c r="D111" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E111" s="9">
-        <v>0</v>
-      </c>
-      <c r="F111" s="9">
-        <v>0</v>
-      </c>
-      <c r="G111" s="9">
+      <c r="E111" s="6">
+        <v>0</v>
+      </c>
+      <c r="F111" s="6">
+        <v>0</v>
+      </c>
+      <c r="G111" s="6">
         <v>7</v>
       </c>
       <c r="H111" s="1" t="s">
@@ -4815,13 +4815,13 @@
       <c r="D112" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E112" s="9">
+      <c r="E112" s="6">
         <v>1</v>
       </c>
-      <c r="F112" s="9">
-        <v>0</v>
-      </c>
-      <c r="G112" s="9">
+      <c r="F112" s="6">
+        <v>0</v>
+      </c>
+      <c r="G112" s="6">
         <v>0</v>
       </c>
       <c r="H112" s="1" t="s">
@@ -4846,13 +4846,13 @@
       <c r="D113" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E113" s="9">
-        <v>0</v>
-      </c>
-      <c r="F113" s="9">
-        <v>0</v>
-      </c>
-      <c r="G113" s="9">
+      <c r="E113" s="6">
+        <v>0</v>
+      </c>
+      <c r="F113" s="6">
+        <v>0</v>
+      </c>
+      <c r="G113" s="6">
         <v>0</v>
       </c>
       <c r="H113" s="1" t="s">
@@ -4877,13 +4877,13 @@
       <c r="D114" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E114" s="9">
-        <v>0</v>
-      </c>
-      <c r="F114" s="9">
-        <v>0</v>
-      </c>
-      <c r="G114" s="9">
+      <c r="E114" s="6">
+        <v>0</v>
+      </c>
+      <c r="F114" s="6">
+        <v>0</v>
+      </c>
+      <c r="G114" s="6">
         <v>0</v>
       </c>
       <c r="H114" s="1" t="s">
@@ -4908,13 +4908,13 @@
       <c r="D115" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E115" s="9">
-        <v>0</v>
-      </c>
-      <c r="F115" s="9">
-        <v>0</v>
-      </c>
-      <c r="G115" s="9">
+      <c r="E115" s="6">
+        <v>0</v>
+      </c>
+      <c r="F115" s="6">
+        <v>0</v>
+      </c>
+      <c r="G115" s="6">
         <v>0</v>
       </c>
       <c r="H115" s="1" t="s">
@@ -4939,13 +4939,13 @@
       <c r="D116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E116" s="9">
-        <v>0</v>
-      </c>
-      <c r="F116" s="9">
-        <v>0</v>
-      </c>
-      <c r="G116" s="9">
+      <c r="E116" s="6">
+        <v>0</v>
+      </c>
+      <c r="F116" s="6">
+        <v>0</v>
+      </c>
+      <c r="G116" s="6">
         <v>0</v>
       </c>
       <c r="H116" s="1" t="s">
@@ -4970,13 +4970,13 @@
       <c r="D117" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E117" s="9">
-        <v>0</v>
-      </c>
-      <c r="F117" s="9">
-        <v>0</v>
-      </c>
-      <c r="G117" s="9">
+      <c r="E117" s="6">
+        <v>0</v>
+      </c>
+      <c r="F117" s="6">
+        <v>0</v>
+      </c>
+      <c r="G117" s="6">
         <v>0</v>
       </c>
       <c r="H117" s="1" t="s">
@@ -5001,13 +5001,13 @@
       <c r="D118" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E118" s="9">
+      <c r="E118" s="6">
         <v>2</v>
       </c>
-      <c r="F118" s="9">
-        <v>0</v>
-      </c>
-      <c r="G118" s="9">
+      <c r="F118" s="6">
+        <v>0</v>
+      </c>
+      <c r="G118" s="6">
         <v>0</v>
       </c>
       <c r="H118" s="1" t="s">
@@ -5032,13 +5032,13 @@
       <c r="D119" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="9">
-        <v>0</v>
-      </c>
-      <c r="F119" s="9">
-        <v>0</v>
-      </c>
-      <c r="G119" s="9">
+      <c r="E119" s="6">
+        <v>0</v>
+      </c>
+      <c r="F119" s="6">
+        <v>0</v>
+      </c>
+      <c r="G119" s="6">
         <v>0</v>
       </c>
       <c r="H119" s="1" t="s">
@@ -5063,13 +5063,13 @@
       <c r="D120" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E120" s="9">
+      <c r="E120" s="6">
         <v>1</v>
       </c>
-      <c r="F120" s="9">
-        <v>0</v>
-      </c>
-      <c r="G120" s="9">
+      <c r="F120" s="6">
+        <v>0</v>
+      </c>
+      <c r="G120" s="6">
         <v>0</v>
       </c>
       <c r="H120" s="1" t="s">
@@ -5094,13 +5094,13 @@
       <c r="D121" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E121" s="9">
-        <v>0</v>
-      </c>
-      <c r="F121" s="9">
-        <v>0</v>
-      </c>
-      <c r="G121" s="9">
+      <c r="E121" s="6">
+        <v>0</v>
+      </c>
+      <c r="F121" s="6">
+        <v>0</v>
+      </c>
+      <c r="G121" s="6">
         <v>5</v>
       </c>
       <c r="H121" s="1" t="s">
@@ -5125,13 +5125,13 @@
       <c r="D122" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E122" s="9">
-        <v>0</v>
-      </c>
-      <c r="F122" s="9">
-        <v>0</v>
-      </c>
-      <c r="G122" s="9">
+      <c r="E122" s="6">
+        <v>0</v>
+      </c>
+      <c r="F122" s="6">
+        <v>0</v>
+      </c>
+      <c r="G122" s="6">
         <v>0</v>
       </c>
       <c r="H122" s="1" t="s">
@@ -5156,13 +5156,13 @@
       <c r="D123" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E123" s="9">
-        <v>0</v>
-      </c>
-      <c r="F123" s="9">
-        <v>0</v>
-      </c>
-      <c r="G123" s="9">
+      <c r="E123" s="6">
+        <v>0</v>
+      </c>
+      <c r="F123" s="6">
+        <v>0</v>
+      </c>
+      <c r="G123" s="6">
         <v>0</v>
       </c>
       <c r="H123" s="1" t="s">
@@ -5187,13 +5187,13 @@
       <c r="D124" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E124" s="9">
-        <v>0</v>
-      </c>
-      <c r="F124" s="9">
+      <c r="E124" s="6">
+        <v>0</v>
+      </c>
+      <c r="F124" s="6">
         <v>3</v>
       </c>
-      <c r="G124" s="9">
+      <c r="G124" s="6">
         <v>0</v>
       </c>
       <c r="H124" s="1" t="s">
@@ -5218,13 +5218,13 @@
       <c r="D125" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E125" s="9">
-        <v>0</v>
-      </c>
-      <c r="F125" s="9">
-        <v>0</v>
-      </c>
-      <c r="G125" s="9">
+      <c r="E125" s="6">
+        <v>0</v>
+      </c>
+      <c r="F125" s="6">
+        <v>0</v>
+      </c>
+      <c r="G125" s="6">
         <v>0</v>
       </c>
       <c r="H125" s="1" t="s">
@@ -5249,13 +5249,13 @@
       <c r="D126" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E126" s="9">
-        <v>0</v>
-      </c>
-      <c r="F126" s="9">
-        <v>0</v>
-      </c>
-      <c r="G126" s="9">
+      <c r="E126" s="6">
+        <v>0</v>
+      </c>
+      <c r="F126" s="6">
+        <v>0</v>
+      </c>
+      <c r="G126" s="6">
         <v>0</v>
       </c>
       <c r="H126" s="1" t="s">
@@ -5280,13 +5280,13 @@
       <c r="D127" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E127" s="9">
-        <v>0</v>
-      </c>
-      <c r="F127" s="9">
-        <v>0</v>
-      </c>
-      <c r="G127" s="9">
+      <c r="E127" s="6">
+        <v>0</v>
+      </c>
+      <c r="F127" s="6">
+        <v>0</v>
+      </c>
+      <c r="G127" s="6">
         <v>0</v>
       </c>
       <c r="H127" s="1" t="s">
@@ -5311,13 +5311,13 @@
       <c r="D128" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E128" s="9">
-        <v>0</v>
-      </c>
-      <c r="F128" s="9">
-        <v>0</v>
-      </c>
-      <c r="G128" s="9">
+      <c r="E128" s="6">
+        <v>0</v>
+      </c>
+      <c r="F128" s="6">
+        <v>0</v>
+      </c>
+      <c r="G128" s="6">
         <v>32</v>
       </c>
       <c r="H128" s="1" t="s">
@@ -5342,13 +5342,13 @@
       <c r="D129" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E129" s="9">
+      <c r="E129" s="6">
         <v>2</v>
       </c>
-      <c r="F129" s="9">
-        <v>0</v>
-      </c>
-      <c r="G129" s="9">
+      <c r="F129" s="6">
+        <v>0</v>
+      </c>
+      <c r="G129" s="6">
         <v>0</v>
       </c>
       <c r="H129" s="1" t="s">
@@ -5373,13 +5373,13 @@
       <c r="D130" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E130" s="9">
+      <c r="E130" s="6">
         <v>4</v>
       </c>
-      <c r="F130" s="9">
-        <v>0</v>
-      </c>
-      <c r="G130" s="9">
+      <c r="F130" s="6">
+        <v>0</v>
+      </c>
+      <c r="G130" s="6">
         <v>0</v>
       </c>
       <c r="H130" s="1" t="s">
@@ -5404,13 +5404,13 @@
       <c r="D131" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E131" s="9">
-        <v>0</v>
-      </c>
-      <c r="F131" s="9">
-        <v>0</v>
-      </c>
-      <c r="G131" s="9">
+      <c r="E131" s="6">
+        <v>0</v>
+      </c>
+      <c r="F131" s="6">
+        <v>0</v>
+      </c>
+      <c r="G131" s="6">
         <v>0</v>
       </c>
       <c r="H131" s="1" t="s">
@@ -5435,13 +5435,13 @@
       <c r="D132" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E132" s="9">
+      <c r="E132" s="6">
         <v>1</v>
       </c>
-      <c r="F132" s="9">
+      <c r="F132" s="6">
         <v>1</v>
       </c>
-      <c r="G132" s="9">
+      <c r="G132" s="6">
         <v>15</v>
       </c>
       <c r="H132" s="1" t="s">
@@ -5466,13 +5466,13 @@
       <c r="D133" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E133" s="9">
-        <v>0</v>
-      </c>
-      <c r="F133" s="9">
-        <v>0</v>
-      </c>
-      <c r="G133" s="9">
+      <c r="E133" s="6">
+        <v>0</v>
+      </c>
+      <c r="F133" s="6">
+        <v>0</v>
+      </c>
+      <c r="G133" s="6">
         <v>0</v>
       </c>
       <c r="H133" s="1" t="s">
@@ -5497,13 +5497,13 @@
       <c r="D134" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E134" s="9">
-        <v>0</v>
-      </c>
-      <c r="F134" s="9">
-        <v>0</v>
-      </c>
-      <c r="G134" s="9">
+      <c r="E134" s="6">
+        <v>0</v>
+      </c>
+      <c r="F134" s="6">
+        <v>0</v>
+      </c>
+      <c r="G134" s="6">
         <v>5</v>
       </c>
       <c r="H134" s="1" t="s">
@@ -5528,13 +5528,13 @@
       <c r="D135" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E135" s="9">
-        <v>0</v>
-      </c>
-      <c r="F135" s="9">
-        <v>0</v>
-      </c>
-      <c r="G135" s="9">
+      <c r="E135" s="6">
+        <v>0</v>
+      </c>
+      <c r="F135" s="6">
+        <v>0</v>
+      </c>
+      <c r="G135" s="6">
         <v>0</v>
       </c>
       <c r="H135" s="1" t="s">
@@ -5559,13 +5559,13 @@
       <c r="D136" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E136" s="9">
-        <v>0</v>
-      </c>
-      <c r="F136" s="9">
+      <c r="E136" s="6">
+        <v>0</v>
+      </c>
+      <c r="F136" s="6">
         <v>1</v>
       </c>
-      <c r="G136" s="9">
+      <c r="G136" s="6">
         <v>0</v>
       </c>
       <c r="H136" s="1" t="s">
